--- a/Measurements/measurements_12-03-2023.xlsx
+++ b/Measurements/measurements_12-03-2023.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eric\Documents\GitHub\FPGA-SIMD-Sandbox\Measurements\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6350BC2F-A83D-4730-B299-BA28A2F53081}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7A4D1ED-22B8-4602-B620-4F5D0DFDD09D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23490" yWindow="-16320" windowWidth="29040" windowHeight="16440" xr2:uid="{E844A9DA-1A30-477C-9862-EC514B4B7F27}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21840" xr2:uid="{E844A9DA-1A30-477C-9862-EC514B4B7F27}"/>
   </bookViews>
   <sheets>
     <sheet name="Messwerte 12.03.2023" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="94">
   <si>
     <t>AVX512 - PROJEKT :</t>
   </si>
@@ -309,13 +309,22 @@
   </si>
   <si>
     <t>19,3 s</t>
+  </si>
+  <si>
+    <t>VERSION :</t>
+  </si>
+  <si>
+    <t>Github history:</t>
+  </si>
+  <si>
+    <t>commit 78133a2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -365,6 +374,13 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -429,7 +445,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -480,27 +496,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -515,6 +510,34 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -833,7 +856,7 @@
   <dimension ref="A1:H61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K57" sqref="K57"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -848,11 +871,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C3" s="3" t="s">
@@ -861,6 +884,12 @@
       <c r="D3" s="4">
         <v>128</v>
       </c>
+      <c r="F3" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="G3" s="32">
+        <v>44997</v>
+      </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C4" s="3" t="s">
@@ -868,6 +897,12 @@
       </c>
       <c r="D4" s="5">
         <v>160000000</v>
+      </c>
+      <c r="F4" s="31" t="s">
+        <v>92</v>
+      </c>
+      <c r="G4" s="33" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -919,22 +954,22 @@
       </c>
     </row>
     <row r="11" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A11" s="28" t="s">
+      <c r="A11" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="B11" s="28"/>
-      <c r="C11" s="28"/>
-      <c r="D11" s="28"/>
-      <c r="E11" s="28"/>
-      <c r="F11" s="28"/>
-      <c r="G11" s="28"/>
-      <c r="H11" s="28"/>
+      <c r="B11" s="39"/>
+      <c r="C11" s="39"/>
+      <c r="D11" s="39"/>
+      <c r="E11" s="39"/>
+      <c r="F11" s="39"/>
+      <c r="G11" s="39"/>
+      <c r="H11" s="39"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="26" t="s">
+      <c r="A12" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="26"/>
+      <c r="B12" s="36"/>
       <c r="C12" s="10">
         <v>567702</v>
       </c>
@@ -955,8 +990,8 @@
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="26"/>
-      <c r="B13" s="26"/>
+      <c r="A13" s="36"/>
+      <c r="B13" s="36"/>
       <c r="C13" s="10">
         <v>560925</v>
       </c>
@@ -977,8 +1012,8 @@
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="26"/>
-      <c r="B14" s="26"/>
+      <c r="A14" s="36"/>
+      <c r="B14" s="36"/>
       <c r="C14" s="11" t="s">
         <v>21</v>
       </c>
@@ -999,10 +1034,10 @@
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="25" t="s">
+      <c r="A15" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="25"/>
+      <c r="B15" s="37"/>
       <c r="C15" s="12">
         <v>564314</v>
       </c>
@@ -1023,46 +1058,46 @@
       </c>
     </row>
     <row r="16" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="30" t="s">
+      <c r="A16" s="35" t="s">
         <v>62</v>
       </c>
-      <c r="B16" s="30"/>
-      <c r="C16" s="34" t="s">
+      <c r="B16" s="35"/>
+      <c r="C16" s="27" t="s">
         <v>70</v>
       </c>
-      <c r="D16" s="34" t="s">
+      <c r="D16" s="27" t="s">
         <v>71</v>
       </c>
-      <c r="E16" s="34" t="s">
+      <c r="E16" s="27" t="s">
         <v>73</v>
       </c>
-      <c r="F16" s="34" t="s">
+      <c r="F16" s="27" t="s">
         <v>74</v>
       </c>
-      <c r="G16" s="34" t="s">
+      <c r="G16" s="27" t="s">
         <v>75</v>
       </c>
-      <c r="H16" s="34" t="s">
+      <c r="H16" s="27" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A20" s="28" t="s">
+      <c r="A20" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="B20" s="28"/>
-      <c r="C20" s="28"/>
-      <c r="D20" s="28"/>
-      <c r="E20" s="28"/>
-      <c r="F20" s="28"/>
-      <c r="G20" s="28"/>
-      <c r="H20" s="28"/>
+      <c r="B20" s="39"/>
+      <c r="C20" s="39"/>
+      <c r="D20" s="39"/>
+      <c r="E20" s="39"/>
+      <c r="F20" s="39"/>
+      <c r="G20" s="39"/>
+      <c r="H20" s="39"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="26" t="s">
+      <c r="A21" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="B21" s="26"/>
+      <c r="B21" s="36"/>
       <c r="C21" s="10">
         <v>720899</v>
       </c>
@@ -1083,8 +1118,8 @@
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="26"/>
-      <c r="B22" s="26"/>
+      <c r="A22" s="36"/>
+      <c r="B22" s="36"/>
       <c r="C22" s="10">
         <v>643855</v>
       </c>
@@ -1105,8 +1140,8 @@
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="26"/>
-      <c r="B23" s="26"/>
+      <c r="A23" s="36"/>
+      <c r="B23" s="36"/>
       <c r="C23" s="10">
         <v>555836</v>
       </c>
@@ -1127,10 +1162,10 @@
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="25" t="s">
+      <c r="A24" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="B24" s="25"/>
+      <c r="B24" s="37"/>
       <c r="C24" s="15">
         <v>640197</v>
       </c>
@@ -1151,26 +1186,26 @@
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="30" t="s">
+      <c r="A25" s="35" t="s">
         <v>62</v>
       </c>
-      <c r="B25" s="30"/>
-      <c r="C25" s="35" t="s">
+      <c r="B25" s="35"/>
+      <c r="C25" s="28" t="s">
         <v>77</v>
       </c>
-      <c r="D25" s="34" t="s">
+      <c r="D25" s="27" t="s">
         <v>78</v>
       </c>
-      <c r="E25" s="34" t="s">
+      <c r="E25" s="27" t="s">
         <v>79</v>
       </c>
-      <c r="F25" s="34" t="s">
+      <c r="F25" s="27" t="s">
         <v>80</v>
       </c>
-      <c r="G25" s="34" t="s">
+      <c r="G25" s="27" t="s">
         <v>81</v>
       </c>
-      <c r="H25" s="37" t="s">
+      <c r="H25" s="30" t="s">
         <v>83</v>
       </c>
     </row>
@@ -1185,22 +1220,22 @@
       <c r="H26" s="20"/>
     </row>
     <row r="28" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A28" s="28" t="s">
+      <c r="A28" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="B28" s="28"/>
-      <c r="C28" s="28"/>
-      <c r="D28" s="28"/>
-      <c r="E28" s="28"/>
-      <c r="F28" s="28"/>
-      <c r="G28" s="28"/>
-      <c r="H28" s="28"/>
+      <c r="B28" s="39"/>
+      <c r="C28" s="39"/>
+      <c r="D28" s="39"/>
+      <c r="E28" s="39"/>
+      <c r="F28" s="39"/>
+      <c r="G28" s="39"/>
+      <c r="H28" s="39"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="26" t="s">
+      <c r="A29" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="B29" s="26"/>
+      <c r="B29" s="36"/>
       <c r="C29" s="13">
         <v>699969</v>
       </c>
@@ -1221,8 +1256,8 @@
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="26"/>
-      <c r="B30" s="26"/>
+      <c r="A30" s="36"/>
+      <c r="B30" s="36"/>
       <c r="C30" s="13">
         <v>594785</v>
       </c>
@@ -1243,8 +1278,8 @@
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="26"/>
-      <c r="B31" s="26"/>
+      <c r="A31" s="36"/>
+      <c r="B31" s="36"/>
       <c r="C31" s="13">
         <v>595232</v>
       </c>
@@ -1265,10 +1300,10 @@
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="25" t="s">
+      <c r="A32" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="B32" s="25"/>
+      <c r="B32" s="37"/>
       <c r="C32" s="15">
         <v>629995</v>
       </c>
@@ -1289,26 +1324,26 @@
       </c>
     </row>
     <row r="33" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="30" t="s">
+      <c r="A33" s="35" t="s">
         <v>62</v>
       </c>
-      <c r="B33" s="30"/>
-      <c r="C33" s="34" t="s">
+      <c r="B33" s="35"/>
+      <c r="C33" s="27" t="s">
         <v>71</v>
       </c>
-      <c r="D33" s="34" t="s">
+      <c r="D33" s="27" t="s">
         <v>84</v>
       </c>
-      <c r="E33" s="34" t="s">
+      <c r="E33" s="27" t="s">
         <v>85</v>
       </c>
-      <c r="F33" s="34" t="s">
+      <c r="F33" s="27" t="s">
         <v>85</v>
       </c>
-      <c r="G33" s="34" t="s">
+      <c r="G33" s="27" t="s">
         <v>86</v>
       </c>
-      <c r="H33" s="34" t="s">
+      <c r="H33" s="27" t="s">
         <v>87</v>
       </c>
     </row>
@@ -1333,22 +1368,22 @@
       </c>
     </row>
     <row r="37" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A37" s="28" t="s">
+      <c r="A37" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="B37" s="28"/>
-      <c r="C37" s="28"/>
-      <c r="D37" s="28"/>
-      <c r="E37" s="28"/>
-      <c r="F37" s="28"/>
-      <c r="G37" s="28"/>
-      <c r="H37" s="28"/>
+      <c r="B37" s="39"/>
+      <c r="C37" s="39"/>
+      <c r="D37" s="39"/>
+      <c r="E37" s="39"/>
+      <c r="F37" s="39"/>
+      <c r="G37" s="39"/>
+      <c r="H37" s="39"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="26" t="s">
+      <c r="A38" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="B38" s="26"/>
+      <c r="B38" s="36"/>
       <c r="C38" s="8"/>
       <c r="D38" s="11">
         <v>975783</v>
@@ -1363,8 +1398,8 @@
       <c r="H38" s="21"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="26"/>
-      <c r="B39" s="26"/>
+      <c r="A39" s="36"/>
+      <c r="B39" s="36"/>
       <c r="C39" s="8"/>
       <c r="D39" s="11">
         <v>945790</v>
@@ -1379,8 +1414,8 @@
       <c r="H39" s="21"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="26"/>
-      <c r="B40" s="26"/>
+      <c r="A40" s="36"/>
+      <c r="B40" s="36"/>
       <c r="C40" s="8"/>
       <c r="D40" s="11">
         <v>945829</v>
@@ -1395,10 +1430,10 @@
       <c r="H40" s="21"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="25" t="s">
+      <c r="A41" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="B41" s="25"/>
+      <c r="B41" s="37"/>
       <c r="C41" s="9"/>
       <c r="D41" s="16">
         <v>955800</v>
@@ -1413,28 +1448,28 @@
       <c r="H41" s="22"/>
     </row>
     <row r="42" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A42" s="30" t="s">
+      <c r="A42" s="35" t="s">
         <v>62</v>
       </c>
-      <c r="B42" s="30"/>
-      <c r="C42" s="31"/>
-      <c r="D42" s="34">
+      <c r="B42" s="35"/>
+      <c r="C42" s="24"/>
+      <c r="D42" s="27">
         <v>955.8</v>
       </c>
-      <c r="E42" s="34">
+      <c r="E42" s="27">
         <v>475</v>
       </c>
-      <c r="F42" s="34">
+      <c r="F42" s="27">
         <v>447.7</v>
       </c>
       <c r="G42" s="22"/>
       <c r="H42" s="22"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" s="27" t="s">
+      <c r="A43" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="B43" s="27"/>
+      <c r="B43" s="38"/>
       <c r="C43" s="8"/>
       <c r="D43" s="11" t="s">
         <v>63</v>
@@ -1449,8 +1484,8 @@
       <c r="H43" s="21"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" s="27"/>
-      <c r="B44" s="27"/>
+      <c r="A44" s="38"/>
+      <c r="B44" s="38"/>
       <c r="C44" s="8"/>
       <c r="D44" s="11" t="s">
         <v>63</v>
@@ -1465,8 +1500,8 @@
       <c r="H44" s="21"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" s="27"/>
-      <c r="B45" s="27"/>
+      <c r="A45" s="38"/>
+      <c r="B45" s="38"/>
       <c r="C45" s="8"/>
       <c r="D45" s="11" t="s">
         <v>63</v>
@@ -1481,28 +1516,28 @@
       <c r="H45" s="21"/>
     </row>
     <row r="46" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A46" s="30" t="s">
+      <c r="A46" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="B46" s="30"/>
-      <c r="C46" s="31"/>
-      <c r="D46" s="34">
+      <c r="B46" s="35"/>
+      <c r="C46" s="24"/>
+      <c r="D46" s="27">
         <v>0.68</v>
       </c>
-      <c r="E46" s="35">
+      <c r="E46" s="28">
         <v>1347</v>
       </c>
-      <c r="F46" s="35">
+      <c r="F46" s="28">
         <v>1430</v>
       </c>
-      <c r="G46" s="36"/>
-      <c r="H46" s="36"/>
+      <c r="G46" s="29"/>
+      <c r="H46" s="29"/>
     </row>
     <row r="47" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="24" t="s">
+      <c r="A47" s="34" t="s">
         <v>64</v>
       </c>
-      <c r="B47" s="24"/>
+      <c r="B47" s="34"/>
       <c r="C47" s="8"/>
       <c r="D47" s="23" t="s">
         <v>68</v>
@@ -1537,22 +1572,22 @@
       </c>
     </row>
     <row r="51" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A51" s="28" t="s">
+      <c r="A51" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="B51" s="28"/>
-      <c r="C51" s="28"/>
-      <c r="D51" s="28"/>
-      <c r="E51" s="28"/>
-      <c r="F51" s="28"/>
-      <c r="G51" s="28"/>
-      <c r="H51" s="28"/>
+      <c r="B51" s="39"/>
+      <c r="C51" s="39"/>
+      <c r="D51" s="39"/>
+      <c r="E51" s="39"/>
+      <c r="F51" s="39"/>
+      <c r="G51" s="39"/>
+      <c r="H51" s="39"/>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A52" s="26" t="s">
+      <c r="A52" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="B52" s="26"/>
+      <c r="B52" s="36"/>
       <c r="C52" s="8"/>
       <c r="D52" s="2">
         <v>662783</v>
@@ -1569,8 +1604,8 @@
       <c r="H52" s="2"/>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A53" s="26"/>
-      <c r="B53" s="26"/>
+      <c r="A53" s="36"/>
+      <c r="B53" s="36"/>
       <c r="C53" s="8"/>
       <c r="D53" s="2">
         <v>734126</v>
@@ -1587,8 +1622,8 @@
       <c r="H53" s="2"/>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A54" s="26"/>
-      <c r="B54" s="26"/>
+      <c r="A54" s="36"/>
+      <c r="B54" s="36"/>
       <c r="C54" s="8"/>
       <c r="D54" s="2">
         <v>662782</v>
@@ -1605,10 +1640,10 @@
       <c r="H54" s="2"/>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A55" s="25" t="s">
+      <c r="A55" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="B55" s="25"/>
+      <c r="B55" s="37"/>
       <c r="C55" s="9"/>
       <c r="D55" s="3">
         <v>686563</v>
@@ -1625,30 +1660,30 @@
       <c r="H55" s="3"/>
     </row>
     <row r="56" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A56" s="30" t="s">
+      <c r="A56" s="35" t="s">
         <v>62</v>
       </c>
-      <c r="B56" s="30"/>
-      <c r="C56" s="31"/>
-      <c r="D56" s="32">
+      <c r="B56" s="35"/>
+      <c r="C56" s="24"/>
+      <c r="D56" s="25">
         <v>686.6</v>
       </c>
-      <c r="E56" s="32">
+      <c r="E56" s="25">
         <v>565.20000000000005</v>
       </c>
-      <c r="F56" s="32">
+      <c r="F56" s="25">
         <v>196.4</v>
       </c>
-      <c r="G56" s="32">
+      <c r="G56" s="25">
         <v>304.3</v>
       </c>
       <c r="H56" s="3"/>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A57" s="27" t="s">
+      <c r="A57" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="B57" s="27"/>
+      <c r="B57" s="38"/>
       <c r="C57" s="8"/>
       <c r="D57" s="11" t="s">
         <v>65</v>
@@ -1665,8 +1700,8 @@
       <c r="H57" s="2"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A58" s="27"/>
-      <c r="B58" s="27"/>
+      <c r="A58" s="38"/>
+      <c r="B58" s="38"/>
       <c r="C58" s="8"/>
       <c r="D58" s="11" t="s">
         <v>66</v>
@@ -1683,8 +1718,8 @@
       <c r="H58" s="2"/>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A59" s="27"/>
-      <c r="B59" s="27"/>
+      <c r="A59" s="38"/>
+      <c r="B59" s="38"/>
       <c r="C59" s="8"/>
       <c r="D59" s="11" t="s">
         <v>65</v>
@@ -1701,30 +1736,30 @@
       <c r="H59" s="3"/>
     </row>
     <row r="60" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A60" s="30" t="s">
+      <c r="A60" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="B60" s="30"/>
-      <c r="C60" s="33"/>
-      <c r="D60" s="32">
+      <c r="B60" s="35"/>
+      <c r="C60" s="26"/>
+      <c r="D60" s="25">
         <v>0.93</v>
       </c>
-      <c r="E60" s="32">
+      <c r="E60" s="25">
         <v>1.1299999999999999</v>
       </c>
-      <c r="F60" s="32">
+      <c r="F60" s="25">
         <v>3.26</v>
       </c>
-      <c r="G60" s="32">
+      <c r="G60" s="25">
         <v>2.1</v>
       </c>
       <c r="H60" s="3"/>
     </row>
     <row r="61" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="24" t="s">
+      <c r="A61" s="34" t="s">
         <v>64</v>
       </c>
-      <c r="B61" s="24"/>
+      <c r="B61" s="34"/>
       <c r="C61" s="8"/>
       <c r="D61" s="23" t="s">
         <v>72</v>

--- a/Measurements/measurements_12-03-2023.xlsx
+++ b/Measurements/measurements_12-03-2023.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eric\Documents\GitHub\FPGA-SIMD-Sandbox\Measurements\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7A4D1ED-22B8-4602-B620-4F5D0DFDD09D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B3457B4-35C7-43C7-9F2D-260A6005215E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21840" xr2:uid="{E844A9DA-1A30-477C-9862-EC514B4B7F27}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{E844A9DA-1A30-477C-9862-EC514B4B7F27}"/>
   </bookViews>
   <sheets>
     <sheet name="Messwerte 12.03.2023" sheetId="1" r:id="rId1"/>
+    <sheet name="Messwerte __.03.2023" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="98">
   <si>
     <t>AVX512 - PROJEKT :</t>
   </si>
@@ -318,6 +319,18 @@
   </si>
   <si>
     <t>commit 78133a2</t>
+  </si>
+  <si>
+    <t>Kurzfassung Änderungen:</t>
+  </si>
+  <si>
+    <t>[[intel::private_copies(16)]] [[intel::fpga_memory("MLAB")]] Type hashVec[192] = {};</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[[intel::private_copies(16)]] [[intel::fpga_memory("MLAB")]] Type countVec[192] = {}; </t>
+  </si>
+  <si>
+    <t>Änderung des Speicherortes von hashVec, countVec und allen Hilfsdatentypen: weg von globalMem hin zu private Mem (MLAB); Rückschreiben der Werte aus beiden privaten Arrays in globMem am Ende des Algorithmus per nounrolled for-loop</t>
   </si>
 </sst>
 </file>
@@ -418,7 +431,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -441,11 +454,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -518,6 +542,11 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -538,6 +567,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -853,10 +885,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B1F966A-F8F2-4A59-9724-5827EC50EEF3}">
-  <dimension ref="A1:H61"/>
+  <dimension ref="A1:I61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="L52" sqref="L52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -870,14 +902,14 @@
     <col min="8" max="8" width="34.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="40" t="s">
+    <row r="1" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C3" s="3" t="s">
         <v>3</v>
       </c>
@@ -891,7 +923,7 @@
         <v>44997</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C4" s="3" t="s">
         <v>4</v>
       </c>
@@ -905,7 +937,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C5" s="3" t="s">
         <v>5</v>
       </c>
@@ -913,15 +945,36 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C6" s="3" t="s">
         <v>6</v>
       </c>
       <c r="D6" s="4">
         <v>179</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="G6" s="44" t="s">
+        <v>97</v>
+      </c>
+      <c r="H6" s="44"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F7" s="35" t="s">
+        <v>94</v>
+      </c>
+      <c r="G7" s="44"/>
+      <c r="H7" s="44"/>
+      <c r="I7" s="35" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G8" s="44"/>
+      <c r="H8" s="44"/>
+      <c r="I8" s="35" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
         <v>1</v>
       </c>
@@ -929,11 +982,10 @@
       <c r="C9" s="6"/>
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-    </row>
-    <row r="10" spans="1:8" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="G9" s="44"/>
+      <c r="H9" s="44"/>
+    </row>
+    <row r="10" spans="1:9" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C10" s="7" t="s">
         <v>2</v>
       </c>
@@ -953,23 +1005,23 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A11" s="39" t="s">
+    <row r="11" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A11" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="B11" s="39"/>
-      <c r="C11" s="39"/>
-      <c r="D11" s="39"/>
-      <c r="E11" s="39"/>
-      <c r="F11" s="39"/>
-      <c r="G11" s="39"/>
-      <c r="H11" s="39"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="36" t="s">
+      <c r="B11" s="42"/>
+      <c r="C11" s="42"/>
+      <c r="D11" s="42"/>
+      <c r="E11" s="42"/>
+      <c r="F11" s="42"/>
+      <c r="G11" s="42"/>
+      <c r="H11" s="42"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="36"/>
+      <c r="B12" s="39"/>
       <c r="C12" s="10">
         <v>567702</v>
       </c>
@@ -989,9 +1041,9 @@
         <v>724686</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="36"/>
-      <c r="B13" s="36"/>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="39"/>
+      <c r="B13" s="39"/>
       <c r="C13" s="10">
         <v>560925</v>
       </c>
@@ -1011,9 +1063,9 @@
         <v>728625</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="36"/>
-      <c r="B14" s="36"/>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="39"/>
+      <c r="B14" s="39"/>
       <c r="C14" s="11" t="s">
         <v>21</v>
       </c>
@@ -1033,11 +1085,11 @@
         <v>727168</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="37" t="s">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="37"/>
+      <c r="B15" s="40"/>
       <c r="C15" s="12">
         <v>564314</v>
       </c>
@@ -1057,11 +1109,11 @@
         <v>726826</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="35" t="s">
+    <row r="16" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="38" t="s">
         <v>62</v>
       </c>
-      <c r="B16" s="35"/>
+      <c r="B16" s="38"/>
       <c r="C16" s="27" t="s">
         <v>70</v>
       </c>
@@ -1082,22 +1134,22 @@
       </c>
     </row>
     <row r="20" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A20" s="39" t="s">
+      <c r="A20" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="B20" s="39"/>
-      <c r="C20" s="39"/>
-      <c r="D20" s="39"/>
-      <c r="E20" s="39"/>
-      <c r="F20" s="39"/>
-      <c r="G20" s="39"/>
-      <c r="H20" s="39"/>
+      <c r="B20" s="42"/>
+      <c r="C20" s="42"/>
+      <c r="D20" s="42"/>
+      <c r="E20" s="42"/>
+      <c r="F20" s="42"/>
+      <c r="G20" s="42"/>
+      <c r="H20" s="42"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="36" t="s">
+      <c r="A21" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="B21" s="36"/>
+      <c r="B21" s="39"/>
       <c r="C21" s="10">
         <v>720899</v>
       </c>
@@ -1118,8 +1170,8 @@
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="36"/>
-      <c r="B22" s="36"/>
+      <c r="A22" s="39"/>
+      <c r="B22" s="39"/>
       <c r="C22" s="10">
         <v>643855</v>
       </c>
@@ -1140,8 +1192,8 @@
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="36"/>
-      <c r="B23" s="36"/>
+      <c r="A23" s="39"/>
+      <c r="B23" s="39"/>
       <c r="C23" s="10">
         <v>555836</v>
       </c>
@@ -1162,10 +1214,10 @@
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="37" t="s">
+      <c r="A24" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="B24" s="37"/>
+      <c r="B24" s="40"/>
       <c r="C24" s="15">
         <v>640197</v>
       </c>
@@ -1186,10 +1238,10 @@
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="35" t="s">
+      <c r="A25" s="38" t="s">
         <v>62</v>
       </c>
-      <c r="B25" s="35"/>
+      <c r="B25" s="38"/>
       <c r="C25" s="28" t="s">
         <v>77</v>
       </c>
@@ -1220,22 +1272,22 @@
       <c r="H26" s="20"/>
     </row>
     <row r="28" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A28" s="39" t="s">
+      <c r="A28" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="B28" s="39"/>
-      <c r="C28" s="39"/>
-      <c r="D28" s="39"/>
-      <c r="E28" s="39"/>
-      <c r="F28" s="39"/>
-      <c r="G28" s="39"/>
-      <c r="H28" s="39"/>
+      <c r="B28" s="42"/>
+      <c r="C28" s="42"/>
+      <c r="D28" s="42"/>
+      <c r="E28" s="42"/>
+      <c r="F28" s="42"/>
+      <c r="G28" s="42"/>
+      <c r="H28" s="42"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="36" t="s">
+      <c r="A29" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="B29" s="36"/>
+      <c r="B29" s="39"/>
       <c r="C29" s="13">
         <v>699969</v>
       </c>
@@ -1256,8 +1308,8 @@
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="36"/>
-      <c r="B30" s="36"/>
+      <c r="A30" s="39"/>
+      <c r="B30" s="39"/>
       <c r="C30" s="13">
         <v>594785</v>
       </c>
@@ -1278,8 +1330,8 @@
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="36"/>
-      <c r="B31" s="36"/>
+      <c r="A31" s="39"/>
+      <c r="B31" s="39"/>
       <c r="C31" s="13">
         <v>595232</v>
       </c>
@@ -1300,10 +1352,10 @@
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="37" t="s">
+      <c r="A32" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="B32" s="37"/>
+      <c r="B32" s="40"/>
       <c r="C32" s="15">
         <v>629995</v>
       </c>
@@ -1324,10 +1376,10 @@
       </c>
     </row>
     <row r="33" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="35" t="s">
+      <c r="A33" s="38" t="s">
         <v>62</v>
       </c>
-      <c r="B33" s="35"/>
+      <c r="B33" s="38"/>
       <c r="C33" s="27" t="s">
         <v>71</v>
       </c>
@@ -1368,22 +1420,22 @@
       </c>
     </row>
     <row r="37" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A37" s="39" t="s">
+      <c r="A37" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="B37" s="39"/>
-      <c r="C37" s="39"/>
-      <c r="D37" s="39"/>
-      <c r="E37" s="39"/>
-      <c r="F37" s="39"/>
-      <c r="G37" s="39"/>
-      <c r="H37" s="39"/>
+      <c r="B37" s="42"/>
+      <c r="C37" s="42"/>
+      <c r="D37" s="42"/>
+      <c r="E37" s="42"/>
+      <c r="F37" s="42"/>
+      <c r="G37" s="42"/>
+      <c r="H37" s="42"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="36" t="s">
+      <c r="A38" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="B38" s="36"/>
+      <c r="B38" s="39"/>
       <c r="C38" s="8"/>
       <c r="D38" s="11">
         <v>975783</v>
@@ -1398,8 +1450,8 @@
       <c r="H38" s="21"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="36"/>
-      <c r="B39" s="36"/>
+      <c r="A39" s="39"/>
+      <c r="B39" s="39"/>
       <c r="C39" s="8"/>
       <c r="D39" s="11">
         <v>945790</v>
@@ -1414,8 +1466,8 @@
       <c r="H39" s="21"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="36"/>
-      <c r="B40" s="36"/>
+      <c r="A40" s="39"/>
+      <c r="B40" s="39"/>
       <c r="C40" s="8"/>
       <c r="D40" s="11">
         <v>945829</v>
@@ -1430,10 +1482,10 @@
       <c r="H40" s="21"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="37" t="s">
+      <c r="A41" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="B41" s="37"/>
+      <c r="B41" s="40"/>
       <c r="C41" s="9"/>
       <c r="D41" s="16">
         <v>955800</v>
@@ -1448,10 +1500,10 @@
       <c r="H41" s="22"/>
     </row>
     <row r="42" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A42" s="35" t="s">
+      <c r="A42" s="38" t="s">
         <v>62</v>
       </c>
-      <c r="B42" s="35"/>
+      <c r="B42" s="38"/>
       <c r="C42" s="24"/>
       <c r="D42" s="27">
         <v>955.8</v>
@@ -1466,10 +1518,10 @@
       <c r="H42" s="22"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" s="38" t="s">
+      <c r="A43" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="B43" s="38"/>
+      <c r="B43" s="41"/>
       <c r="C43" s="8"/>
       <c r="D43" s="11" t="s">
         <v>63</v>
@@ -1484,8 +1536,8 @@
       <c r="H43" s="21"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" s="38"/>
-      <c r="B44" s="38"/>
+      <c r="A44" s="41"/>
+      <c r="B44" s="41"/>
       <c r="C44" s="8"/>
       <c r="D44" s="11" t="s">
         <v>63</v>
@@ -1500,8 +1552,8 @@
       <c r="H44" s="21"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" s="38"/>
-      <c r="B45" s="38"/>
+      <c r="A45" s="41"/>
+      <c r="B45" s="41"/>
       <c r="C45" s="8"/>
       <c r="D45" s="11" t="s">
         <v>63</v>
@@ -1516,10 +1568,10 @@
       <c r="H45" s="21"/>
     </row>
     <row r="46" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A46" s="35" t="s">
+      <c r="A46" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="B46" s="35"/>
+      <c r="B46" s="38"/>
       <c r="C46" s="24"/>
       <c r="D46" s="27">
         <v>0.68</v>
@@ -1534,10 +1586,10 @@
       <c r="H46" s="29"/>
     </row>
     <row r="47" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="34" t="s">
+      <c r="A47" s="37" t="s">
         <v>64</v>
       </c>
-      <c r="B47" s="34"/>
+      <c r="B47" s="37"/>
       <c r="C47" s="8"/>
       <c r="D47" s="23" t="s">
         <v>68</v>
@@ -1572,22 +1624,22 @@
       </c>
     </row>
     <row r="51" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A51" s="39" t="s">
+      <c r="A51" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="B51" s="39"/>
-      <c r="C51" s="39"/>
-      <c r="D51" s="39"/>
-      <c r="E51" s="39"/>
-      <c r="F51" s="39"/>
-      <c r="G51" s="39"/>
-      <c r="H51" s="39"/>
+      <c r="B51" s="42"/>
+      <c r="C51" s="42"/>
+      <c r="D51" s="42"/>
+      <c r="E51" s="42"/>
+      <c r="F51" s="42"/>
+      <c r="G51" s="42"/>
+      <c r="H51" s="42"/>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A52" s="36" t="s">
+      <c r="A52" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="B52" s="36"/>
+      <c r="B52" s="39"/>
       <c r="C52" s="8"/>
       <c r="D52" s="2">
         <v>662783</v>
@@ -1601,11 +1653,13 @@
       <c r="G52" s="2">
         <v>304375</v>
       </c>
-      <c r="H52" s="2"/>
+      <c r="H52" s="36">
+        <v>299029</v>
+      </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A53" s="36"/>
-      <c r="B53" s="36"/>
+      <c r="A53" s="39"/>
+      <c r="B53" s="39"/>
       <c r="C53" s="8"/>
       <c r="D53" s="2">
         <v>734126</v>
@@ -1619,11 +1673,13 @@
       <c r="G53" s="2">
         <v>304348</v>
       </c>
-      <c r="H53" s="2"/>
+      <c r="H53" s="2">
+        <v>299164</v>
+      </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A54" s="36"/>
-      <c r="B54" s="36"/>
+      <c r="A54" s="39"/>
+      <c r="B54" s="39"/>
       <c r="C54" s="8"/>
       <c r="D54" s="2">
         <v>662782</v>
@@ -1637,13 +1693,15 @@
       <c r="G54" s="2">
         <v>304341</v>
       </c>
-      <c r="H54" s="2"/>
+      <c r="H54" s="2">
+        <v>299438</v>
+      </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A55" s="37" t="s">
+      <c r="A55" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="B55" s="37"/>
+      <c r="B55" s="40"/>
       <c r="C55" s="9"/>
       <c r="D55" s="3">
         <v>686563</v>
@@ -1657,13 +1715,15 @@
       <c r="G55" s="3">
         <v>304354</v>
       </c>
-      <c r="H55" s="3"/>
+      <c r="H55" s="3">
+        <v>299210</v>
+      </c>
     </row>
     <row r="56" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A56" s="35" t="s">
+      <c r="A56" s="38" t="s">
         <v>62</v>
       </c>
-      <c r="B56" s="35"/>
+      <c r="B56" s="38"/>
       <c r="C56" s="24"/>
       <c r="D56" s="25">
         <v>686.6</v>
@@ -1677,13 +1737,15 @@
       <c r="G56" s="25">
         <v>304.3</v>
       </c>
-      <c r="H56" s="3"/>
+      <c r="H56" s="3">
+        <v>299.2</v>
+      </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A57" s="38" t="s">
+      <c r="A57" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="B57" s="38"/>
+      <c r="B57" s="41"/>
       <c r="C57" s="8"/>
       <c r="D57" s="11" t="s">
         <v>65</v>
@@ -1697,11 +1759,13 @@
       <c r="G57" s="10">
         <v>2103</v>
       </c>
-      <c r="H57" s="2"/>
+      <c r="H57" s="10">
+        <v>2139</v>
+      </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A58" s="38"/>
-      <c r="B58" s="38"/>
+      <c r="A58" s="41"/>
+      <c r="B58" s="41"/>
       <c r="C58" s="8"/>
       <c r="D58" s="11" t="s">
         <v>66</v>
@@ -1715,11 +1779,13 @@
       <c r="G58" s="10">
         <v>2103</v>
       </c>
-      <c r="H58" s="2"/>
+      <c r="H58" s="10">
+        <v>2140</v>
+      </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A59" s="38"/>
-      <c r="B59" s="38"/>
+      <c r="A59" s="41"/>
+      <c r="B59" s="41"/>
       <c r="C59" s="8"/>
       <c r="D59" s="11" t="s">
         <v>65</v>
@@ -1733,13 +1799,15 @@
       <c r="G59" s="12">
         <v>2103</v>
       </c>
-      <c r="H59" s="3"/>
+      <c r="H59" s="10">
+        <v>2137</v>
+      </c>
     </row>
     <row r="60" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A60" s="35" t="s">
+      <c r="A60" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="B60" s="35"/>
+      <c r="B60" s="38"/>
       <c r="C60" s="26"/>
       <c r="D60" s="25">
         <v>0.93</v>
@@ -1753,13 +1821,15 @@
       <c r="G60" s="25">
         <v>2.1</v>
       </c>
-      <c r="H60" s="3"/>
+      <c r="H60" s="12">
+        <v>2139</v>
+      </c>
     </row>
     <row r="61" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="34" t="s">
+      <c r="A61" s="37" t="s">
         <v>64</v>
       </c>
-      <c r="B61" s="34"/>
+      <c r="B61" s="37"/>
       <c r="C61" s="8"/>
       <c r="D61" s="23" t="s">
         <v>72</v>
@@ -1778,7 +1848,7 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="27">
+  <mergeCells count="28">
     <mergeCell ref="A32:B32"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A11:H11"/>
@@ -1790,6 +1860,7 @@
     <mergeCell ref="A24:B24"/>
     <mergeCell ref="A28:H28"/>
     <mergeCell ref="A29:B31"/>
+    <mergeCell ref="G6:H9"/>
     <mergeCell ref="A61:B61"/>
     <mergeCell ref="A25:B25"/>
     <mergeCell ref="A33:B33"/>
@@ -1810,4 +1881,418 @@
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECB6A3A5-9C23-437D-AE4E-A3CE7C8CBBAD}">
+  <dimension ref="A1:I60"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="17.85546875" customWidth="1"/>
+    <col min="3" max="3" width="22.28515625" customWidth="1"/>
+    <col min="4" max="4" width="22.5703125" customWidth="1"/>
+    <col min="5" max="5" width="23.5703125" customWidth="1"/>
+    <col min="6" max="6" width="22.85546875" customWidth="1"/>
+    <col min="7" max="7" width="30.140625" customWidth="1"/>
+    <col min="8" max="8" width="34.7109375" customWidth="1"/>
+    <col min="9" max="9" width="45.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="43" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="4">
+        <v>128</v>
+      </c>
+      <c r="F3" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="G3" s="32"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="5">
+        <v>160000000</v>
+      </c>
+      <c r="F4" s="31" t="s">
+        <v>92</v>
+      </c>
+      <c r="G4" s="33"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="4">
+        <v>1.4</v>
+      </c>
+      <c r="G5" s="44" t="s">
+        <v>97</v>
+      </c>
+      <c r="H5" s="44"/>
+    </row>
+    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="4">
+        <v>179</v>
+      </c>
+      <c r="F6" s="35" t="s">
+        <v>94</v>
+      </c>
+      <c r="G6" s="44"/>
+      <c r="H6" s="44"/>
+      <c r="I6" s="35" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G7" s="44"/>
+      <c r="H7" s="44"/>
+      <c r="I7" s="35" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G8" s="44"/>
+      <c r="H8" s="44"/>
+    </row>
+    <row r="9" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A9" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9" s="7"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+    </row>
+    <row r="10" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C10" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A11" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="34"/>
+      <c r="C11" s="34"/>
+      <c r="D11" s="34"/>
+      <c r="E11" s="34"/>
+      <c r="F11" s="34"/>
+      <c r="G11" s="34"/>
+      <c r="H11" s="34"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="39" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="39"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="21"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="39"/>
+      <c r="B13" s="39"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="21"/>
+      <c r="H13" s="21"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="39"/>
+      <c r="B14" s="39"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="21"/>
+      <c r="H14" s="21"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="40" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="40"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="16"/>
+      <c r="G15" s="22"/>
+      <c r="H15" s="22"/>
+    </row>
+    <row r="16" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="38" t="s">
+        <v>62</v>
+      </c>
+      <c r="B16" s="38"/>
+      <c r="C16" s="24"/>
+      <c r="D16" s="27"/>
+      <c r="E16" s="27"/>
+      <c r="F16" s="27"/>
+      <c r="G16" s="22"/>
+      <c r="H16" s="22"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="41" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" s="41"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="21"/>
+      <c r="H17" s="21"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="41"/>
+      <c r="B18" s="41"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="21"/>
+      <c r="H18" s="21"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="41"/>
+      <c r="B19" s="41"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="21"/>
+      <c r="H19" s="21"/>
+    </row>
+    <row r="20" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="38" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" s="38"/>
+      <c r="C20" s="24"/>
+      <c r="D20" s="27"/>
+      <c r="E20" s="28"/>
+      <c r="F20" s="28"/>
+      <c r="G20" s="29"/>
+      <c r="H20" s="29"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="37" t="s">
+        <v>64</v>
+      </c>
+      <c r="B21" s="37"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="23"/>
+      <c r="E21" s="23"/>
+      <c r="F21" s="23"/>
+      <c r="G21" s="21"/>
+      <c r="H21" s="21"/>
+    </row>
+    <row r="24" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C24" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H24" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A25" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="B25" s="42"/>
+      <c r="C25" s="42"/>
+      <c r="D25" s="42"/>
+      <c r="E25" s="42"/>
+      <c r="F25" s="42"/>
+      <c r="G25" s="42"/>
+      <c r="H25" s="42"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="39" t="s">
+        <v>13</v>
+      </c>
+      <c r="B26" s="39"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="39"/>
+      <c r="B27" s="39"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="39"/>
+      <c r="B28" s="39"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="40" t="s">
+        <v>14</v>
+      </c>
+      <c r="B29" s="40"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+    </row>
+    <row r="30" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A30" s="38" t="s">
+        <v>62</v>
+      </c>
+      <c r="B30" s="38"/>
+      <c r="C30" s="24"/>
+      <c r="D30" s="25"/>
+      <c r="E30" s="25"/>
+      <c r="F30" s="25"/>
+      <c r="G30" s="25"/>
+      <c r="H30" s="3"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="41" t="s">
+        <v>18</v>
+      </c>
+      <c r="B31" s="41"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="11"/>
+      <c r="E31" s="10"/>
+      <c r="F31" s="10"/>
+      <c r="G31" s="10"/>
+      <c r="H31" s="2"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="41"/>
+      <c r="B32" s="41"/>
+      <c r="C32" s="8"/>
+      <c r="D32" s="11"/>
+      <c r="E32" s="10"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="10"/>
+      <c r="H32" s="2"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="41"/>
+      <c r="B33" s="41"/>
+      <c r="C33" s="8"/>
+      <c r="D33" s="11"/>
+      <c r="E33" s="13"/>
+      <c r="F33" s="10"/>
+      <c r="G33" s="12"/>
+      <c r="H33" s="3"/>
+    </row>
+    <row r="34" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A34" s="38" t="s">
+        <v>19</v>
+      </c>
+      <c r="B34" s="38"/>
+      <c r="C34" s="26"/>
+      <c r="D34" s="25"/>
+      <c r="E34" s="25"/>
+      <c r="F34" s="25"/>
+      <c r="G34" s="25"/>
+      <c r="H34" s="3"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="37" t="s">
+        <v>64</v>
+      </c>
+      <c r="B35" s="37"/>
+      <c r="C35" s="8"/>
+      <c r="D35" s="23"/>
+      <c r="E35" s="23"/>
+      <c r="F35" s="23"/>
+      <c r="G35" s="23"/>
+      <c r="H35" s="23"/>
+    </row>
+    <row r="46" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="60" ht="29.25" customHeight="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <mergeCells count="15">
+    <mergeCell ref="G5:H8"/>
+    <mergeCell ref="A12:B14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A17:B19"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A31:B33"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A25:H25"/>
+    <mergeCell ref="A26:B28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="A30:B30"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Measurements/measurements_12-03-2023.xlsx
+++ b/Measurements/measurements_12-03-2023.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eric\Documents\GitHub\FPGA-SIMD-Sandbox\Measurements\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B3457B4-35C7-43C7-9F2D-260A6005215E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B7CE35D-9003-4296-848B-2BAFB3FEB8D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{E844A9DA-1A30-477C-9862-EC514B4B7F27}"/>
+    <workbookView xWindow="4755" yWindow="2835" windowWidth="28800" windowHeight="15345" activeTab="1" xr2:uid="{E844A9DA-1A30-477C-9862-EC514B4B7F27}"/>
   </bookViews>
   <sheets>
     <sheet name="Messwerte 12.03.2023" sheetId="1" r:id="rId1"/>
-    <sheet name="Messwerte __.03.2023" sheetId="2" r:id="rId2"/>
+    <sheet name="Messwerte 14.03.2023" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="113">
   <si>
     <t>AVX512 - PROJEKT :</t>
   </si>
@@ -331,6 +331,51 @@
   </si>
   <si>
     <t>Änderung des Speicherortes von hashVec, countVec und allen Hilfsdatentypen: weg von globalMem hin zu private Mem (MLAB); Rückschreiben der Werte aus beiden privaten Arrays in globMem am Ende des Algorithmus per nounrolled for-loop</t>
+  </si>
+  <si>
+    <t>        [[intel::fpga_memory("MLAB") , intel::numbanks(4), intel::private_copies(64)]] Type hashVec[globalHSIZE] = {};</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        [[intel::fpga_memory("MLAB") , intel::numbanks(4), intel::private_copies(64)]] Type countVec[globalHSIZE] = {}; </t>
+  </si>
+  <si>
+    <t>Änderung des Speicherortes von hashVec, countVec und allen Hilfsdatentypen: weg von globalMem hin zu private Mem (MLAB); Rückschreiben der Werte aus beiden privaten Arrays in globMem am Ende des Algorithmus per x2 unrolled for-loop</t>
+  </si>
+  <si>
+    <t>51347.3</t>
+  </si>
+  <si>
+    <t>51,3 s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    [[intel::fpga_memory("MLAB") , intel::numbanks(1) , intel::private_copies(16)]] Type countVec[globalHSIZE]; </t>
+  </si>
+  <si>
+    <t>    [[intel::fpga_memory("MLAB") , intel::numbanks(1) , intel::private_copies(16)]] Type hashVec[globalHSIZE];</t>
+  </si>
+  <si>
+    <t>v3</t>
+  </si>
+  <si>
+    <t>v1, v2</t>
+  </si>
+  <si>
+    <t>54.357.6</t>
+  </si>
+  <si>
+    <t>54,3 s</t>
+  </si>
+  <si>
+    <t>Messwerte 17.03.2023</t>
+  </si>
+  <si>
+    <t>   [[intel::fpga_memory("MLAB") , intel::numbanks(1) , intel::bankwidth(1024) , intel::private_copies(16)]] Type hashVec[globalHSIZE];</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   [[intel::fpga_memory("MLAB") , intel::numbanks(1) , intel::bankwidth(1024) , intel::private_copies(16)]] Type countVec[globalHSIZE]; </t>
+  </si>
+  <si>
+    <t>v4</t>
   </si>
 </sst>
 </file>
@@ -469,7 +514,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -547,29 +592,32 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -887,7 +935,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B1F966A-F8F2-4A59-9724-5827EC50EEF3}">
   <dimension ref="A1:I61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A20" workbookViewId="0">
       <selection activeCell="L52" sqref="L52"/>
     </sheetView>
   </sheetViews>
@@ -903,11 +951,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C3" s="3" t="s">
@@ -952,24 +1000,24 @@
       <c r="D6" s="4">
         <v>179</v>
       </c>
-      <c r="G6" s="44" t="s">
+      <c r="G6" s="42" t="s">
         <v>97</v>
       </c>
-      <c r="H6" s="44"/>
+      <c r="H6" s="42"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F7" s="35" t="s">
         <v>94</v>
       </c>
-      <c r="G7" s="44"/>
-      <c r="H7" s="44"/>
+      <c r="G7" s="42"/>
+      <c r="H7" s="42"/>
       <c r="I7" s="35" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="G8" s="44"/>
-      <c r="H8" s="44"/>
+      <c r="G8" s="42"/>
+      <c r="H8" s="42"/>
       <c r="I8" s="35" t="s">
         <v>96</v>
       </c>
@@ -982,8 +1030,8 @@
       <c r="C9" s="6"/>
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
-      <c r="G9" s="44"/>
-      <c r="H9" s="44"/>
+      <c r="G9" s="42"/>
+      <c r="H9" s="42"/>
     </row>
     <row r="10" spans="1:9" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C10" s="7" t="s">
@@ -1006,22 +1054,22 @@
       </c>
     </row>
     <row r="11" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A11" s="42" t="s">
+      <c r="A11" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="B11" s="42"/>
-      <c r="C11" s="42"/>
-      <c r="D11" s="42"/>
-      <c r="E11" s="42"/>
-      <c r="F11" s="42"/>
-      <c r="G11" s="42"/>
-      <c r="H11" s="42"/>
+      <c r="B11" s="39"/>
+      <c r="C11" s="39"/>
+      <c r="D11" s="39"/>
+      <c r="E11" s="39"/>
+      <c r="F11" s="39"/>
+      <c r="G11" s="39"/>
+      <c r="H11" s="39"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="39" t="s">
+      <c r="A12" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="39"/>
+      <c r="B12" s="41"/>
       <c r="C12" s="10">
         <v>567702</v>
       </c>
@@ -1042,8 +1090,8 @@
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="39"/>
-      <c r="B13" s="39"/>
+      <c r="A13" s="41"/>
+      <c r="B13" s="41"/>
       <c r="C13" s="10">
         <v>560925</v>
       </c>
@@ -1064,8 +1112,8 @@
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="39"/>
-      <c r="B14" s="39"/>
+      <c r="A14" s="41"/>
+      <c r="B14" s="41"/>
       <c r="C14" s="11" t="s">
         <v>21</v>
       </c>
@@ -1086,10 +1134,10 @@
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="40" t="s">
+      <c r="A15" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="40"/>
+      <c r="B15" s="37"/>
       <c r="C15" s="12">
         <v>564314</v>
       </c>
@@ -1110,10 +1158,10 @@
       </c>
     </row>
     <row r="16" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="38" t="s">
+      <c r="A16" s="40" t="s">
         <v>62</v>
       </c>
-      <c r="B16" s="38"/>
+      <c r="B16" s="40"/>
       <c r="C16" s="27" t="s">
         <v>70</v>
       </c>
@@ -1134,22 +1182,22 @@
       </c>
     </row>
     <row r="20" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A20" s="42" t="s">
+      <c r="A20" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="B20" s="42"/>
-      <c r="C20" s="42"/>
-      <c r="D20" s="42"/>
-      <c r="E20" s="42"/>
-      <c r="F20" s="42"/>
-      <c r="G20" s="42"/>
-      <c r="H20" s="42"/>
+      <c r="B20" s="39"/>
+      <c r="C20" s="39"/>
+      <c r="D20" s="39"/>
+      <c r="E20" s="39"/>
+      <c r="F20" s="39"/>
+      <c r="G20" s="39"/>
+      <c r="H20" s="39"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="39" t="s">
+      <c r="A21" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="B21" s="39"/>
+      <c r="B21" s="41"/>
       <c r="C21" s="10">
         <v>720899</v>
       </c>
@@ -1170,8 +1218,8 @@
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="39"/>
-      <c r="B22" s="39"/>
+      <c r="A22" s="41"/>
+      <c r="B22" s="41"/>
       <c r="C22" s="10">
         <v>643855</v>
       </c>
@@ -1192,8 +1240,8 @@
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="39"/>
-      <c r="B23" s="39"/>
+      <c r="A23" s="41"/>
+      <c r="B23" s="41"/>
       <c r="C23" s="10">
         <v>555836</v>
       </c>
@@ -1214,10 +1262,10 @@
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="40" t="s">
+      <c r="A24" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="B24" s="40"/>
+      <c r="B24" s="37"/>
       <c r="C24" s="15">
         <v>640197</v>
       </c>
@@ -1238,10 +1286,10 @@
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="38" t="s">
+      <c r="A25" s="40" t="s">
         <v>62</v>
       </c>
-      <c r="B25" s="38"/>
+      <c r="B25" s="40"/>
       <c r="C25" s="28" t="s">
         <v>77</v>
       </c>
@@ -1272,22 +1320,22 @@
       <c r="H26" s="20"/>
     </row>
     <row r="28" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A28" s="42" t="s">
+      <c r="A28" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="B28" s="42"/>
-      <c r="C28" s="42"/>
-      <c r="D28" s="42"/>
-      <c r="E28" s="42"/>
-      <c r="F28" s="42"/>
-      <c r="G28" s="42"/>
-      <c r="H28" s="42"/>
+      <c r="B28" s="39"/>
+      <c r="C28" s="39"/>
+      <c r="D28" s="39"/>
+      <c r="E28" s="39"/>
+      <c r="F28" s="39"/>
+      <c r="G28" s="39"/>
+      <c r="H28" s="39"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="39" t="s">
+      <c r="A29" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="B29" s="39"/>
+      <c r="B29" s="41"/>
       <c r="C29" s="13">
         <v>699969</v>
       </c>
@@ -1308,8 +1356,8 @@
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="39"/>
-      <c r="B30" s="39"/>
+      <c r="A30" s="41"/>
+      <c r="B30" s="41"/>
       <c r="C30" s="13">
         <v>594785</v>
       </c>
@@ -1330,8 +1378,8 @@
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="39"/>
-      <c r="B31" s="39"/>
+      <c r="A31" s="41"/>
+      <c r="B31" s="41"/>
       <c r="C31" s="13">
         <v>595232</v>
       </c>
@@ -1352,10 +1400,10 @@
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="40" t="s">
+      <c r="A32" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="B32" s="40"/>
+      <c r="B32" s="37"/>
       <c r="C32" s="15">
         <v>629995</v>
       </c>
@@ -1376,10 +1424,10 @@
       </c>
     </row>
     <row r="33" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="38" t="s">
+      <c r="A33" s="40" t="s">
         <v>62</v>
       </c>
-      <c r="B33" s="38"/>
+      <c r="B33" s="40"/>
       <c r="C33" s="27" t="s">
         <v>71</v>
       </c>
@@ -1420,22 +1468,22 @@
       </c>
     </row>
     <row r="37" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A37" s="42" t="s">
+      <c r="A37" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="B37" s="42"/>
-      <c r="C37" s="42"/>
-      <c r="D37" s="42"/>
-      <c r="E37" s="42"/>
-      <c r="F37" s="42"/>
-      <c r="G37" s="42"/>
-      <c r="H37" s="42"/>
+      <c r="B37" s="39"/>
+      <c r="C37" s="39"/>
+      <c r="D37" s="39"/>
+      <c r="E37" s="39"/>
+      <c r="F37" s="39"/>
+      <c r="G37" s="39"/>
+      <c r="H37" s="39"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="39" t="s">
+      <c r="A38" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="B38" s="39"/>
+      <c r="B38" s="41"/>
       <c r="C38" s="8"/>
       <c r="D38" s="11">
         <v>975783</v>
@@ -1450,8 +1498,8 @@
       <c r="H38" s="21"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="39"/>
-      <c r="B39" s="39"/>
+      <c r="A39" s="41"/>
+      <c r="B39" s="41"/>
       <c r="C39" s="8"/>
       <c r="D39" s="11">
         <v>945790</v>
@@ -1466,8 +1514,8 @@
       <c r="H39" s="21"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="39"/>
-      <c r="B40" s="39"/>
+      <c r="A40" s="41"/>
+      <c r="B40" s="41"/>
       <c r="C40" s="8"/>
       <c r="D40" s="11">
         <v>945829</v>
@@ -1482,10 +1530,10 @@
       <c r="H40" s="21"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="40" t="s">
+      <c r="A41" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="B41" s="40"/>
+      <c r="B41" s="37"/>
       <c r="C41" s="9"/>
       <c r="D41" s="16">
         <v>955800</v>
@@ -1500,10 +1548,10 @@
       <c r="H41" s="22"/>
     </row>
     <row r="42" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A42" s="38" t="s">
+      <c r="A42" s="40" t="s">
         <v>62</v>
       </c>
-      <c r="B42" s="38"/>
+      <c r="B42" s="40"/>
       <c r="C42" s="24"/>
       <c r="D42" s="27">
         <v>955.8</v>
@@ -1518,10 +1566,10 @@
       <c r="H42" s="22"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" s="41" t="s">
+      <c r="A43" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="B43" s="41"/>
+      <c r="B43" s="44"/>
       <c r="C43" s="8"/>
       <c r="D43" s="11" t="s">
         <v>63</v>
@@ -1536,8 +1584,8 @@
       <c r="H43" s="21"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" s="41"/>
-      <c r="B44" s="41"/>
+      <c r="A44" s="44"/>
+      <c r="B44" s="44"/>
       <c r="C44" s="8"/>
       <c r="D44" s="11" t="s">
         <v>63</v>
@@ -1552,8 +1600,8 @@
       <c r="H44" s="21"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" s="41"/>
-      <c r="B45" s="41"/>
+      <c r="A45" s="44"/>
+      <c r="B45" s="44"/>
       <c r="C45" s="8"/>
       <c r="D45" s="11" t="s">
         <v>63</v>
@@ -1568,10 +1616,10 @@
       <c r="H45" s="21"/>
     </row>
     <row r="46" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A46" s="38" t="s">
+      <c r="A46" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="B46" s="38"/>
+      <c r="B46" s="40"/>
       <c r="C46" s="24"/>
       <c r="D46" s="27">
         <v>0.68</v>
@@ -1586,10 +1634,10 @@
       <c r="H46" s="29"/>
     </row>
     <row r="47" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="37" t="s">
+      <c r="A47" s="43" t="s">
         <v>64</v>
       </c>
-      <c r="B47" s="37"/>
+      <c r="B47" s="43"/>
       <c r="C47" s="8"/>
       <c r="D47" s="23" t="s">
         <v>68</v>
@@ -1624,22 +1672,22 @@
       </c>
     </row>
     <row r="51" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A51" s="42" t="s">
+      <c r="A51" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="B51" s="42"/>
-      <c r="C51" s="42"/>
-      <c r="D51" s="42"/>
-      <c r="E51" s="42"/>
-      <c r="F51" s="42"/>
-      <c r="G51" s="42"/>
-      <c r="H51" s="42"/>
+      <c r="B51" s="39"/>
+      <c r="C51" s="39"/>
+      <c r="D51" s="39"/>
+      <c r="E51" s="39"/>
+      <c r="F51" s="39"/>
+      <c r="G51" s="39"/>
+      <c r="H51" s="39"/>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A52" s="39" t="s">
+      <c r="A52" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="B52" s="39"/>
+      <c r="B52" s="41"/>
       <c r="C52" s="8"/>
       <c r="D52" s="2">
         <v>662783</v>
@@ -1658,8 +1706,8 @@
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A53" s="39"/>
-      <c r="B53" s="39"/>
+      <c r="A53" s="41"/>
+      <c r="B53" s="41"/>
       <c r="C53" s="8"/>
       <c r="D53" s="2">
         <v>734126</v>
@@ -1678,8 +1726,8 @@
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A54" s="39"/>
-      <c r="B54" s="39"/>
+      <c r="A54" s="41"/>
+      <c r="B54" s="41"/>
       <c r="C54" s="8"/>
       <c r="D54" s="2">
         <v>662782</v>
@@ -1698,10 +1746,10 @@
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A55" s="40" t="s">
+      <c r="A55" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="B55" s="40"/>
+      <c r="B55" s="37"/>
       <c r="C55" s="9"/>
       <c r="D55" s="3">
         <v>686563</v>
@@ -1720,10 +1768,10 @@
       </c>
     </row>
     <row r="56" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A56" s="38" t="s">
+      <c r="A56" s="40" t="s">
         <v>62</v>
       </c>
-      <c r="B56" s="38"/>
+      <c r="B56" s="40"/>
       <c r="C56" s="24"/>
       <c r="D56" s="25">
         <v>686.6</v>
@@ -1742,10 +1790,10 @@
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A57" s="41" t="s">
+      <c r="A57" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="B57" s="41"/>
+      <c r="B57" s="44"/>
       <c r="C57" s="8"/>
       <c r="D57" s="11" t="s">
         <v>65</v>
@@ -1764,8 +1812,8 @@
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A58" s="41"/>
-      <c r="B58" s="41"/>
+      <c r="A58" s="44"/>
+      <c r="B58" s="44"/>
       <c r="C58" s="8"/>
       <c r="D58" s="11" t="s">
         <v>66</v>
@@ -1784,8 +1832,8 @@
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A59" s="41"/>
-      <c r="B59" s="41"/>
+      <c r="A59" s="44"/>
+      <c r="B59" s="44"/>
       <c r="C59" s="8"/>
       <c r="D59" s="11" t="s">
         <v>65</v>
@@ -1804,10 +1852,10 @@
       </c>
     </row>
     <row r="60" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A60" s="38" t="s">
+      <c r="A60" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="B60" s="38"/>
+      <c r="B60" s="40"/>
       <c r="C60" s="26"/>
       <c r="D60" s="25">
         <v>0.93</v>
@@ -1826,10 +1874,10 @@
       </c>
     </row>
     <row r="61" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="37" t="s">
+      <c r="A61" s="43" t="s">
         <v>64</v>
       </c>
-      <c r="B61" s="37"/>
+      <c r="B61" s="43"/>
       <c r="C61" s="8"/>
       <c r="D61" s="23" t="s">
         <v>72</v>
@@ -1849,18 +1897,6 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A11:H11"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A12:B14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A20:H20"/>
-    <mergeCell ref="A21:B23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A28:H28"/>
-    <mergeCell ref="A29:B31"/>
-    <mergeCell ref="G6:H9"/>
     <mergeCell ref="A61:B61"/>
     <mergeCell ref="A25:B25"/>
     <mergeCell ref="A33:B33"/>
@@ -1877,6 +1913,18 @@
     <mergeCell ref="A43:B45"/>
     <mergeCell ref="A46:B46"/>
     <mergeCell ref="A51:H51"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A11:H11"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A12:B14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A20:H20"/>
+    <mergeCell ref="A21:B23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A28:H28"/>
+    <mergeCell ref="A29:B31"/>
+    <mergeCell ref="G6:H9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -1885,10 +1933,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECB6A3A5-9C23-437D-AE4E-A3CE7C8CBBAD}">
-  <dimension ref="A1:I60"/>
+  <dimension ref="A1:K60"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I35" sqref="I35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1904,11 +1952,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="43" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
+      <c r="A1" s="38" t="s">
+        <v>109</v>
+      </c>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C3" s="3" t="s">
@@ -1941,10 +1989,10 @@
       <c r="D5" s="4">
         <v>1.4</v>
       </c>
-      <c r="G5" s="44" t="s">
-        <v>97</v>
-      </c>
-      <c r="H5" s="44"/>
+      <c r="G5" s="42" t="s">
+        <v>100</v>
+      </c>
+      <c r="H5" s="42"/>
     </row>
     <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C6" s="3" t="s">
@@ -1956,22 +2004,16 @@
       <c r="F6" s="35" t="s">
         <v>94</v>
       </c>
-      <c r="G6" s="44"/>
-      <c r="H6" s="44"/>
-      <c r="I6" s="35" t="s">
-        <v>95</v>
-      </c>
+      <c r="G6" s="42"/>
+      <c r="H6" s="42"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="G7" s="44"/>
-      <c r="H7" s="44"/>
-      <c r="I7" s="35" t="s">
-        <v>96</v>
-      </c>
+      <c r="G7" s="42"/>
+      <c r="H7" s="42"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="G8" s="44"/>
-      <c r="H8" s="44"/>
+      <c r="G8" s="42"/>
+      <c r="H8" s="42"/>
     </row>
     <row r="9" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
@@ -2018,109 +2060,170 @@
       <c r="H11" s="34"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="39" t="s">
+      <c r="A12" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="39"/>
+      <c r="B12" s="41"/>
       <c r="C12" s="8"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
+      <c r="D12" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="F12" s="11" t="s">
+        <v>107</v>
+      </c>
       <c r="G12" s="21"/>
       <c r="H12" s="21"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="39"/>
-      <c r="B13" s="39"/>
+      <c r="A13" s="41"/>
+      <c r="B13" s="41"/>
       <c r="C13" s="8"/>
-      <c r="D13" s="11"/>
-      <c r="F13" s="11"/>
+      <c r="D13" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="F13" s="11" t="s">
+        <v>107</v>
+      </c>
       <c r="G13" s="21"/>
       <c r="H13" s="21"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="39"/>
-      <c r="B14" s="39"/>
+      <c r="A14" s="41"/>
+      <c r="B14" s="41"/>
       <c r="C14" s="8"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11"/>
+      <c r="D14" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="F14" s="11" t="s">
+        <v>107</v>
+      </c>
       <c r="G14" s="21"/>
       <c r="H14" s="21"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="40" t="s">
+      <c r="A15" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="40"/>
+      <c r="B15" s="37"/>
       <c r="C15" s="9"/>
-      <c r="D15" s="16"/>
-      <c r="E15" s="16"/>
-      <c r="F15" s="16"/>
+      <c r="D15" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="F15" s="11" t="s">
+        <v>107</v>
+      </c>
       <c r="G15" s="22"/>
       <c r="H15" s="22"/>
+      <c r="I15" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="16" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="38" t="s">
+      <c r="A16" s="40" t="s">
         <v>62</v>
       </c>
-      <c r="B16" s="38"/>
+      <c r="B16" s="40"/>
       <c r="C16" s="24"/>
-      <c r="D16" s="27"/>
-      <c r="E16" s="27"/>
-      <c r="F16" s="27"/>
+      <c r="D16" s="27" t="s">
+        <v>102</v>
+      </c>
+      <c r="E16" s="27" t="s">
+        <v>108</v>
+      </c>
+      <c r="F16" s="27" t="s">
+        <v>108</v>
+      </c>
       <c r="G16" s="22"/>
       <c r="H16" s="22"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="41" t="s">
+      <c r="I16" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="41"/>
+      <c r="B17" s="44"/>
       <c r="C17" s="8"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="13"/>
+      <c r="D17" s="13">
+        <v>12461</v>
+      </c>
+      <c r="E17" s="13">
+        <v>11774</v>
+      </c>
+      <c r="F17" s="13">
+        <v>11774</v>
+      </c>
       <c r="G17" s="21"/>
       <c r="H17" s="21"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="41"/>
-      <c r="B18" s="41"/>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" s="44"/>
+      <c r="B18" s="44"/>
       <c r="C18" s="8"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13"/>
+      <c r="D18" s="13">
+        <v>12461</v>
+      </c>
+      <c r="E18" s="13">
+        <v>11774</v>
+      </c>
+      <c r="F18" s="13">
+        <v>11774</v>
+      </c>
       <c r="G18" s="21"/>
       <c r="H18" s="21"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="41"/>
-      <c r="B19" s="41"/>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" s="44"/>
+      <c r="B19" s="44"/>
       <c r="C19" s="8"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
+      <c r="D19" s="13">
+        <v>12461</v>
+      </c>
+      <c r="E19" s="13">
+        <v>11774</v>
+      </c>
+      <c r="F19" s="13">
+        <v>11774</v>
+      </c>
       <c r="G19" s="21"/>
       <c r="H19" s="21"/>
     </row>
-    <row r="20" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="38" t="s">
+    <row r="20" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="38"/>
+      <c r="B20" s="40"/>
       <c r="C20" s="24"/>
-      <c r="D20" s="27"/>
-      <c r="E20" s="28"/>
-      <c r="F20" s="28"/>
+      <c r="D20" s="27">
+        <v>12.46</v>
+      </c>
+      <c r="E20" s="45">
+        <v>11.77</v>
+      </c>
+      <c r="F20" s="45">
+        <v>11.77</v>
+      </c>
       <c r="G20" s="29"/>
       <c r="H20" s="29"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="37" t="s">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" s="43" t="s">
         <v>64</v>
       </c>
-      <c r="B21" s="37"/>
+      <c r="B21" s="43"/>
       <c r="C21" s="8"/>
       <c r="D21" s="23"/>
       <c r="E21" s="23"/>
@@ -2128,7 +2231,7 @@
       <c r="G21" s="21"/>
       <c r="H21" s="21"/>
     </row>
-    <row r="24" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C24" s="7" t="s">
         <v>2</v>
       </c>
@@ -2148,111 +2251,152 @@
         <v>12</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A25" s="42" t="s">
+    <row r="25" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A25" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="B25" s="42"/>
-      <c r="C25" s="42"/>
-      <c r="D25" s="42"/>
-      <c r="E25" s="42"/>
-      <c r="F25" s="42"/>
-      <c r="G25" s="42"/>
-      <c r="H25" s="42"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="39" t="s">
+      <c r="B25" s="39"/>
+      <c r="C25" s="39"/>
+      <c r="D25" s="39"/>
+      <c r="E25" s="39"/>
+      <c r="F25" s="39"/>
+      <c r="G25" s="39"/>
+      <c r="H25" s="39"/>
+      <c r="I25" s="35"/>
+      <c r="J25" s="35" t="s">
+        <v>106</v>
+      </c>
+      <c r="K25" s="35"/>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="B26" s="39"/>
+      <c r="B26" s="41"/>
       <c r="C26" s="8"/>
-      <c r="D26" s="2"/>
+      <c r="D26" s="11"/>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
       <c r="H26" s="2"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="39"/>
-      <c r="B27" s="39"/>
+      <c r="I26" s="35" t="s">
+        <v>104</v>
+      </c>
+      <c r="J26" s="35"/>
+      <c r="K26" s="35"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27" s="41"/>
+      <c r="B27" s="41"/>
       <c r="C27" s="8"/>
-      <c r="D27" s="2"/>
+      <c r="D27" s="11"/>
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
       <c r="H27" s="2"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="39"/>
-      <c r="B28" s="39"/>
+      <c r="I27" s="35" t="s">
+        <v>103</v>
+      </c>
+      <c r="J27" s="35"/>
+      <c r="K27" s="35"/>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28" s="41"/>
+      <c r="B28" s="41"/>
       <c r="C28" s="8"/>
-      <c r="D28" s="2"/>
+      <c r="D28" s="11"/>
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
       <c r="H28" s="2"/>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="40" t="s">
+      <c r="I28" s="35"/>
+      <c r="J28" s="35"/>
+      <c r="K28" s="35"/>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="B29" s="40"/>
+      <c r="B29" s="37"/>
       <c r="C29" s="9"/>
-      <c r="D29" s="3"/>
+      <c r="D29" s="11"/>
       <c r="E29" s="3"/>
       <c r="F29" s="3"/>
       <c r="G29" s="3"/>
       <c r="H29" s="3"/>
-    </row>
-    <row r="30" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="38" t="s">
+      <c r="I29" s="35"/>
+      <c r="J29" s="35" t="s">
+        <v>105</v>
+      </c>
+      <c r="K29" s="35"/>
+    </row>
+    <row r="30" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A30" s="40" t="s">
         <v>62</v>
       </c>
-      <c r="B30" s="38"/>
+      <c r="B30" s="40"/>
       <c r="C30" s="24"/>
-      <c r="D30" s="25"/>
+      <c r="D30" s="27"/>
       <c r="E30" s="25"/>
       <c r="F30" s="25"/>
       <c r="G30" s="25"/>
       <c r="H30" s="3"/>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="41" t="s">
+      <c r="I30" s="35" t="s">
+        <v>110</v>
+      </c>
+      <c r="J30" s="35"/>
+      <c r="K30" s="35"/>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A31" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="B31" s="41"/>
+      <c r="B31" s="44"/>
       <c r="C31" s="8"/>
-      <c r="D31" s="11"/>
+      <c r="D31" s="13"/>
       <c r="E31" s="10"/>
       <c r="F31" s="10"/>
       <c r="G31" s="10"/>
       <c r="H31" s="2"/>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="41"/>
-      <c r="B32" s="41"/>
+      <c r="I31" s="35" t="s">
+        <v>111</v>
+      </c>
+      <c r="J31" s="35"/>
+      <c r="K31" s="35"/>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A32" s="44"/>
+      <c r="B32" s="44"/>
       <c r="C32" s="8"/>
-      <c r="D32" s="11"/>
+      <c r="D32" s="13"/>
       <c r="E32" s="10"/>
       <c r="F32" s="1"/>
       <c r="G32" s="10"/>
       <c r="H32" s="2"/>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="41"/>
-      <c r="B33" s="41"/>
+      <c r="I32" s="35"/>
+      <c r="J32" s="35"/>
+      <c r="K32" s="35"/>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A33" s="44"/>
+      <c r="B33" s="44"/>
       <c r="C33" s="8"/>
-      <c r="D33" s="11"/>
+      <c r="D33" s="13"/>
       <c r="E33" s="13"/>
       <c r="F33" s="10"/>
       <c r="G33" s="12"/>
       <c r="H33" s="3"/>
-    </row>
-    <row r="34" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="38" t="s">
+      <c r="I33" s="35"/>
+      <c r="J33" s="35" t="s">
+        <v>112</v>
+      </c>
+      <c r="K33" s="35"/>
+    </row>
+    <row r="34" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A34" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="B34" s="38"/>
+      <c r="B34" s="40"/>
       <c r="C34" s="26"/>
       <c r="D34" s="25"/>
       <c r="E34" s="25"/>
@@ -2260,11 +2404,11 @@
       <c r="G34" s="25"/>
       <c r="H34" s="3"/>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="37" t="s">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A35" s="43" t="s">
         <v>64</v>
       </c>
-      <c r="B35" s="37"/>
+      <c r="B35" s="43"/>
       <c r="C35" s="8"/>
       <c r="D35" s="23"/>
       <c r="E35" s="23"/>
@@ -2272,15 +2416,10 @@
       <c r="G35" s="23"/>
       <c r="H35" s="23"/>
     </row>
-    <row r="46" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="46" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="60" ht="29.25" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="G5:H8"/>
-    <mergeCell ref="A12:B14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:B19"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A31:B33"/>
     <mergeCell ref="A34:B34"/>
@@ -2291,6 +2430,11 @@
     <mergeCell ref="A26:B28"/>
     <mergeCell ref="A29:B29"/>
     <mergeCell ref="A30:B30"/>
+    <mergeCell ref="G5:H8"/>
+    <mergeCell ref="A12:B14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A17:B19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/Measurements/measurements_12-03-2023.xlsx
+++ b/Measurements/measurements_12-03-2023.xlsx
@@ -8,13 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eric\Documents\GitHub\FPGA-SIMD-Sandbox\Measurements\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B7CE35D-9003-4296-848B-2BAFB3FEB8D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEB75FE8-35B2-49B2-AA3F-E9CF68B9B081}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4755" yWindow="2835" windowWidth="28800" windowHeight="15345" activeTab="1" xr2:uid="{E844A9DA-1A30-477C-9862-EC514B4B7F27}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{E844A9DA-1A30-477C-9862-EC514B4B7F27}"/>
   </bookViews>
   <sheets>
     <sheet name="Messwerte 12.03.2023" sheetId="1" r:id="rId1"/>
-    <sheet name="Messwerte 14.03.2023" sheetId="2" r:id="rId2"/>
+    <sheet name="Messwerte 17.03.2023 (MLAB)" sheetId="2" r:id="rId2"/>
+    <sheet name="DIAGRAMME 20.03.2023" sheetId="5" r:id="rId3"/>
+    <sheet name="Messwerte 18.03.2023 (RAM)" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="148">
   <si>
     <t>AVX512 - PROJEKT :</t>
   </si>
@@ -348,18 +350,6 @@
     <t>51,3 s</t>
   </si>
   <si>
-    <t xml:space="preserve">    [[intel::fpga_memory("MLAB") , intel::numbanks(1) , intel::private_copies(16)]] Type countVec[globalHSIZE]; </t>
-  </si>
-  <si>
-    <t>    [[intel::fpga_memory("MLAB") , intel::numbanks(1) , intel::private_copies(16)]] Type hashVec[globalHSIZE];</t>
-  </si>
-  <si>
-    <t>v3</t>
-  </si>
-  <si>
-    <t>v1, v2</t>
-  </si>
-  <si>
     <t>54.357.6</t>
   </si>
   <si>
@@ -369,13 +359,130 @@
     <t>Messwerte 17.03.2023</t>
   </si>
   <si>
-    <t>   [[intel::fpga_memory("MLAB") , intel::numbanks(1) , intel::bankwidth(1024) , intel::private_copies(16)]] Type hashVec[globalHSIZE];</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   [[intel::fpga_memory("MLAB") , intel::numbanks(1) , intel::bankwidth(1024) , intel::private_copies(16)]] Type countVec[globalHSIZE]; </t>
-  </si>
-  <si>
-    <t>v4</t>
+    <t>   [[intel::fpga_memory("MLAB") , intel::numbanks(1) , intel::bankwidth(2048) , intel::private_copies(16)]] fpvec&lt;Type, inner_regSize&gt; count_map[global_m_HSIZE_inner_v];</t>
+  </si>
+  <si>
+    <t>   [[intel::fpga_memory("MLAB") , intel::numbanks(1) , intel::bankwidth(2048) , intel::private_copies(16)]] fpvec&lt;Type, inner_regSize&gt; hash_map[global_m_HSIZE_inner_v];</t>
+  </si>
+  <si>
+    <t>36948.1</t>
+  </si>
+  <si>
+    <t>36,9 s</t>
+  </si>
+  <si>
+    <t>   [[intel::fpga_memory("MLAB") , intel::numbanks(1) , intel::bankwidth(1024) , intel::private_copies(16)]] Type hashVec[globalHSIZE] = {};</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   [[intel::fpga_memory("MLAB") , intel::numbanks(1) , intel::bankwidth(1024) , intel::private_copies(16)]] Type countVec[globalHSIZE] = {}; </t>
+  </si>
+  <si>
+    <t>v1, v2, v3, v4</t>
+  </si>
+  <si>
+    <t>v5</t>
+  </si>
+  <si>
+    <t>7504.62</t>
+  </si>
+  <si>
+    <t>7504.61</t>
+  </si>
+  <si>
+    <t>7,5 s</t>
+  </si>
+  <si>
+    <t>85.28</t>
+  </si>
+  <si>
+    <t>Messwerte 18.03.2023</t>
+  </si>
+  <si>
+    <t>Testweise Nutzung von intel::fpga_memory("BLOCK_RAM") für hashVec und countVec; Test ob andere Art des lokalen Memorys schneller oder langsamer als MLAB-Speicher ist</t>
+  </si>
+  <si>
+    <t>v1</t>
+  </si>
+  <si>
+    <t>        [[intel::fpga_memory("BLOCK_RAM") , intel::max_replicates(2)]] Type countVec[globalHSIZE] = {};</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        [[intel::fpga_memory("BLOCK_RAM") , intel::max_replicates(2)]] Type hashVec[globalHSIZE] = {};</t>
+  </si>
+  <si>
+    <t>42840.7</t>
+  </si>
+  <si>
+    <t>42,8 s</t>
+  </si>
+  <si>
+    <t>14.94</t>
+  </si>
+  <si>
+    <t>14,8 s</t>
+  </si>
+  <si>
+    <t>KERNEL RUNTIME</t>
+  </si>
+  <si>
+    <t>HOST-DEVICE-THROUGHPUT</t>
+  </si>
+  <si>
+    <t>Input_size</t>
+  </si>
+  <si>
+    <t>640 MB</t>
+  </si>
+  <si>
+    <t>Version 3 (SoA)_2048bit</t>
+  </si>
+  <si>
+    <t>Version 2 (SoA)_2048bit</t>
+  </si>
+  <si>
+    <t>Version 1 (SoA)_2048bit</t>
+  </si>
+  <si>
+    <t>Version 1 (SoA)_512bit</t>
+  </si>
+  <si>
+    <t>Version 2 (SoA)_512bit</t>
+  </si>
+  <si>
+    <t>Version 3 (SoA)_512bit</t>
+  </si>
+  <si>
+    <t>local_Mem</t>
+  </si>
+  <si>
+    <t>global_Mem</t>
+  </si>
+  <si>
+    <t>Version 4 (SoAoV_v1)_512bit</t>
+  </si>
+  <si>
+    <t>Version 5 (SoA_conflict_v1)_512bit</t>
+  </si>
+  <si>
+    <t>Vergleich global memory [12.03.2023] --&gt; local memory (MLAB) [17.03.2023]</t>
+  </si>
+  <si>
+    <t>AVX512</t>
+  </si>
+  <si>
+    <t>Vergleich kernel runtimes AVX512-Projekt &lt;--&gt; serialExecution-Projekt &lt;--&gt; FPGA-Builds</t>
+  </si>
+  <si>
+    <t>scalar version</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ###</t>
+  </si>
+  <si>
+    <t>serial Execution (CPU, 512bit-Versionen)</t>
+  </si>
+  <si>
+    <t>FPGA (512bit-Versionen)</t>
   </si>
 </sst>
 </file>
@@ -444,7 +551,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -475,8 +582,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -510,11 +623,48 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -592,6 +742,15 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -616,9 +775,54 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -634,6 +838,5888 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="95000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                    <a:prstClr val="black">
+                      <a:alpha val="40000"/>
+                    </a:prstClr>
+                  </a:outerShdw>
+                </a:effectLst>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-DE"/>
+              <a:t>kernel time (s) ⌀ : change global memory -&gt; local memory</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="de-DE" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="de-DE"/>
+              <a:t> </a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'DIAGRAMME 20.03.2023'!$E$39:$E$40</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>kernel time (s) ⌀</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>global_Mem</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent4">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent4">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'DIAGRAMME 20.03.2023'!$A$41:$D$48</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>Version 1 (SoA)_2048bit</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Version 2 (SoA)_2048bit</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Version 3 (SoA)_2048bit</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Version 1 (SoA)_512bit</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Version 2 (SoA)_512bit</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Version 3 (SoA)_512bit</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Version 4 (SoAoV_v1)_512bit</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Version 5 (SoA_conflict_v1)_512bit</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'DIAGRAMME 20.03.2023'!$E$41:$E$48</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>955.8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>475</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>447.7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>686.6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>565.20000000000005</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>196.4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>304.39999999999998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>299.2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-5EAC-4A8A-A5E2-8CC34DF2F2DB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'DIAGRAMME 20.03.2023'!$F$39:$F$40</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>kernel time (s) ⌀</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>local_Mem</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent5">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent5">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent5">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'DIAGRAMME 20.03.2023'!$A$41:$D$48</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>Version 1 (SoA)_2048bit</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Version 2 (SoA)_2048bit</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Version 3 (SoA)_2048bit</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Version 1 (SoA)_512bit</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Version 2 (SoA)_512bit</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Version 3 (SoA)_512bit</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Version 4 (SoAoV_v1)_512bit</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Version 5 (SoA_conflict_v1)_512bit</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'DIAGRAMME 20.03.2023'!$F$41:$F$48</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>51.3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>54.3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>54.3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>36.9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>14.8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>14.8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-5EAC-4A8A-A5E2-8CC34DF2F2DB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="115"/>
+        <c:overlap val="-20"/>
+        <c:axId val="126653839"/>
+        <c:axId val="126654319"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="0"/>
+                <c:order val="0"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'DIAGRAMME 20.03.2023'!$B$39:$B$40</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="2"/>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:gradFill rotWithShape="1">
+                    <a:gsLst>
+                      <a:gs pos="0">
+                        <a:schemeClr val="accent1">
+                          <a:satMod val="103000"/>
+                          <a:lumMod val="102000"/>
+                          <a:tint val="94000"/>
+                        </a:schemeClr>
+                      </a:gs>
+                      <a:gs pos="50000">
+                        <a:schemeClr val="accent1">
+                          <a:satMod val="110000"/>
+                          <a:lumMod val="100000"/>
+                          <a:shade val="100000"/>
+                        </a:schemeClr>
+                      </a:gs>
+                      <a:gs pos="100000">
+                        <a:schemeClr val="accent1">
+                          <a:lumMod val="99000"/>
+                          <a:satMod val="120000"/>
+                          <a:shade val="78000"/>
+                        </a:schemeClr>
+                      </a:gs>
+                    </a:gsLst>
+                    <a:lin ang="5400000" scaled="0"/>
+                  </a:gradFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst>
+                    <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                      <a:srgbClr val="000000">
+                        <a:alpha val="63000"/>
+                      </a:srgbClr>
+                    </a:outerShdw>
+                  </a:effectLst>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'DIAGRAMME 20.03.2023'!$A$41:$D$48</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="8"/>
+                      <c:pt idx="0">
+                        <c:v>Version 1 (SoA)_2048bit</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>Version 2 (SoA)_2048bit</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>Version 3 (SoA)_2048bit</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>Version 1 (SoA)_512bit</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>Version 2 (SoA)_512bit</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>Version 3 (SoA)_512bit</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>Version 4 (SoAoV_v1)_512bit</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>Version 5 (SoA_conflict_v1)_512bit</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'DIAGRAMME 20.03.2023'!$B$41:$B$48</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="8"/>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000000-5EAC-4A8A-A5E2-8CC34DF2F2DB}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="1"/>
+                <c:order val="1"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'DIAGRAMME 20.03.2023'!$C$39:$C$40</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="2"/>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:gradFill rotWithShape="1">
+                    <a:gsLst>
+                      <a:gs pos="0">
+                        <a:schemeClr val="accent2">
+                          <a:satMod val="103000"/>
+                          <a:lumMod val="102000"/>
+                          <a:tint val="94000"/>
+                        </a:schemeClr>
+                      </a:gs>
+                      <a:gs pos="50000">
+                        <a:schemeClr val="accent2">
+                          <a:satMod val="110000"/>
+                          <a:lumMod val="100000"/>
+                          <a:shade val="100000"/>
+                        </a:schemeClr>
+                      </a:gs>
+                      <a:gs pos="100000">
+                        <a:schemeClr val="accent2">
+                          <a:lumMod val="99000"/>
+                          <a:satMod val="120000"/>
+                          <a:shade val="78000"/>
+                        </a:schemeClr>
+                      </a:gs>
+                    </a:gsLst>
+                    <a:lin ang="5400000" scaled="0"/>
+                  </a:gradFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst>
+                    <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                      <a:srgbClr val="000000">
+                        <a:alpha val="63000"/>
+                      </a:srgbClr>
+                    </a:outerShdw>
+                  </a:effectLst>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'DIAGRAMME 20.03.2023'!$A$41:$D$48</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="8"/>
+                      <c:pt idx="0">
+                        <c:v>Version 1 (SoA)_2048bit</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>Version 2 (SoA)_2048bit</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>Version 3 (SoA)_2048bit</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>Version 1 (SoA)_512bit</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>Version 2 (SoA)_512bit</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>Version 3 (SoA)_512bit</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>Version 4 (SoAoV_v1)_512bit</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>Version 5 (SoA_conflict_v1)_512bit</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'DIAGRAMME 20.03.2023'!$C$41:$C$48</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="8"/>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000001-5EAC-4A8A-A5E2-8CC34DF2F2DB}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="2"/>
+                <c:order val="2"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'DIAGRAMME 20.03.2023'!$D$39:$D$40</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="2"/>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:gradFill rotWithShape="1">
+                    <a:gsLst>
+                      <a:gs pos="0">
+                        <a:schemeClr val="accent3">
+                          <a:satMod val="103000"/>
+                          <a:lumMod val="102000"/>
+                          <a:tint val="94000"/>
+                        </a:schemeClr>
+                      </a:gs>
+                      <a:gs pos="50000">
+                        <a:schemeClr val="accent3">
+                          <a:satMod val="110000"/>
+                          <a:lumMod val="100000"/>
+                          <a:shade val="100000"/>
+                        </a:schemeClr>
+                      </a:gs>
+                      <a:gs pos="100000">
+                        <a:schemeClr val="accent3">
+                          <a:lumMod val="99000"/>
+                          <a:satMod val="120000"/>
+                          <a:shade val="78000"/>
+                        </a:schemeClr>
+                      </a:gs>
+                    </a:gsLst>
+                    <a:lin ang="5400000" scaled="0"/>
+                  </a:gradFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst>
+                    <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                      <a:srgbClr val="000000">
+                        <a:alpha val="63000"/>
+                      </a:srgbClr>
+                    </a:outerShdw>
+                  </a:effectLst>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'DIAGRAMME 20.03.2023'!$A$41:$D$48</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="8"/>
+                      <c:pt idx="0">
+                        <c:v>Version 1 (SoA)_2048bit</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>Version 2 (SoA)_2048bit</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>Version 3 (SoA)_2048bit</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>Version 1 (SoA)_512bit</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>Version 2 (SoA)_512bit</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>Version 3 (SoA)_512bit</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>Version 4 (SoAoV_v1)_512bit</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>Version 5 (SoA_conflict_v1)_512bit</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'DIAGRAMME 20.03.2023'!$D$41:$D$48</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="8"/>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000002-5EAC-4A8A-A5E2-8CC34DF2F2DB}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+          </c:ext>
+        </c:extLst>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="126653839"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="95000"/>
+                <a:alpha val="54000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="126654319"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="126654319"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1000"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                  <a:alpha val="10000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="126653839"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="window" lastClr="FFFFFF">
+                    <a:lumMod val="95000"/>
+                  </a:sysClr>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                    <a:prstClr val="black">
+                      <a:alpha val="40000"/>
+                    </a:prstClr>
+                  </a:outerShdw>
+                </a:effectLst>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-DE" sz="1400" b="1" i="0" baseline="0">
+                <a:effectLst>
+                  <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                    <a:srgbClr val="000000">
+                      <a:alpha val="40000"/>
+                    </a:srgbClr>
+                  </a:outerShdw>
+                </a:effectLst>
+              </a:rPr>
+              <a:t>throughput (MB/s) ⌀ : change global memory -&gt; local memory  </a:t>
+            </a:r>
+            <a:endParaRPr lang="de-DE" sz="1200">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="window" lastClr="FFFFFF">
+                    <a:lumMod val="95000"/>
+                  </a:sysClr>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                    <a:prstClr val="black">
+                      <a:alpha val="40000"/>
+                    </a:prstClr>
+                  </a:outerShdw>
+                </a:effectLst>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE" sz="1200"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.14505730598171712"/>
+          <c:y val="1.5686274509803921E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="window" lastClr="FFFFFF">
+                  <a:lumMod val="95000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'DIAGRAMME 20.03.2023'!$G$39:$G$40</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Throughput (MB/s) ⌀</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>global_Mem</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent4">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent4">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'DIAGRAMME 20.03.2023'!$A$41:$A$48</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>Version 1 (SoA)_2048bit</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Version 2 (SoA)_2048bit</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Version 3 (SoA)_2048bit</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Version 1 (SoA)_512bit</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Version 2 (SoA)_512bit</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Version 3 (SoA)_512bit</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Version 4 (SoAoV_v1)_512bit</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Version 5 (SoA_conflict_v1)_512bit</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'DIAGRAMME 20.03.2023'!$G$41:$G$48</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.68</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.347</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.43</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.93</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.1299999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.26</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.14</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-05CD-4F56-B86E-EEA95B903E0B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'DIAGRAMME 20.03.2023'!$H$39:$H$40</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Throughput (MB/s) ⌀</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>local_Mem</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent5">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent5">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent5">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'DIAGRAMME 20.03.2023'!$A$41:$A$48</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>Version 1 (SoA)_2048bit</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Version 2 (SoA)_2048bit</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Version 3 (SoA)_2048bit</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Version 1 (SoA)_512bit</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Version 2 (SoA)_512bit</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Version 3 (SoA)_512bit</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Version 4 (SoAoV_v1)_512bit</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Version 5 (SoA_conflict_v1)_512bit</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'DIAGRAMME 20.03.2023'!$H$41:$H$48</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>12.46</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11.77</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11.77</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>17.32</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>43.04</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>43.04</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>85.28</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-05CD-4F56-B86E-EEA95B903E0B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="124866015"/>
+        <c:axId val="124864095"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="0"/>
+                <c:order val="0"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'DIAGRAMME 20.03.2023'!$B$39:$B$40</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="2"/>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:gradFill rotWithShape="1">
+                    <a:gsLst>
+                      <a:gs pos="0">
+                        <a:schemeClr val="accent1">
+                          <a:satMod val="103000"/>
+                          <a:lumMod val="102000"/>
+                          <a:tint val="94000"/>
+                        </a:schemeClr>
+                      </a:gs>
+                      <a:gs pos="50000">
+                        <a:schemeClr val="accent1">
+                          <a:satMod val="110000"/>
+                          <a:lumMod val="100000"/>
+                          <a:shade val="100000"/>
+                        </a:schemeClr>
+                      </a:gs>
+                      <a:gs pos="100000">
+                        <a:schemeClr val="accent1">
+                          <a:lumMod val="99000"/>
+                          <a:satMod val="120000"/>
+                          <a:shade val="78000"/>
+                        </a:schemeClr>
+                      </a:gs>
+                    </a:gsLst>
+                    <a:lin ang="5400000" scaled="0"/>
+                  </a:gradFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst>
+                    <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                      <a:srgbClr val="000000">
+                        <a:alpha val="63000"/>
+                      </a:srgbClr>
+                    </a:outerShdw>
+                  </a:effectLst>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'DIAGRAMME 20.03.2023'!$A$41:$A$48</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="8"/>
+                      <c:pt idx="0">
+                        <c:v>Version 1 (SoA)_2048bit</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>Version 2 (SoA)_2048bit</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>Version 3 (SoA)_2048bit</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>Version 1 (SoA)_512bit</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>Version 2 (SoA)_512bit</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>Version 3 (SoA)_512bit</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>Version 4 (SoAoV_v1)_512bit</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>Version 5 (SoA_conflict_v1)_512bit</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'DIAGRAMME 20.03.2023'!$B$41:$B$48</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="8"/>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000000-05CD-4F56-B86E-EEA95B903E0B}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="1"/>
+                <c:order val="1"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'DIAGRAMME 20.03.2023'!$C$39:$C$40</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="2"/>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:gradFill rotWithShape="1">
+                    <a:gsLst>
+                      <a:gs pos="0">
+                        <a:schemeClr val="accent2">
+                          <a:satMod val="103000"/>
+                          <a:lumMod val="102000"/>
+                          <a:tint val="94000"/>
+                        </a:schemeClr>
+                      </a:gs>
+                      <a:gs pos="50000">
+                        <a:schemeClr val="accent2">
+                          <a:satMod val="110000"/>
+                          <a:lumMod val="100000"/>
+                          <a:shade val="100000"/>
+                        </a:schemeClr>
+                      </a:gs>
+                      <a:gs pos="100000">
+                        <a:schemeClr val="accent2">
+                          <a:lumMod val="99000"/>
+                          <a:satMod val="120000"/>
+                          <a:shade val="78000"/>
+                        </a:schemeClr>
+                      </a:gs>
+                    </a:gsLst>
+                    <a:lin ang="5400000" scaled="0"/>
+                  </a:gradFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst>
+                    <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                      <a:srgbClr val="000000">
+                        <a:alpha val="63000"/>
+                      </a:srgbClr>
+                    </a:outerShdw>
+                  </a:effectLst>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'DIAGRAMME 20.03.2023'!$A$41:$A$48</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="8"/>
+                      <c:pt idx="0">
+                        <c:v>Version 1 (SoA)_2048bit</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>Version 2 (SoA)_2048bit</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>Version 3 (SoA)_2048bit</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>Version 1 (SoA)_512bit</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>Version 2 (SoA)_512bit</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>Version 3 (SoA)_512bit</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>Version 4 (SoAoV_v1)_512bit</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>Version 5 (SoA_conflict_v1)_512bit</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'DIAGRAMME 20.03.2023'!$C$41:$C$48</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="8"/>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000001-05CD-4F56-B86E-EEA95B903E0B}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="2"/>
+                <c:order val="2"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'DIAGRAMME 20.03.2023'!$D$39:$D$40</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="2"/>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:gradFill rotWithShape="1">
+                    <a:gsLst>
+                      <a:gs pos="0">
+                        <a:schemeClr val="accent3">
+                          <a:satMod val="103000"/>
+                          <a:lumMod val="102000"/>
+                          <a:tint val="94000"/>
+                        </a:schemeClr>
+                      </a:gs>
+                      <a:gs pos="50000">
+                        <a:schemeClr val="accent3">
+                          <a:satMod val="110000"/>
+                          <a:lumMod val="100000"/>
+                          <a:shade val="100000"/>
+                        </a:schemeClr>
+                      </a:gs>
+                      <a:gs pos="100000">
+                        <a:schemeClr val="accent3">
+                          <a:lumMod val="99000"/>
+                          <a:satMod val="120000"/>
+                          <a:shade val="78000"/>
+                        </a:schemeClr>
+                      </a:gs>
+                    </a:gsLst>
+                    <a:lin ang="5400000" scaled="0"/>
+                  </a:gradFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst>
+                    <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                      <a:srgbClr val="000000">
+                        <a:alpha val="63000"/>
+                      </a:srgbClr>
+                    </a:outerShdw>
+                  </a:effectLst>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'DIAGRAMME 20.03.2023'!$A$41:$A$48</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="8"/>
+                      <c:pt idx="0">
+                        <c:v>Version 1 (SoA)_2048bit</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>Version 2 (SoA)_2048bit</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>Version 3 (SoA)_2048bit</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>Version 1 (SoA)_512bit</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>Version 2 (SoA)_512bit</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>Version 3 (SoA)_512bit</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>Version 4 (SoAoV_v1)_512bit</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>Version 5 (SoA_conflict_v1)_512bit</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'DIAGRAMME 20.03.2023'!$D$41:$D$48</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="8"/>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000002-05CD-4F56-B86E-EEA95B903E0B}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+          </c:ext>
+        </c:extLst>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="124866015"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="95000"/>
+                <a:alpha val="54000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="124864095"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="124864095"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                  <a:alpha val="10000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="124866015"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="95000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                    <a:prstClr val="black">
+                      <a:alpha val="40000"/>
+                    </a:prstClr>
+                  </a:outerShdw>
+                </a:effectLst>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-DE"/>
+              <a:t>kernel time (s) ⌀ : best FPGA builds</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent4">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent4">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'DIAGRAMME 20.03.2023'!$A$41:$A$48</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>Version 1 (SoA)_2048bit</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Version 2 (SoA)_2048bit</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Version 3 (SoA)_2048bit</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Version 1 (SoA)_512bit</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Version 2 (SoA)_512bit</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Version 3 (SoA)_512bit</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Version 4 (SoAoV_v1)_512bit</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Version 5 (SoA_conflict_v1)_512bit</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'DIAGRAMME 20.03.2023'!$F$41:$F$48</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>51.3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>54.3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>54.3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>36.9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>14.8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>14.8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-DED6-4E46-957B-050C4467BBA9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="100"/>
+        <c:overlap val="-24"/>
+        <c:axId val="137218559"/>
+        <c:axId val="137219039"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="0"/>
+                <c:order val="0"/>
+                <c:spPr>
+                  <a:gradFill rotWithShape="1">
+                    <a:gsLst>
+                      <a:gs pos="0">
+                        <a:schemeClr val="accent1">
+                          <a:satMod val="103000"/>
+                          <a:lumMod val="102000"/>
+                          <a:tint val="94000"/>
+                        </a:schemeClr>
+                      </a:gs>
+                      <a:gs pos="50000">
+                        <a:schemeClr val="accent1">
+                          <a:satMod val="110000"/>
+                          <a:lumMod val="100000"/>
+                          <a:shade val="100000"/>
+                        </a:schemeClr>
+                      </a:gs>
+                      <a:gs pos="100000">
+                        <a:schemeClr val="accent1">
+                          <a:lumMod val="99000"/>
+                          <a:satMod val="120000"/>
+                          <a:shade val="78000"/>
+                        </a:schemeClr>
+                      </a:gs>
+                    </a:gsLst>
+                    <a:lin ang="5400000" scaled="0"/>
+                  </a:gradFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst>
+                    <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                      <a:srgbClr val="000000">
+                        <a:alpha val="63000"/>
+                      </a:srgbClr>
+                    </a:outerShdw>
+                  </a:effectLst>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'DIAGRAMME 20.03.2023'!$A$41:$A$48</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="8"/>
+                      <c:pt idx="0">
+                        <c:v>Version 1 (SoA)_2048bit</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>Version 2 (SoA)_2048bit</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>Version 3 (SoA)_2048bit</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>Version 1 (SoA)_512bit</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>Version 2 (SoA)_512bit</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>Version 3 (SoA)_512bit</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>Version 4 (SoAoV_v1)_512bit</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>Version 5 (SoA_conflict_v1)_512bit</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'DIAGRAMME 20.03.2023'!$B$41:$B$48</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="8"/>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000000-DED6-4E46-957B-050C4467BBA9}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="1"/>
+                <c:order val="1"/>
+                <c:spPr>
+                  <a:gradFill rotWithShape="1">
+                    <a:gsLst>
+                      <a:gs pos="0">
+                        <a:schemeClr val="accent2">
+                          <a:satMod val="103000"/>
+                          <a:lumMod val="102000"/>
+                          <a:tint val="94000"/>
+                        </a:schemeClr>
+                      </a:gs>
+                      <a:gs pos="50000">
+                        <a:schemeClr val="accent2">
+                          <a:satMod val="110000"/>
+                          <a:lumMod val="100000"/>
+                          <a:shade val="100000"/>
+                        </a:schemeClr>
+                      </a:gs>
+                      <a:gs pos="100000">
+                        <a:schemeClr val="accent2">
+                          <a:lumMod val="99000"/>
+                          <a:satMod val="120000"/>
+                          <a:shade val="78000"/>
+                        </a:schemeClr>
+                      </a:gs>
+                    </a:gsLst>
+                    <a:lin ang="5400000" scaled="0"/>
+                  </a:gradFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst>
+                    <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                      <a:srgbClr val="000000">
+                        <a:alpha val="63000"/>
+                      </a:srgbClr>
+                    </a:outerShdw>
+                  </a:effectLst>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'DIAGRAMME 20.03.2023'!$A$41:$A$48</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="8"/>
+                      <c:pt idx="0">
+                        <c:v>Version 1 (SoA)_2048bit</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>Version 2 (SoA)_2048bit</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>Version 3 (SoA)_2048bit</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>Version 1 (SoA)_512bit</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>Version 2 (SoA)_512bit</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>Version 3 (SoA)_512bit</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>Version 4 (SoAoV_v1)_512bit</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>Version 5 (SoA_conflict_v1)_512bit</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'DIAGRAMME 20.03.2023'!$C$41:$C$48</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="8"/>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000001-DED6-4E46-957B-050C4467BBA9}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="2"/>
+                <c:order val="2"/>
+                <c:spPr>
+                  <a:gradFill rotWithShape="1">
+                    <a:gsLst>
+                      <a:gs pos="0">
+                        <a:schemeClr val="accent3">
+                          <a:satMod val="103000"/>
+                          <a:lumMod val="102000"/>
+                          <a:tint val="94000"/>
+                        </a:schemeClr>
+                      </a:gs>
+                      <a:gs pos="50000">
+                        <a:schemeClr val="accent3">
+                          <a:satMod val="110000"/>
+                          <a:lumMod val="100000"/>
+                          <a:shade val="100000"/>
+                        </a:schemeClr>
+                      </a:gs>
+                      <a:gs pos="100000">
+                        <a:schemeClr val="accent3">
+                          <a:lumMod val="99000"/>
+                          <a:satMod val="120000"/>
+                          <a:shade val="78000"/>
+                        </a:schemeClr>
+                      </a:gs>
+                    </a:gsLst>
+                    <a:lin ang="5400000" scaled="0"/>
+                  </a:gradFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst>
+                    <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                      <a:srgbClr val="000000">
+                        <a:alpha val="63000"/>
+                      </a:srgbClr>
+                    </a:outerShdw>
+                  </a:effectLst>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'DIAGRAMME 20.03.2023'!$A$41:$A$48</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="8"/>
+                      <c:pt idx="0">
+                        <c:v>Version 1 (SoA)_2048bit</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>Version 2 (SoA)_2048bit</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>Version 3 (SoA)_2048bit</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>Version 1 (SoA)_512bit</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>Version 2 (SoA)_512bit</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>Version 3 (SoA)_512bit</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>Version 4 (SoAoV_v1)_512bit</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>Version 5 (SoA_conflict_v1)_512bit</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'DIAGRAMME 20.03.2023'!$D$41:$D$48</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="8"/>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000002-DED6-4E46-957B-050C4467BBA9}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+          </c:ext>
+        </c:extLst>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="137218559"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="95000"/>
+                <a:alpha val="54000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="137219039"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="137219039"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                  <a:alpha val="10000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="137218559"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="window" lastClr="FFFFFF">
+                    <a:lumMod val="95000"/>
+                  </a:sysClr>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                    <a:prstClr val="black">
+                      <a:alpha val="40000"/>
+                    </a:prstClr>
+                  </a:outerShdw>
+                </a:effectLst>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-DE" sz="1800" b="1" i="0" baseline="0">
+                <a:effectLst>
+                  <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                    <a:srgbClr val="000000">
+                      <a:alpha val="40000"/>
+                    </a:srgbClr>
+                  </a:outerShdw>
+                </a:effectLst>
+              </a:rPr>
+              <a:t>kernel time (s) ⌀ : AVX512 vs. serialExecution-project (CPU) vs. FPGA</a:t>
+            </a:r>
+            <a:endParaRPr lang="de-DE">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="window" lastClr="FFFFFF">
+                  <a:lumMod val="95000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'DIAGRAMME 20.03.2023'!$I$105:$I$106</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>kernel time (s) ⌀</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>AVX512</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent4">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent4">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'DIAGRAMME 20.03.2023'!$E$107:$E$112</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>scalar version</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Version 1 (SoA)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Version 2 (SoA)</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Version 3 (SoA)</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Version 4 (SoAoV_v1)</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Version 5 (SoA_conflict_v1)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'DIAGRAMME 20.03.2023'!$I$107:$I$112</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>5.6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-3566-4CF7-B169-1A64557E683B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'DIAGRAMME 20.03.2023'!$J$105:$J$106</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>kernel time (s) ⌀</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>serial Execution (CPU, 512bit-Versionen)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent5">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent5">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent5">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'DIAGRAMME 20.03.2023'!$E$107:$E$112</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>scalar version</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Version 1 (SoA)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Version 2 (SoA)</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Version 3 (SoA)</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Version 4 (SoAoV_v1)</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Version 5 (SoA_conflict_v1)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'DIAGRAMME 20.03.2023'!$J$107:$J$112</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>6.3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.5999999999999996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-3566-4CF7-B169-1A64557E683B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'DIAGRAMME 20.03.2023'!$K$105:$K$106</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>kernel time (s) ⌀</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>FPGA (512bit-Versionen)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent6">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent6">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'DIAGRAMME 20.03.2023'!$E$107:$E$112</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>scalar version</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Version 1 (SoA)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Version 2 (SoA)</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Version 3 (SoA)</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Version 4 (SoAoV_v1)</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Version 5 (SoA_conflict_v1)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'DIAGRAMME 20.03.2023'!$K$107:$K$112</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>36.9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>14.8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>14.8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-3566-4CF7-B169-1A64557E683B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="100"/>
+        <c:overlap val="-24"/>
+        <c:axId val="177613967"/>
+        <c:axId val="177614927"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="0"/>
+                <c:order val="0"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'DIAGRAMME 20.03.2023'!$F$105:$F$106</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="2"/>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:gradFill rotWithShape="1">
+                    <a:gsLst>
+                      <a:gs pos="0">
+                        <a:schemeClr val="accent1">
+                          <a:satMod val="103000"/>
+                          <a:lumMod val="102000"/>
+                          <a:tint val="94000"/>
+                        </a:schemeClr>
+                      </a:gs>
+                      <a:gs pos="50000">
+                        <a:schemeClr val="accent1">
+                          <a:satMod val="110000"/>
+                          <a:lumMod val="100000"/>
+                          <a:shade val="100000"/>
+                        </a:schemeClr>
+                      </a:gs>
+                      <a:gs pos="100000">
+                        <a:schemeClr val="accent1">
+                          <a:lumMod val="99000"/>
+                          <a:satMod val="120000"/>
+                          <a:shade val="78000"/>
+                        </a:schemeClr>
+                      </a:gs>
+                    </a:gsLst>
+                    <a:lin ang="5400000" scaled="0"/>
+                  </a:gradFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst>
+                    <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                      <a:srgbClr val="000000">
+                        <a:alpha val="63000"/>
+                      </a:srgbClr>
+                    </a:outerShdw>
+                  </a:effectLst>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'DIAGRAMME 20.03.2023'!$E$107:$E$112</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="6"/>
+                      <c:pt idx="0">
+                        <c:v>scalar version</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>Version 1 (SoA)</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>Version 2 (SoA)</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>Version 3 (SoA)</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>Version 4 (SoAoV_v1)</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>Version 5 (SoA_conflict_v1)</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'DIAGRAMME 20.03.2023'!$F$107:$F$112</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="6"/>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000000-3566-4CF7-B169-1A64557E683B}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="1"/>
+                <c:order val="1"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'DIAGRAMME 20.03.2023'!$G$105:$G$106</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="2"/>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:gradFill rotWithShape="1">
+                    <a:gsLst>
+                      <a:gs pos="0">
+                        <a:schemeClr val="accent2">
+                          <a:satMod val="103000"/>
+                          <a:lumMod val="102000"/>
+                          <a:tint val="94000"/>
+                        </a:schemeClr>
+                      </a:gs>
+                      <a:gs pos="50000">
+                        <a:schemeClr val="accent2">
+                          <a:satMod val="110000"/>
+                          <a:lumMod val="100000"/>
+                          <a:shade val="100000"/>
+                        </a:schemeClr>
+                      </a:gs>
+                      <a:gs pos="100000">
+                        <a:schemeClr val="accent2">
+                          <a:lumMod val="99000"/>
+                          <a:satMod val="120000"/>
+                          <a:shade val="78000"/>
+                        </a:schemeClr>
+                      </a:gs>
+                    </a:gsLst>
+                    <a:lin ang="5400000" scaled="0"/>
+                  </a:gradFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst>
+                    <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                      <a:srgbClr val="000000">
+                        <a:alpha val="63000"/>
+                      </a:srgbClr>
+                    </a:outerShdw>
+                  </a:effectLst>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'DIAGRAMME 20.03.2023'!$E$107:$E$112</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="6"/>
+                      <c:pt idx="0">
+                        <c:v>scalar version</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>Version 1 (SoA)</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>Version 2 (SoA)</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>Version 3 (SoA)</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>Version 4 (SoAoV_v1)</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>Version 5 (SoA_conflict_v1)</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'DIAGRAMME 20.03.2023'!$G$107:$G$112</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="6"/>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000001-3566-4CF7-B169-1A64557E683B}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="2"/>
+                <c:order val="2"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'DIAGRAMME 20.03.2023'!$H$105:$H$106</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="2"/>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:gradFill rotWithShape="1">
+                    <a:gsLst>
+                      <a:gs pos="0">
+                        <a:schemeClr val="accent3">
+                          <a:satMod val="103000"/>
+                          <a:lumMod val="102000"/>
+                          <a:tint val="94000"/>
+                        </a:schemeClr>
+                      </a:gs>
+                      <a:gs pos="50000">
+                        <a:schemeClr val="accent3">
+                          <a:satMod val="110000"/>
+                          <a:lumMod val="100000"/>
+                          <a:shade val="100000"/>
+                        </a:schemeClr>
+                      </a:gs>
+                      <a:gs pos="100000">
+                        <a:schemeClr val="accent3">
+                          <a:lumMod val="99000"/>
+                          <a:satMod val="120000"/>
+                          <a:shade val="78000"/>
+                        </a:schemeClr>
+                      </a:gs>
+                    </a:gsLst>
+                    <a:lin ang="5400000" scaled="0"/>
+                  </a:gradFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst>
+                    <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                      <a:srgbClr val="000000">
+                        <a:alpha val="63000"/>
+                      </a:srgbClr>
+                    </a:outerShdw>
+                  </a:effectLst>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'DIAGRAMME 20.03.2023'!$E$107:$E$112</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="6"/>
+                      <c:pt idx="0">
+                        <c:v>scalar version</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>Version 1 (SoA)</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>Version 2 (SoA)</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>Version 3 (SoA)</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>Version 4 (SoAoV_v1)</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>Version 5 (SoA_conflict_v1)</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'DIAGRAMME 20.03.2023'!$H$107:$H$112</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="6"/>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000002-3566-4CF7-B169-1A64557E683B}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+          </c:ext>
+        </c:extLst>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="177613967"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="95000"/>
+                <a:alpha val="54000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="177614927"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="177614927"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                  <a:alpha val="10000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="177613967"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="222">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="5000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:defRPr>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="304">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="5000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:defRPr>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="209">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="5000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:defRPr>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="209">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="5000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:defRPr>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>76199</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Diagramm 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{849CD245-F3BC-C462-935C-C44912E8E099}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>33337</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Diagramm 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D89D7E94-DB6B-3868-00EB-5767C27E27B1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>14287</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Diagramm 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B846991E-E010-96FA-FFA1-8954C2B6D46E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>22411</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>186016</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>100852</xdr:colOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>100852</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Diagramm 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8ECD4A80-B7FE-B955-6BBE-C2DCF0369954}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -935,8 +7021,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B1F966A-F8F2-4A59-9724-5827EC50EEF3}">
   <dimension ref="A1:I61"/>
   <sheetViews>
-    <sheetView topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="L52" sqref="L52"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K31" sqref="K31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -951,11 +7037,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C3" s="3" t="s">
@@ -1000,24 +7086,24 @@
       <c r="D6" s="4">
         <v>179</v>
       </c>
-      <c r="G6" s="42" t="s">
+      <c r="G6" s="45" t="s">
         <v>97</v>
       </c>
-      <c r="H6" s="42"/>
+      <c r="H6" s="45"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F7" s="35" t="s">
         <v>94</v>
       </c>
-      <c r="G7" s="42"/>
-      <c r="H7" s="42"/>
+      <c r="G7" s="45"/>
+      <c r="H7" s="45"/>
       <c r="I7" s="35" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="G8" s="42"/>
-      <c r="H8" s="42"/>
+      <c r="G8" s="45"/>
+      <c r="H8" s="45"/>
       <c r="I8" s="35" t="s">
         <v>96</v>
       </c>
@@ -1030,8 +7116,8 @@
       <c r="C9" s="6"/>
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
-      <c r="G9" s="42"/>
-      <c r="H9" s="42"/>
+      <c r="G9" s="45"/>
+      <c r="H9" s="45"/>
     </row>
     <row r="10" spans="1:9" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C10" s="7" t="s">
@@ -1054,22 +7140,22 @@
       </c>
     </row>
     <row r="11" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A11" s="39" t="s">
+      <c r="A11" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="B11" s="39"/>
-      <c r="C11" s="39"/>
-      <c r="D11" s="39"/>
-      <c r="E11" s="39"/>
-      <c r="F11" s="39"/>
-      <c r="G11" s="39"/>
-      <c r="H11" s="39"/>
+      <c r="B11" s="42"/>
+      <c r="C11" s="42"/>
+      <c r="D11" s="42"/>
+      <c r="E11" s="42"/>
+      <c r="F11" s="42"/>
+      <c r="G11" s="42"/>
+      <c r="H11" s="42"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="41" t="s">
+      <c r="A12" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="41"/>
+      <c r="B12" s="44"/>
       <c r="C12" s="10">
         <v>567702</v>
       </c>
@@ -1090,8 +7176,8 @@
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="41"/>
-      <c r="B13" s="41"/>
+      <c r="A13" s="44"/>
+      <c r="B13" s="44"/>
       <c r="C13" s="10">
         <v>560925</v>
       </c>
@@ -1112,8 +7198,8 @@
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="41"/>
-      <c r="B14" s="41"/>
+      <c r="A14" s="44"/>
+      <c r="B14" s="44"/>
       <c r="C14" s="11" t="s">
         <v>21</v>
       </c>
@@ -1134,10 +7220,10 @@
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="37" t="s">
+      <c r="A15" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="37"/>
+      <c r="B15" s="40"/>
       <c r="C15" s="12">
         <v>564314</v>
       </c>
@@ -1158,10 +7244,10 @@
       </c>
     </row>
     <row r="16" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="40" t="s">
+      <c r="A16" s="43" t="s">
         <v>62</v>
       </c>
-      <c r="B16" s="40"/>
+      <c r="B16" s="43"/>
       <c r="C16" s="27" t="s">
         <v>70</v>
       </c>
@@ -1182,22 +7268,22 @@
       </c>
     </row>
     <row r="20" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A20" s="39" t="s">
+      <c r="A20" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="B20" s="39"/>
-      <c r="C20" s="39"/>
-      <c r="D20" s="39"/>
-      <c r="E20" s="39"/>
-      <c r="F20" s="39"/>
-      <c r="G20" s="39"/>
-      <c r="H20" s="39"/>
+      <c r="B20" s="42"/>
+      <c r="C20" s="42"/>
+      <c r="D20" s="42"/>
+      <c r="E20" s="42"/>
+      <c r="F20" s="42"/>
+      <c r="G20" s="42"/>
+      <c r="H20" s="42"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="41" t="s">
+      <c r="A21" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="B21" s="41"/>
+      <c r="B21" s="44"/>
       <c r="C21" s="10">
         <v>720899</v>
       </c>
@@ -1218,8 +7304,8 @@
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="41"/>
-      <c r="B22" s="41"/>
+      <c r="A22" s="44"/>
+      <c r="B22" s="44"/>
       <c r="C22" s="10">
         <v>643855</v>
       </c>
@@ -1240,8 +7326,8 @@
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="41"/>
-      <c r="B23" s="41"/>
+      <c r="A23" s="44"/>
+      <c r="B23" s="44"/>
       <c r="C23" s="10">
         <v>555836</v>
       </c>
@@ -1262,10 +7348,10 @@
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="37" t="s">
+      <c r="A24" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="B24" s="37"/>
+      <c r="B24" s="40"/>
       <c r="C24" s="15">
         <v>640197</v>
       </c>
@@ -1286,10 +7372,10 @@
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="40" t="s">
+      <c r="A25" s="43" t="s">
         <v>62</v>
       </c>
-      <c r="B25" s="40"/>
+      <c r="B25" s="43"/>
       <c r="C25" s="28" t="s">
         <v>77</v>
       </c>
@@ -1320,22 +7406,22 @@
       <c r="H26" s="20"/>
     </row>
     <row r="28" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A28" s="39" t="s">
+      <c r="A28" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="B28" s="39"/>
-      <c r="C28" s="39"/>
-      <c r="D28" s="39"/>
-      <c r="E28" s="39"/>
-      <c r="F28" s="39"/>
-      <c r="G28" s="39"/>
-      <c r="H28" s="39"/>
+      <c r="B28" s="42"/>
+      <c r="C28" s="42"/>
+      <c r="D28" s="42"/>
+      <c r="E28" s="42"/>
+      <c r="F28" s="42"/>
+      <c r="G28" s="42"/>
+      <c r="H28" s="42"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="41" t="s">
+      <c r="A29" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="B29" s="41"/>
+      <c r="B29" s="44"/>
       <c r="C29" s="13">
         <v>699969</v>
       </c>
@@ -1356,8 +7442,8 @@
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="41"/>
-      <c r="B30" s="41"/>
+      <c r="A30" s="44"/>
+      <c r="B30" s="44"/>
       <c r="C30" s="13">
         <v>594785</v>
       </c>
@@ -1378,8 +7464,8 @@
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="41"/>
-      <c r="B31" s="41"/>
+      <c r="A31" s="44"/>
+      <c r="B31" s="44"/>
       <c r="C31" s="13">
         <v>595232</v>
       </c>
@@ -1400,10 +7486,10 @@
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="37" t="s">
+      <c r="A32" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="B32" s="37"/>
+      <c r="B32" s="40"/>
       <c r="C32" s="15">
         <v>629995</v>
       </c>
@@ -1424,10 +7510,10 @@
       </c>
     </row>
     <row r="33" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="40" t="s">
+      <c r="A33" s="43" t="s">
         <v>62</v>
       </c>
-      <c r="B33" s="40"/>
+      <c r="B33" s="43"/>
       <c r="C33" s="27" t="s">
         <v>71</v>
       </c>
@@ -1468,22 +7554,22 @@
       </c>
     </row>
     <row r="37" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A37" s="39" t="s">
+      <c r="A37" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="B37" s="39"/>
-      <c r="C37" s="39"/>
-      <c r="D37" s="39"/>
-      <c r="E37" s="39"/>
-      <c r="F37" s="39"/>
-      <c r="G37" s="39"/>
-      <c r="H37" s="39"/>
+      <c r="B37" s="42"/>
+      <c r="C37" s="42"/>
+      <c r="D37" s="42"/>
+      <c r="E37" s="42"/>
+      <c r="F37" s="42"/>
+      <c r="G37" s="42"/>
+      <c r="H37" s="42"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="41" t="s">
+      <c r="A38" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="B38" s="41"/>
+      <c r="B38" s="44"/>
       <c r="C38" s="8"/>
       <c r="D38" s="11">
         <v>975783</v>
@@ -1498,8 +7584,8 @@
       <c r="H38" s="21"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="41"/>
-      <c r="B39" s="41"/>
+      <c r="A39" s="44"/>
+      <c r="B39" s="44"/>
       <c r="C39" s="8"/>
       <c r="D39" s="11">
         <v>945790</v>
@@ -1514,8 +7600,8 @@
       <c r="H39" s="21"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="41"/>
-      <c r="B40" s="41"/>
+      <c r="A40" s="44"/>
+      <c r="B40" s="44"/>
       <c r="C40" s="8"/>
       <c r="D40" s="11">
         <v>945829</v>
@@ -1530,10 +7616,10 @@
       <c r="H40" s="21"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="37" t="s">
+      <c r="A41" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="B41" s="37"/>
+      <c r="B41" s="40"/>
       <c r="C41" s="9"/>
       <c r="D41" s="16">
         <v>955800</v>
@@ -1548,10 +7634,10 @@
       <c r="H41" s="22"/>
     </row>
     <row r="42" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A42" s="40" t="s">
+      <c r="A42" s="43" t="s">
         <v>62</v>
       </c>
-      <c r="B42" s="40"/>
+      <c r="B42" s="43"/>
       <c r="C42" s="24"/>
       <c r="D42" s="27">
         <v>955.8</v>
@@ -1566,10 +7652,10 @@
       <c r="H42" s="22"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" s="44" t="s">
+      <c r="A43" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="B43" s="44"/>
+      <c r="B43" s="47"/>
       <c r="C43" s="8"/>
       <c r="D43" s="11" t="s">
         <v>63</v>
@@ -1584,8 +7670,8 @@
       <c r="H43" s="21"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" s="44"/>
-      <c r="B44" s="44"/>
+      <c r="A44" s="47"/>
+      <c r="B44" s="47"/>
       <c r="C44" s="8"/>
       <c r="D44" s="11" t="s">
         <v>63</v>
@@ -1600,8 +7686,8 @@
       <c r="H44" s="21"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" s="44"/>
-      <c r="B45" s="44"/>
+      <c r="A45" s="47"/>
+      <c r="B45" s="47"/>
       <c r="C45" s="8"/>
       <c r="D45" s="11" t="s">
         <v>63</v>
@@ -1616,10 +7702,10 @@
       <c r="H45" s="21"/>
     </row>
     <row r="46" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A46" s="40" t="s">
+      <c r="A46" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="B46" s="40"/>
+      <c r="B46" s="43"/>
       <c r="C46" s="24"/>
       <c r="D46" s="27">
         <v>0.68</v>
@@ -1634,10 +7720,10 @@
       <c r="H46" s="29"/>
     </row>
     <row r="47" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="43" t="s">
+      <c r="A47" s="46" t="s">
         <v>64</v>
       </c>
-      <c r="B47" s="43"/>
+      <c r="B47" s="46"/>
       <c r="C47" s="8"/>
       <c r="D47" s="23" t="s">
         <v>68</v>
@@ -1672,22 +7758,22 @@
       </c>
     </row>
     <row r="51" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A51" s="39" t="s">
+      <c r="A51" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="B51" s="39"/>
-      <c r="C51" s="39"/>
-      <c r="D51" s="39"/>
-      <c r="E51" s="39"/>
-      <c r="F51" s="39"/>
-      <c r="G51" s="39"/>
-      <c r="H51" s="39"/>
+      <c r="B51" s="42"/>
+      <c r="C51" s="42"/>
+      <c r="D51" s="42"/>
+      <c r="E51" s="42"/>
+      <c r="F51" s="42"/>
+      <c r="G51" s="42"/>
+      <c r="H51" s="42"/>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A52" s="41" t="s">
+      <c r="A52" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="B52" s="41"/>
+      <c r="B52" s="44"/>
       <c r="C52" s="8"/>
       <c r="D52" s="2">
         <v>662783</v>
@@ -1706,8 +7792,8 @@
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A53" s="41"/>
-      <c r="B53" s="41"/>
+      <c r="A53" s="44"/>
+      <c r="B53" s="44"/>
       <c r="C53" s="8"/>
       <c r="D53" s="2">
         <v>734126</v>
@@ -1726,8 +7812,8 @@
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A54" s="41"/>
-      <c r="B54" s="41"/>
+      <c r="A54" s="44"/>
+      <c r="B54" s="44"/>
       <c r="C54" s="8"/>
       <c r="D54" s="2">
         <v>662782</v>
@@ -1746,10 +7832,10 @@
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A55" s="37" t="s">
+      <c r="A55" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="B55" s="37"/>
+      <c r="B55" s="40"/>
       <c r="C55" s="9"/>
       <c r="D55" s="3">
         <v>686563</v>
@@ -1768,10 +7854,10 @@
       </c>
     </row>
     <row r="56" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A56" s="40" t="s">
+      <c r="A56" s="43" t="s">
         <v>62</v>
       </c>
-      <c r="B56" s="40"/>
+      <c r="B56" s="43"/>
       <c r="C56" s="24"/>
       <c r="D56" s="25">
         <v>686.6</v>
@@ -1790,10 +7876,10 @@
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A57" s="44" t="s">
+      <c r="A57" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="B57" s="44"/>
+      <c r="B57" s="47"/>
       <c r="C57" s="8"/>
       <c r="D57" s="11" t="s">
         <v>65</v>
@@ -1812,8 +7898,8 @@
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A58" s="44"/>
-      <c r="B58" s="44"/>
+      <c r="A58" s="47"/>
+      <c r="B58" s="47"/>
       <c r="C58" s="8"/>
       <c r="D58" s="11" t="s">
         <v>66</v>
@@ -1832,8 +7918,8 @@
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A59" s="44"/>
-      <c r="B59" s="44"/>
+      <c r="A59" s="47"/>
+      <c r="B59" s="47"/>
       <c r="C59" s="8"/>
       <c r="D59" s="11" t="s">
         <v>65</v>
@@ -1852,10 +7938,10 @@
       </c>
     </row>
     <row r="60" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A60" s="40" t="s">
+      <c r="A60" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="B60" s="40"/>
+      <c r="B60" s="43"/>
       <c r="C60" s="26"/>
       <c r="D60" s="25">
         <v>0.93</v>
@@ -1874,10 +7960,10 @@
       </c>
     </row>
     <row r="61" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="43" t="s">
+      <c r="A61" s="46" t="s">
         <v>64</v>
       </c>
-      <c r="B61" s="43"/>
+      <c r="B61" s="46"/>
       <c r="C61" s="8"/>
       <c r="D61" s="23" t="s">
         <v>72</v>
@@ -1935,8 +8021,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECB6A3A5-9C23-437D-AE4E-A3CE7C8CBBAD}">
   <dimension ref="A1:K60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I35" sqref="I35"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1952,11 +8038,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="38" t="s">
-        <v>109</v>
-      </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
+      <c r="A1" s="41" t="s">
+        <v>105</v>
+      </c>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C3" s="3" t="s">
@@ -1989,10 +8075,10 @@
       <c r="D5" s="4">
         <v>1.4</v>
       </c>
-      <c r="G5" s="42" t="s">
+      <c r="G5" s="45" t="s">
         <v>100</v>
       </c>
-      <c r="H5" s="42"/>
+      <c r="H5" s="45"/>
     </row>
     <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C6" s="3" t="s">
@@ -2004,16 +8090,16 @@
       <c r="F6" s="35" t="s">
         <v>94</v>
       </c>
-      <c r="G6" s="42"/>
-      <c r="H6" s="42"/>
+      <c r="G6" s="45"/>
+      <c r="H6" s="45"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="G7" s="42"/>
-      <c r="H7" s="42"/>
+      <c r="G7" s="45"/>
+      <c r="H7" s="45"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="G8" s="42"/>
-      <c r="H8" s="42"/>
+      <c r="G8" s="45"/>
+      <c r="H8" s="45"/>
     </row>
     <row r="9" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
@@ -2060,102 +8146,102 @@
       <c r="H11" s="34"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="41" t="s">
+      <c r="A12" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="41"/>
+      <c r="B12" s="44"/>
       <c r="C12" s="8"/>
       <c r="D12" s="11" t="s">
         <v>101</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="F12" s="11" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="G12" s="21"/>
       <c r="H12" s="21"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="41"/>
-      <c r="B13" s="41"/>
+      <c r="A13" s="44"/>
+      <c r="B13" s="44"/>
       <c r="C13" s="8"/>
       <c r="D13" s="11" t="s">
         <v>101</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="F13" s="11" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="G13" s="21"/>
       <c r="H13" s="21"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="41"/>
-      <c r="B14" s="41"/>
+      <c r="A14" s="44"/>
+      <c r="B14" s="44"/>
       <c r="C14" s="8"/>
       <c r="D14" s="11" t="s">
         <v>101</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="F14" s="11" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="G14" s="21"/>
       <c r="H14" s="21"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="37" t="s">
+      <c r="A15" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="37"/>
+      <c r="B15" s="40"/>
       <c r="C15" s="9"/>
       <c r="D15" s="11" t="s">
         <v>101</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="F15" s="11" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="G15" s="22"/>
       <c r="H15" s="22"/>
-      <c r="I15" t="s">
+      <c r="I15" s="35" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="40" t="s">
+      <c r="A16" s="43" t="s">
         <v>62</v>
       </c>
-      <c r="B16" s="40"/>
+      <c r="B16" s="43"/>
       <c r="C16" s="24"/>
       <c r="D16" s="27" t="s">
         <v>102</v>
       </c>
       <c r="E16" s="27" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="F16" s="27" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="G16" s="22"/>
       <c r="H16" s="22"/>
-      <c r="I16" t="s">
+      <c r="I16" s="35" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="44" t="s">
+      <c r="A17" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="44"/>
+      <c r="B17" s="47"/>
       <c r="C17" s="8"/>
       <c r="D17" s="13">
         <v>12461</v>
@@ -2170,8 +8256,8 @@
       <c r="H17" s="21"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="44"/>
-      <c r="B18" s="44"/>
+      <c r="A18" s="47"/>
+      <c r="B18" s="47"/>
       <c r="C18" s="8"/>
       <c r="D18" s="13">
         <v>12461</v>
@@ -2186,8 +8272,8 @@
       <c r="H18" s="21"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="44"/>
-      <c r="B19" s="44"/>
+      <c r="A19" s="47"/>
+      <c r="B19" s="47"/>
       <c r="C19" s="8"/>
       <c r="D19" s="13">
         <v>12461</v>
@@ -2202,28 +8288,28 @@
       <c r="H19" s="21"/>
     </row>
     <row r="20" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="40" t="s">
+      <c r="A20" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="40"/>
+      <c r="B20" s="43"/>
       <c r="C20" s="24"/>
       <c r="D20" s="27">
         <v>12.46</v>
       </c>
-      <c r="E20" s="45">
+      <c r="E20" s="37">
         <v>11.77</v>
       </c>
-      <c r="F20" s="45">
+      <c r="F20" s="37">
         <v>11.77</v>
       </c>
       <c r="G20" s="29"/>
       <c r="H20" s="29"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="43" t="s">
+      <c r="A21" s="46" t="s">
         <v>64</v>
       </c>
-      <c r="B21" s="43"/>
+      <c r="B21" s="46"/>
       <c r="C21" s="8"/>
       <c r="D21" s="23"/>
       <c r="E21" s="23"/>
@@ -2252,163 +8338,229 @@
       </c>
     </row>
     <row r="25" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A25" s="39" t="s">
+      <c r="A25" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="B25" s="39"/>
-      <c r="C25" s="39"/>
-      <c r="D25" s="39"/>
-      <c r="E25" s="39"/>
-      <c r="F25" s="39"/>
-      <c r="G25" s="39"/>
-      <c r="H25" s="39"/>
-      <c r="I25" s="35"/>
-      <c r="J25" s="35" t="s">
-        <v>106</v>
-      </c>
-      <c r="K25" s="35"/>
+      <c r="B25" s="42"/>
+      <c r="C25" s="42"/>
+      <c r="D25" s="42"/>
+      <c r="E25" s="42"/>
+      <c r="F25" s="42"/>
+      <c r="G25" s="42"/>
+      <c r="H25" s="42"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" s="41" t="s">
+      <c r="A26" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="B26" s="41"/>
+      <c r="B26" s="44"/>
       <c r="C26" s="8"/>
-      <c r="D26" s="11"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2"/>
-      <c r="H26" s="2"/>
-      <c r="I26" s="35" t="s">
-        <v>104</v>
-      </c>
-      <c r="J26" s="35"/>
+      <c r="D26" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="E26" s="11">
+        <v>14871</v>
+      </c>
+      <c r="F26" s="11">
+        <v>14871</v>
+      </c>
+      <c r="G26" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="H26" s="11"/>
+      <c r="I26" s="35"/>
+      <c r="J26" s="35" t="s">
+        <v>112</v>
+      </c>
       <c r="K26" s="35"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" s="41"/>
-      <c r="B27" s="41"/>
+      <c r="A27" s="44"/>
+      <c r="B27" s="44"/>
       <c r="C27" s="8"/>
-      <c r="D27" s="11"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2"/>
-      <c r="H27" s="2"/>
+      <c r="D27" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="E27" s="11">
+        <v>14871</v>
+      </c>
+      <c r="F27" s="11">
+        <v>14871</v>
+      </c>
+      <c r="G27" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="H27" s="11"/>
       <c r="I27" s="35" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="J27" s="35"/>
       <c r="K27" s="35"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" s="41"/>
-      <c r="B28" s="41"/>
+      <c r="A28" s="44"/>
+      <c r="B28" s="44"/>
       <c r="C28" s="8"/>
-      <c r="D28" s="11"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-      <c r="G28" s="2"/>
-      <c r="H28" s="2"/>
-      <c r="I28" s="35"/>
+      <c r="D28" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="E28" s="11">
+        <v>14871</v>
+      </c>
+      <c r="F28" s="11">
+        <v>14871</v>
+      </c>
+      <c r="G28" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="H28" s="11"/>
+      <c r="I28" s="35" t="s">
+        <v>111</v>
+      </c>
       <c r="J28" s="35"/>
       <c r="K28" s="35"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" s="37" t="s">
+      <c r="A29" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="B29" s="37"/>
+      <c r="B29" s="40"/>
       <c r="C29" s="9"/>
-      <c r="D29" s="11"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
-      <c r="H29" s="3"/>
+      <c r="D29" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="E29" s="11">
+        <v>14871</v>
+      </c>
+      <c r="F29" s="11">
+        <v>14871</v>
+      </c>
+      <c r="G29" s="16" t="s">
+        <v>114</v>
+      </c>
+      <c r="H29" s="16"/>
       <c r="I29" s="35"/>
-      <c r="J29" s="35" t="s">
-        <v>105</v>
-      </c>
+      <c r="J29" s="35"/>
       <c r="K29" s="35"/>
     </row>
     <row r="30" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="40" t="s">
+      <c r="A30" s="43" t="s">
         <v>62</v>
       </c>
-      <c r="B30" s="40"/>
+      <c r="B30" s="43"/>
       <c r="C30" s="24"/>
-      <c r="D30" s="27"/>
-      <c r="E30" s="25"/>
-      <c r="F30" s="25"/>
-      <c r="G30" s="25"/>
-      <c r="H30" s="3"/>
-      <c r="I30" s="35" t="s">
-        <v>110</v>
-      </c>
+      <c r="D30" s="27" t="s">
+        <v>109</v>
+      </c>
+      <c r="E30" s="27" t="s">
+        <v>126</v>
+      </c>
+      <c r="F30" s="27" t="s">
+        <v>126</v>
+      </c>
+      <c r="G30" s="27" t="s">
+        <v>116</v>
+      </c>
+      <c r="H30" s="16"/>
+      <c r="I30" s="35"/>
       <c r="J30" s="35"/>
       <c r="K30" s="35"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A31" s="44" t="s">
+      <c r="A31" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="B31" s="44"/>
+      <c r="B31" s="47"/>
       <c r="C31" s="8"/>
-      <c r="D31" s="13"/>
-      <c r="E31" s="10"/>
-      <c r="F31" s="10"/>
-      <c r="G31" s="10"/>
-      <c r="H31" s="2"/>
-      <c r="I31" s="35" t="s">
-        <v>111</v>
-      </c>
+      <c r="D31" s="13">
+        <v>17322</v>
+      </c>
+      <c r="E31" s="13">
+        <v>43037</v>
+      </c>
+      <c r="F31" s="13">
+        <v>43037</v>
+      </c>
+      <c r="G31" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="H31" s="11"/>
+      <c r="I31" s="35"/>
       <c r="J31" s="35"/>
       <c r="K31" s="35"/>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A32" s="44"/>
-      <c r="B32" s="44"/>
+      <c r="A32" s="47"/>
+      <c r="B32" s="47"/>
       <c r="C32" s="8"/>
-      <c r="D32" s="13"/>
-      <c r="E32" s="10"/>
-      <c r="F32" s="1"/>
-      <c r="G32" s="10"/>
-      <c r="H32" s="2"/>
+      <c r="D32" s="13">
+        <v>17322</v>
+      </c>
+      <c r="E32" s="13">
+        <v>43037</v>
+      </c>
+      <c r="F32" s="13">
+        <v>43037</v>
+      </c>
+      <c r="G32" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="H32" s="11"/>
       <c r="I32" s="35"/>
-      <c r="J32" s="35"/>
+      <c r="J32" s="35" t="s">
+        <v>113</v>
+      </c>
       <c r="K32" s="35"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A33" s="44"/>
-      <c r="B33" s="44"/>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" s="47"/>
+      <c r="B33" s="47"/>
       <c r="C33" s="8"/>
-      <c r="D33" s="13"/>
-      <c r="E33" s="13"/>
-      <c r="F33" s="10"/>
-      <c r="G33" s="12"/>
-      <c r="H33" s="3"/>
-      <c r="I33" s="35"/>
-      <c r="J33" s="35" t="s">
-        <v>112</v>
-      </c>
-      <c r="K33" s="35"/>
-    </row>
-    <row r="34" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="40" t="s">
+      <c r="D33" s="13">
+        <v>17322</v>
+      </c>
+      <c r="E33" s="13">
+        <v>43037</v>
+      </c>
+      <c r="F33" s="13">
+        <v>43037</v>
+      </c>
+      <c r="G33" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="H33" s="16"/>
+      <c r="I33" s="35" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A34" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="B34" s="40"/>
+      <c r="B34" s="43"/>
       <c r="C34" s="26"/>
-      <c r="D34" s="25"/>
-      <c r="E34" s="25"/>
-      <c r="F34" s="25"/>
-      <c r="G34" s="25"/>
-      <c r="H34" s="3"/>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A35" s="43" t="s">
+      <c r="D34" s="27">
+        <v>17.32</v>
+      </c>
+      <c r="E34" s="27">
+        <v>43.04</v>
+      </c>
+      <c r="F34" s="27">
+        <v>43.04</v>
+      </c>
+      <c r="G34" s="27">
+        <v>85.28</v>
+      </c>
+      <c r="H34" s="16"/>
+      <c r="I34" s="35" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" s="46" t="s">
         <v>64</v>
       </c>
-      <c r="B35" s="43"/>
+      <c r="B35" s="46"/>
       <c r="C35" s="8"/>
       <c r="D35" s="23"/>
       <c r="E35" s="23"/>
@@ -2416,7 +8568,7 @@
       <c r="G35" s="23"/>
       <c r="H35" s="23"/>
     </row>
-    <row r="46" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="46" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="60" ht="29.25" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="15">
@@ -2439,4 +8591,1301 @@
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8A9C64A-1FBD-4DFF-AE2C-DC8E18CCF4DC}">
+  <dimension ref="A1:T115"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D43" sqref="D43"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.28515625" customWidth="1"/>
+    <col min="2" max="2" width="19.85546875" customWidth="1"/>
+    <col min="7" max="7" width="15" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" customWidth="1"/>
+    <col min="9" max="9" width="13.7109375" customWidth="1"/>
+    <col min="10" max="10" width="13.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="4">
+        <v>128</v>
+      </c>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="5">
+        <v>160000000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="4">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="4">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="48" t="s">
+        <v>127</v>
+      </c>
+      <c r="B9" s="48"/>
+      <c r="C9" s="48"/>
+      <c r="D9" s="48"/>
+      <c r="E9" s="48"/>
+      <c r="F9" s="48"/>
+      <c r="J9" s="48" t="s">
+        <v>128</v>
+      </c>
+      <c r="K9" s="48"/>
+      <c r="L9" s="48"/>
+      <c r="M9" s="48"/>
+      <c r="N9" s="48"/>
+      <c r="O9" s="48"/>
+      <c r="P9" s="49"/>
+      <c r="Q9" s="49"/>
+    </row>
+    <row r="11" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A11" s="50" t="s">
+        <v>141</v>
+      </c>
+      <c r="B11" s="50"/>
+      <c r="C11" s="50"/>
+      <c r="D11" s="50"/>
+      <c r="E11" s="50"/>
+      <c r="F11" s="50"/>
+      <c r="G11" s="50"/>
+      <c r="H11" s="50"/>
+      <c r="I11" s="50"/>
+      <c r="J11" s="50"/>
+      <c r="K11" s="50"/>
+      <c r="L11" s="50"/>
+      <c r="M11" s="50"/>
+      <c r="N11" s="50"/>
+      <c r="O11" s="50"/>
+      <c r="P11" s="50"/>
+      <c r="Q11" s="50"/>
+      <c r="R11" s="20"/>
+      <c r="S11" s="20"/>
+      <c r="T11" s="20"/>
+    </row>
+    <row r="32" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B32" s="51"/>
+      <c r="C32" s="51"/>
+      <c r="D32" s="51"/>
+      <c r="E32" s="51"/>
+      <c r="F32" s="51"/>
+      <c r="G32" s="51"/>
+      <c r="H32" s="51"/>
+      <c r="I32" s="51"/>
+      <c r="J32" s="51"/>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B33" s="51"/>
+      <c r="C33" s="51"/>
+      <c r="D33" s="51"/>
+      <c r="E33" s="51"/>
+      <c r="F33" s="51"/>
+      <c r="G33" s="51"/>
+      <c r="H33" s="51"/>
+      <c r="I33" s="51"/>
+      <c r="J33" s="51"/>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B34" s="51"/>
+      <c r="C34" s="51"/>
+      <c r="D34" s="51"/>
+      <c r="E34" s="51"/>
+      <c r="F34" s="51"/>
+      <c r="G34" s="51"/>
+      <c r="H34" s="51"/>
+      <c r="I34" s="51"/>
+      <c r="J34" s="51"/>
+      <c r="K34" s="51"/>
+    </row>
+    <row r="35" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B35" s="51"/>
+      <c r="C35" s="51"/>
+      <c r="D35" s="51"/>
+      <c r="E35" s="51"/>
+      <c r="F35" s="52"/>
+      <c r="G35" s="52"/>
+      <c r="H35" s="52"/>
+      <c r="I35" s="51"/>
+      <c r="J35" s="51"/>
+      <c r="K35" s="51"/>
+    </row>
+    <row r="36" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B36" s="51"/>
+      <c r="C36" s="51"/>
+      <c r="D36" s="51"/>
+      <c r="E36" s="51"/>
+      <c r="F36" s="52"/>
+      <c r="G36" s="59"/>
+      <c r="H36" s="59"/>
+      <c r="I36" s="51"/>
+      <c r="J36" s="51"/>
+      <c r="K36" s="51"/>
+    </row>
+    <row r="37" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B37" s="51"/>
+      <c r="C37" s="51"/>
+      <c r="D37" s="51"/>
+      <c r="E37" s="51"/>
+      <c r="F37" s="51"/>
+      <c r="G37" s="51"/>
+      <c r="H37" s="52"/>
+      <c r="I37" s="52"/>
+      <c r="J37" s="52"/>
+      <c r="K37" s="51"/>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B38" s="51"/>
+      <c r="C38" s="51"/>
+      <c r="D38" s="51"/>
+      <c r="E38" s="51"/>
+      <c r="F38" s="51"/>
+      <c r="G38" s="51"/>
+      <c r="H38" s="51"/>
+      <c r="I38" s="51"/>
+      <c r="J38" s="51"/>
+      <c r="K38" s="51"/>
+    </row>
+    <row r="39" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A39" s="38"/>
+      <c r="B39" s="38"/>
+      <c r="C39" s="38"/>
+      <c r="D39" s="38"/>
+      <c r="E39" s="43" t="s">
+        <v>62</v>
+      </c>
+      <c r="F39" s="43"/>
+      <c r="G39" s="43" t="s">
+        <v>19</v>
+      </c>
+      <c r="H39" s="43"/>
+      <c r="I39" s="60"/>
+      <c r="J39" s="51"/>
+      <c r="K39" s="51"/>
+    </row>
+    <row r="40" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A40" s="38"/>
+      <c r="B40" s="38"/>
+      <c r="C40" s="38"/>
+      <c r="D40" s="38"/>
+      <c r="E40" s="38" t="s">
+        <v>138</v>
+      </c>
+      <c r="F40" s="38" t="s">
+        <v>137</v>
+      </c>
+      <c r="G40" s="38" t="s">
+        <v>138</v>
+      </c>
+      <c r="H40" s="38" t="s">
+        <v>137</v>
+      </c>
+      <c r="I40" s="61"/>
+      <c r="J40" s="51"/>
+    </row>
+    <row r="41" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A41" s="53" t="s">
+        <v>133</v>
+      </c>
+      <c r="B41" s="53"/>
+      <c r="C41" s="53"/>
+      <c r="D41" s="53"/>
+      <c r="E41" s="55">
+        <v>955.8</v>
+      </c>
+      <c r="F41" s="55">
+        <v>51.3</v>
+      </c>
+      <c r="G41" s="55">
+        <v>0.68</v>
+      </c>
+      <c r="H41" s="55">
+        <v>12.46</v>
+      </c>
+      <c r="I41" s="51"/>
+      <c r="J41" s="51"/>
+    </row>
+    <row r="42" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A42" s="53" t="s">
+        <v>132</v>
+      </c>
+      <c r="B42" s="53"/>
+      <c r="C42" s="53"/>
+      <c r="D42" s="53"/>
+      <c r="E42" s="55">
+        <v>475</v>
+      </c>
+      <c r="F42" s="55">
+        <v>54.3</v>
+      </c>
+      <c r="G42" s="55">
+        <v>1.347</v>
+      </c>
+      <c r="H42" s="55">
+        <v>11.77</v>
+      </c>
+      <c r="I42" s="51"/>
+      <c r="J42" s="51"/>
+    </row>
+    <row r="43" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A43" s="53" t="s">
+        <v>131</v>
+      </c>
+      <c r="B43" s="53"/>
+      <c r="C43" s="53"/>
+      <c r="D43" s="53"/>
+      <c r="E43" s="55">
+        <v>447.7</v>
+      </c>
+      <c r="F43" s="55">
+        <v>54.3</v>
+      </c>
+      <c r="G43" s="55">
+        <v>1.43</v>
+      </c>
+      <c r="H43" s="55">
+        <v>11.77</v>
+      </c>
+      <c r="I43" s="51"/>
+      <c r="J43" s="51"/>
+    </row>
+    <row r="44" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A44" s="53" t="s">
+        <v>134</v>
+      </c>
+      <c r="B44" s="53"/>
+      <c r="C44" s="53"/>
+      <c r="D44" s="53"/>
+      <c r="E44" s="55">
+        <v>686.6</v>
+      </c>
+      <c r="F44" s="55">
+        <v>36.9</v>
+      </c>
+      <c r="G44" s="55">
+        <v>0.93</v>
+      </c>
+      <c r="H44" s="55">
+        <v>17.32</v>
+      </c>
+      <c r="I44" s="51"/>
+      <c r="J44" s="51"/>
+    </row>
+    <row r="45" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A45" s="56" t="s">
+        <v>135</v>
+      </c>
+      <c r="B45" s="57"/>
+      <c r="C45" s="57"/>
+      <c r="D45" s="58"/>
+      <c r="E45" s="55">
+        <v>565.20000000000005</v>
+      </c>
+      <c r="F45" s="55">
+        <v>14.8</v>
+      </c>
+      <c r="G45" s="55">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="H45" s="55">
+        <v>43.04</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A46" s="56" t="s">
+        <v>136</v>
+      </c>
+      <c r="B46" s="57"/>
+      <c r="C46" s="57"/>
+      <c r="D46" s="58"/>
+      <c r="E46" s="55">
+        <v>196.4</v>
+      </c>
+      <c r="F46" s="55">
+        <v>14.8</v>
+      </c>
+      <c r="G46" s="55">
+        <v>3.26</v>
+      </c>
+      <c r="H46" s="55">
+        <v>43.04</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A47" s="56" t="s">
+        <v>139</v>
+      </c>
+      <c r="B47" s="57"/>
+      <c r="C47" s="57"/>
+      <c r="D47" s="58"/>
+      <c r="E47" s="55">
+        <v>304.39999999999998</v>
+      </c>
+      <c r="F47" s="55">
+        <v>7.5</v>
+      </c>
+      <c r="G47" s="55">
+        <v>2.1</v>
+      </c>
+      <c r="H47" s="55">
+        <v>85.28</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A48" s="56" t="s">
+        <v>140</v>
+      </c>
+      <c r="B48" s="57"/>
+      <c r="C48" s="57"/>
+      <c r="D48" s="58"/>
+      <c r="E48" s="55">
+        <v>299.2</v>
+      </c>
+      <c r="F48" s="55"/>
+      <c r="G48" s="55">
+        <v>2.14</v>
+      </c>
+      <c r="H48" s="55"/>
+    </row>
+    <row r="62" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A62" s="50" t="s">
+        <v>143</v>
+      </c>
+      <c r="B62" s="50"/>
+      <c r="C62" s="50"/>
+      <c r="D62" s="50"/>
+      <c r="E62" s="50"/>
+      <c r="F62" s="50"/>
+      <c r="G62" s="50"/>
+      <c r="H62" s="50"/>
+      <c r="I62" s="50"/>
+      <c r="J62" s="50"/>
+      <c r="K62" s="50"/>
+      <c r="L62" s="50"/>
+      <c r="M62" s="50"/>
+      <c r="N62" s="50"/>
+      <c r="O62" s="50"/>
+      <c r="P62" s="50"/>
+      <c r="Q62" s="50"/>
+    </row>
+    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A91" s="51"/>
+      <c r="B91" s="51"/>
+      <c r="C91" s="51"/>
+      <c r="D91" s="51"/>
+      <c r="E91" s="51"/>
+      <c r="F91" s="51"/>
+      <c r="G91" s="51"/>
+      <c r="H91" s="51"/>
+      <c r="I91" s="51"/>
+      <c r="J91" s="51"/>
+      <c r="K91" s="51"/>
+      <c r="L91" s="51"/>
+      <c r="M91" s="51"/>
+    </row>
+    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A92" s="51"/>
+      <c r="B92" s="51"/>
+      <c r="C92" s="51"/>
+      <c r="D92" s="51"/>
+      <c r="E92" s="51"/>
+      <c r="F92" s="51"/>
+      <c r="G92" s="51"/>
+      <c r="H92" s="51"/>
+      <c r="I92" s="51"/>
+      <c r="J92" s="51"/>
+      <c r="K92" s="51"/>
+      <c r="L92" s="51"/>
+      <c r="M92" s="51"/>
+    </row>
+    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A93" s="51"/>
+      <c r="B93" s="51"/>
+      <c r="C93" s="51"/>
+      <c r="D93" s="51"/>
+      <c r="E93" s="51"/>
+      <c r="F93" s="51"/>
+      <c r="G93" s="51"/>
+      <c r="H93" s="51"/>
+      <c r="I93" s="51"/>
+      <c r="J93" s="51"/>
+      <c r="K93" s="51"/>
+      <c r="L93" s="51"/>
+      <c r="M93" s="51"/>
+    </row>
+    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A94" s="51"/>
+      <c r="B94" s="51"/>
+      <c r="C94" s="51"/>
+      <c r="D94" s="51"/>
+      <c r="E94" s="51"/>
+      <c r="F94" s="51"/>
+      <c r="G94" s="51"/>
+      <c r="H94" s="51"/>
+      <c r="I94" s="51"/>
+      <c r="J94" s="51"/>
+      <c r="K94" s="51"/>
+      <c r="L94" s="51"/>
+      <c r="M94" s="51"/>
+    </row>
+    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A95" s="51"/>
+      <c r="B95" s="51"/>
+      <c r="C95" s="51"/>
+      <c r="D95" s="51"/>
+      <c r="E95" s="51"/>
+      <c r="F95" s="51"/>
+      <c r="G95" s="51"/>
+      <c r="H95" s="51"/>
+      <c r="I95" s="51"/>
+      <c r="J95" s="51"/>
+      <c r="K95" s="51"/>
+      <c r="L95" s="51"/>
+      <c r="M95" s="51"/>
+    </row>
+    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A96" s="51"/>
+      <c r="B96" s="51"/>
+      <c r="C96" s="51"/>
+      <c r="D96" s="51"/>
+      <c r="E96" s="51"/>
+      <c r="F96" s="51"/>
+      <c r="G96" s="51"/>
+      <c r="H96" s="51"/>
+      <c r="I96" s="51"/>
+      <c r="J96" s="51"/>
+      <c r="K96" s="51"/>
+      <c r="L96" s="51"/>
+      <c r="M96" s="51"/>
+    </row>
+    <row r="97" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A97" s="51"/>
+      <c r="B97" s="51"/>
+      <c r="C97" s="51"/>
+      <c r="D97" s="51"/>
+      <c r="E97" s="51"/>
+      <c r="F97" s="51"/>
+      <c r="G97" s="51"/>
+      <c r="H97" s="52"/>
+      <c r="I97" s="52"/>
+      <c r="J97" s="52"/>
+      <c r="K97" s="52"/>
+      <c r="L97" s="52"/>
+      <c r="M97" s="51"/>
+    </row>
+    <row r="98" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A98" s="51"/>
+      <c r="B98" s="51"/>
+      <c r="C98" s="51"/>
+      <c r="D98" s="51"/>
+      <c r="E98" s="51"/>
+      <c r="F98" s="51"/>
+      <c r="G98" s="51"/>
+      <c r="H98" s="51"/>
+      <c r="I98" s="51"/>
+      <c r="J98" s="51"/>
+      <c r="K98" s="51"/>
+      <c r="L98" s="51"/>
+      <c r="M98" s="51"/>
+    </row>
+    <row r="99" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A99" s="51"/>
+      <c r="B99" s="51"/>
+      <c r="C99" s="51"/>
+      <c r="D99" s="51"/>
+      <c r="E99" s="51"/>
+      <c r="F99" s="51"/>
+      <c r="G99" s="51"/>
+      <c r="H99" s="51"/>
+      <c r="I99" s="51"/>
+      <c r="J99" s="51"/>
+      <c r="K99" s="51"/>
+      <c r="L99" s="51"/>
+      <c r="M99" s="51"/>
+    </row>
+    <row r="100" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A100" s="51"/>
+      <c r="B100" s="51"/>
+      <c r="C100" s="51"/>
+      <c r="D100" s="51"/>
+      <c r="E100" s="52"/>
+      <c r="F100" s="52"/>
+      <c r="G100" s="52"/>
+      <c r="H100" s="52"/>
+      <c r="I100" s="52"/>
+      <c r="J100" s="52"/>
+      <c r="K100" s="51"/>
+      <c r="L100" s="51"/>
+      <c r="M100" s="51"/>
+    </row>
+    <row r="101" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A101" s="51"/>
+      <c r="B101" s="51"/>
+      <c r="C101" s="51"/>
+      <c r="D101" s="51"/>
+      <c r="E101" s="51"/>
+      <c r="F101" s="51"/>
+      <c r="G101" s="51"/>
+      <c r="H101" s="51"/>
+      <c r="I101" s="51"/>
+      <c r="J101" s="51"/>
+      <c r="K101" s="51"/>
+      <c r="L101" s="51"/>
+      <c r="M101" s="51"/>
+    </row>
+    <row r="102" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A102" s="51"/>
+      <c r="B102" s="51"/>
+      <c r="C102" s="51"/>
+      <c r="D102" s="51"/>
+      <c r="E102" s="52"/>
+      <c r="F102" s="52"/>
+      <c r="G102" s="52"/>
+      <c r="H102" s="52"/>
+      <c r="I102" s="52"/>
+      <c r="J102" s="52"/>
+      <c r="K102" s="51"/>
+      <c r="L102" s="51"/>
+      <c r="M102" s="51"/>
+    </row>
+    <row r="103" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A103" s="51"/>
+      <c r="B103" s="51"/>
+      <c r="C103" s="51"/>
+      <c r="D103" s="51"/>
+      <c r="E103" s="51"/>
+      <c r="F103" s="51"/>
+      <c r="G103" s="51"/>
+      <c r="H103" s="51"/>
+      <c r="I103" s="51"/>
+      <c r="J103" s="51"/>
+      <c r="K103" s="51"/>
+      <c r="L103" s="51"/>
+      <c r="M103" s="51"/>
+    </row>
+    <row r="104" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A104" s="51"/>
+      <c r="B104" s="51"/>
+      <c r="C104" s="51"/>
+      <c r="D104" s="51"/>
+      <c r="E104" s="51"/>
+      <c r="F104" s="51"/>
+      <c r="G104" s="51"/>
+      <c r="H104" s="51"/>
+      <c r="I104" s="51"/>
+      <c r="J104" s="51"/>
+      <c r="K104" s="51"/>
+      <c r="L104" s="51"/>
+      <c r="M104" s="51"/>
+    </row>
+    <row r="105" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E105" s="38"/>
+      <c r="F105" s="38"/>
+      <c r="G105" s="38"/>
+      <c r="H105" s="38"/>
+      <c r="I105" s="43" t="s">
+        <v>62</v>
+      </c>
+      <c r="J105" s="43"/>
+      <c r="K105" s="43"/>
+      <c r="L105" s="65"/>
+    </row>
+    <row r="106" spans="1:15" ht="63" x14ac:dyDescent="0.25">
+      <c r="E106" s="38"/>
+      <c r="F106" s="38"/>
+      <c r="G106" s="38"/>
+      <c r="H106" s="38"/>
+      <c r="I106" s="38" t="s">
+        <v>142</v>
+      </c>
+      <c r="J106" s="62" t="s">
+        <v>146</v>
+      </c>
+      <c r="K106" s="62" t="s">
+        <v>147</v>
+      </c>
+      <c r="L106" s="66"/>
+    </row>
+    <row r="107" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E107" s="53" t="s">
+        <v>144</v>
+      </c>
+      <c r="F107" s="53"/>
+      <c r="G107" s="53"/>
+      <c r="H107" s="53"/>
+      <c r="I107" s="54">
+        <v>5.6</v>
+      </c>
+      <c r="J107" s="54">
+        <v>6.3</v>
+      </c>
+      <c r="K107" s="54" t="s">
+        <v>145</v>
+      </c>
+      <c r="L107" s="67"/>
+    </row>
+    <row r="108" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E108" s="53" t="s">
+        <v>8</v>
+      </c>
+      <c r="F108" s="53"/>
+      <c r="G108" s="53"/>
+      <c r="H108" s="53"/>
+      <c r="I108" s="55">
+        <v>6.3</v>
+      </c>
+      <c r="J108" s="55">
+        <v>7.1</v>
+      </c>
+      <c r="K108" s="55">
+        <v>36.9</v>
+      </c>
+      <c r="L108" s="64"/>
+    </row>
+    <row r="109" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E109" s="53" t="s">
+        <v>9</v>
+      </c>
+      <c r="F109" s="53"/>
+      <c r="G109" s="53"/>
+      <c r="H109" s="53"/>
+      <c r="I109" s="55">
+        <v>7.6</v>
+      </c>
+      <c r="J109" s="55">
+        <v>7.8</v>
+      </c>
+      <c r="K109" s="55">
+        <v>14.8</v>
+      </c>
+      <c r="L109" s="64"/>
+    </row>
+    <row r="110" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E110" s="53" t="s">
+        <v>10</v>
+      </c>
+      <c r="F110" s="53"/>
+      <c r="G110" s="53"/>
+      <c r="H110" s="53"/>
+      <c r="I110" s="55">
+        <v>8.5</v>
+      </c>
+      <c r="J110" s="55">
+        <v>7.8</v>
+      </c>
+      <c r="K110" s="55">
+        <v>14.8</v>
+      </c>
+      <c r="L110" s="64"/>
+    </row>
+    <row r="111" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E111" s="53" t="s">
+        <v>11</v>
+      </c>
+      <c r="F111" s="53"/>
+      <c r="G111" s="53"/>
+      <c r="H111" s="53"/>
+      <c r="I111" s="55">
+        <v>4</v>
+      </c>
+      <c r="J111" s="55">
+        <v>1.4</v>
+      </c>
+      <c r="K111" s="55">
+        <v>7.5</v>
+      </c>
+      <c r="L111" s="64"/>
+    </row>
+    <row r="112" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C112" s="51"/>
+      <c r="D112" s="51"/>
+      <c r="E112" s="53" t="s">
+        <v>12</v>
+      </c>
+      <c r="F112" s="53"/>
+      <c r="G112" s="53"/>
+      <c r="H112" s="53"/>
+      <c r="I112" s="55">
+        <v>7.3</v>
+      </c>
+      <c r="J112" s="55">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="K112" s="55"/>
+      <c r="L112" s="64"/>
+      <c r="M112" s="51"/>
+      <c r="N112" s="51"/>
+      <c r="O112" s="51"/>
+    </row>
+    <row r="113" spans="3:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C113" s="51"/>
+      <c r="D113" s="51"/>
+      <c r="E113" s="63"/>
+      <c r="F113" s="63"/>
+      <c r="G113" s="63"/>
+      <c r="H113" s="63"/>
+      <c r="I113" s="64"/>
+      <c r="J113" s="64"/>
+      <c r="K113" s="64"/>
+      <c r="L113" s="64"/>
+      <c r="M113" s="51"/>
+      <c r="N113" s="51"/>
+      <c r="O113" s="51"/>
+    </row>
+    <row r="114" spans="3:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C114" s="51"/>
+      <c r="D114" s="51"/>
+      <c r="E114" s="63"/>
+      <c r="F114" s="63"/>
+      <c r="G114" s="63"/>
+      <c r="H114" s="63"/>
+      <c r="I114" s="64"/>
+      <c r="J114" s="64"/>
+      <c r="K114" s="64"/>
+      <c r="L114" s="64"/>
+      <c r="M114" s="51"/>
+      <c r="N114" s="51"/>
+      <c r="O114" s="51"/>
+    </row>
+    <row r="115" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C115" s="51"/>
+      <c r="D115" s="51"/>
+      <c r="E115" s="51"/>
+      <c r="F115" s="51"/>
+      <c r="G115" s="51"/>
+      <c r="H115" s="51"/>
+      <c r="I115" s="51"/>
+      <c r="J115" s="51"/>
+      <c r="K115" s="51"/>
+      <c r="L115" s="51"/>
+      <c r="M115" s="51"/>
+      <c r="N115" s="51"/>
+      <c r="O115" s="51"/>
+    </row>
+  </sheetData>
+  <mergeCells count="23">
+    <mergeCell ref="E111:H111"/>
+    <mergeCell ref="E112:H112"/>
+    <mergeCell ref="E113:H113"/>
+    <mergeCell ref="E114:H114"/>
+    <mergeCell ref="I105:K105"/>
+    <mergeCell ref="E107:H107"/>
+    <mergeCell ref="E108:H108"/>
+    <mergeCell ref="E109:H109"/>
+    <mergeCell ref="E110:H110"/>
+    <mergeCell ref="A48:D48"/>
+    <mergeCell ref="A62:Q62"/>
+    <mergeCell ref="A45:D45"/>
+    <mergeCell ref="A46:D46"/>
+    <mergeCell ref="A47:D47"/>
+    <mergeCell ref="A41:D41"/>
+    <mergeCell ref="A42:D42"/>
+    <mergeCell ref="A43:D43"/>
+    <mergeCell ref="A44:D44"/>
+    <mergeCell ref="A11:Q11"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="A9:F9"/>
+    <mergeCell ref="J9:O9"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15DD7F52-A5C3-486A-839D-8D1373B885C5}">
+  <dimension ref="A1:K60"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D34" sqref="D34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="17.85546875" customWidth="1"/>
+    <col min="3" max="3" width="22.28515625" customWidth="1"/>
+    <col min="4" max="4" width="22.5703125" customWidth="1"/>
+    <col min="5" max="5" width="23.5703125" customWidth="1"/>
+    <col min="6" max="6" width="22.85546875" customWidth="1"/>
+    <col min="7" max="7" width="30.140625" customWidth="1"/>
+    <col min="8" max="8" width="34.7109375" customWidth="1"/>
+    <col min="9" max="9" width="45.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="41" t="s">
+        <v>118</v>
+      </c>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="4">
+        <v>128</v>
+      </c>
+      <c r="F3" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="G3" s="32"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="5">
+        <v>160000000</v>
+      </c>
+      <c r="F4" s="31" t="s">
+        <v>92</v>
+      </c>
+      <c r="G4" s="33"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="4">
+        <v>1.4</v>
+      </c>
+      <c r="G5" s="45" t="s">
+        <v>119</v>
+      </c>
+      <c r="H5" s="45"/>
+    </row>
+    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="4">
+        <v>179</v>
+      </c>
+      <c r="F6" s="35" t="s">
+        <v>94</v>
+      </c>
+      <c r="G6" s="45"/>
+      <c r="H6" s="45"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G7" s="45"/>
+      <c r="H7" s="45"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G8" s="45"/>
+      <c r="H8" s="45"/>
+    </row>
+    <row r="9" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A9" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9" s="7"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+    </row>
+    <row r="10" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C10" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A11" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="34"/>
+      <c r="C11" s="34"/>
+      <c r="D11" s="34"/>
+      <c r="E11" s="34"/>
+      <c r="F11" s="34"/>
+      <c r="G11" s="34"/>
+      <c r="H11" s="34"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="44" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="44"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="21"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="44"/>
+      <c r="B13" s="44"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="21"/>
+      <c r="H13" s="21"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="44"/>
+      <c r="B14" s="44"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="21"/>
+      <c r="H14" s="21"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="40" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="40"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="22"/>
+      <c r="H15" s="22"/>
+      <c r="I15" s="35"/>
+    </row>
+    <row r="16" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="43" t="s">
+        <v>62</v>
+      </c>
+      <c r="B16" s="43"/>
+      <c r="C16" s="24"/>
+      <c r="D16" s="27"/>
+      <c r="E16" s="27"/>
+      <c r="F16" s="27"/>
+      <c r="G16" s="22"/>
+      <c r="H16" s="22"/>
+      <c r="I16" s="35"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="47" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" s="47"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="21"/>
+      <c r="H17" s="21"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" s="47"/>
+      <c r="B18" s="47"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="21"/>
+      <c r="H18" s="21"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" s="47"/>
+      <c r="B19" s="47"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="21"/>
+      <c r="H19" s="21"/>
+    </row>
+    <row r="20" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="43" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" s="43"/>
+      <c r="C20" s="24"/>
+      <c r="D20" s="27"/>
+      <c r="E20" s="37"/>
+      <c r="F20" s="37"/>
+      <c r="G20" s="29"/>
+      <c r="H20" s="29"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" s="46" t="s">
+        <v>64</v>
+      </c>
+      <c r="B21" s="46"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="23"/>
+      <c r="E21" s="23"/>
+      <c r="F21" s="23"/>
+      <c r="G21" s="21"/>
+      <c r="H21" s="21"/>
+    </row>
+    <row r="24" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C24" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H24" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A25" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="B25" s="42"/>
+      <c r="C25" s="42"/>
+      <c r="D25" s="42"/>
+      <c r="E25" s="42"/>
+      <c r="F25" s="42"/>
+      <c r="G25" s="42"/>
+      <c r="H25" s="42"/>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" s="44" t="s">
+        <v>13</v>
+      </c>
+      <c r="B26" s="44"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="E26" s="11"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="11"/>
+      <c r="H26" s="11"/>
+      <c r="I26" s="35"/>
+      <c r="J26" s="35" t="s">
+        <v>120</v>
+      </c>
+      <c r="K26" s="35"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27" s="44"/>
+      <c r="B27" s="44"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="E27" s="11"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="11"/>
+      <c r="H27" s="11"/>
+      <c r="I27" s="35" t="s">
+        <v>122</v>
+      </c>
+      <c r="J27" s="35"/>
+      <c r="K27" s="35"/>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28" s="44"/>
+      <c r="B28" s="44"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="E28" s="11"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="11"/>
+      <c r="H28" s="11"/>
+      <c r="I28" s="35" t="s">
+        <v>121</v>
+      </c>
+      <c r="J28" s="35"/>
+      <c r="K28" s="35"/>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29" s="40" t="s">
+        <v>14</v>
+      </c>
+      <c r="B29" s="40"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="E29" s="16"/>
+      <c r="F29" s="16"/>
+      <c r="G29" s="16"/>
+      <c r="H29" s="16"/>
+      <c r="I29" s="35"/>
+      <c r="J29" s="35"/>
+      <c r="K29" s="35"/>
+    </row>
+    <row r="30" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A30" s="43" t="s">
+        <v>62</v>
+      </c>
+      <c r="B30" s="43"/>
+      <c r="C30" s="24"/>
+      <c r="D30" s="27" t="s">
+        <v>124</v>
+      </c>
+      <c r="E30" s="27"/>
+      <c r="F30" s="27"/>
+      <c r="G30" s="27"/>
+      <c r="H30" s="16"/>
+      <c r="I30" s="35"/>
+      <c r="J30" s="35"/>
+      <c r="K30" s="35"/>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A31" s="47" t="s">
+        <v>18</v>
+      </c>
+      <c r="B31" s="47"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="E31" s="13"/>
+      <c r="F31" s="13"/>
+      <c r="G31" s="13"/>
+      <c r="H31" s="11"/>
+      <c r="I31" s="35"/>
+      <c r="J31" s="35"/>
+      <c r="K31" s="35"/>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A32" s="47"/>
+      <c r="B32" s="47"/>
+      <c r="C32" s="8"/>
+      <c r="D32" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="E32" s="13"/>
+      <c r="F32" s="39"/>
+      <c r="G32" s="13"/>
+      <c r="H32" s="11"/>
+      <c r="I32" s="35"/>
+      <c r="J32" s="35" t="s">
+        <v>113</v>
+      </c>
+      <c r="K32" s="35"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" s="47"/>
+      <c r="B33" s="47"/>
+      <c r="C33" s="8"/>
+      <c r="D33" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="E33" s="13"/>
+      <c r="F33" s="13"/>
+      <c r="G33" s="13"/>
+      <c r="H33" s="16"/>
+      <c r="I33" s="35"/>
+    </row>
+    <row r="34" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A34" s="43" t="s">
+        <v>19</v>
+      </c>
+      <c r="B34" s="43"/>
+      <c r="C34" s="26"/>
+      <c r="D34" s="27">
+        <v>14.94</v>
+      </c>
+      <c r="E34" s="27"/>
+      <c r="F34" s="27"/>
+      <c r="G34" s="27"/>
+      <c r="H34" s="16"/>
+      <c r="I34" s="35"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" s="46" t="s">
+        <v>64</v>
+      </c>
+      <c r="B35" s="46"/>
+      <c r="C35" s="8"/>
+      <c r="D35" s="23"/>
+      <c r="E35" s="23"/>
+      <c r="F35" s="23"/>
+      <c r="G35" s="23"/>
+      <c r="H35" s="23"/>
+    </row>
+    <row r="46" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="60" ht="29.25" customHeight="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <mergeCells count="15">
+    <mergeCell ref="A17:B19"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="G5:H8"/>
+    <mergeCell ref="A12:B14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A31:B33"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A25:H25"/>
+    <mergeCell ref="A26:B28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="A30:B30"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Measurements/measurements_12-03-2023.xlsx
+++ b/Measurements/measurements_12-03-2023.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eric\Documents\GitHub\FPGA-SIMD-Sandbox\Measurements\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B0EDCB1-0807-46DC-8A51-EA2FB9ABE566}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBD2291C-912B-4C94-A58C-C6B0CDC0D07A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="853" activeTab="5" xr2:uid="{E844A9DA-1A30-477C-9862-EC514B4B7F27}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="853" activeTab="4" xr2:uid="{E844A9DA-1A30-477C-9862-EC514B4B7F27}"/>
   </bookViews>
   <sheets>
     <sheet name="Messwerte 12.03.2023" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="564" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="605" uniqueCount="250">
   <si>
     <t>AVX512 - PROJEKT :</t>
   </si>
@@ -771,6 +771,27 @@
   </si>
   <si>
     <t>1,20 s</t>
+  </si>
+  <si>
+    <t>15549.1</t>
+  </si>
+  <si>
+    <t>15,55 s</t>
+  </si>
+  <si>
+    <t>(27.03.2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            [[intel::fpga_register]] Type hashVec[HSIZE] = {}; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">            [[intel::fpga_register]] Type countVec[HSIZE] = {}; </t>
+  </si>
+  <si>
+    <t>7,9 s</t>
+  </si>
+  <si>
+    <t>7,9s statt 13,82s</t>
   </si>
 </sst>
 </file>
@@ -839,7 +860,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -879,6 +900,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1002,7 +1035,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -1113,8 +1146,14 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1122,28 +1161,22 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1158,8 +1191,8 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1170,17 +1203,27 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4653,6 +4696,9 @@
                 <c:pt idx="7">
                   <c:v>7.66</c:v>
                 </c:pt>
+                <c:pt idx="8">
+                  <c:v>15.55</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -5417,6 +5463,9 @@
                 <c:pt idx="7">
                   <c:v>83.51</c:v>
                 </c:pt>
+                <c:pt idx="8">
+                  <c:v>41.2</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -6093,6 +6142,9 @@
                 <c:pt idx="6">
                   <c:v>7.66</c:v>
                 </c:pt>
+                <c:pt idx="7">
+                  <c:v>15.55</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -6737,6 +6789,9 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>7.66</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>15.55</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12382,11 +12437,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="56"/>
-      <c r="C1" s="56"/>
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C3" s="3" t="s">
@@ -12431,22 +12486,22 @@
       <c r="D6" s="4">
         <v>179</v>
       </c>
-      <c r="G6" s="57" t="s">
+      <c r="G6" s="55" t="s">
         <v>159</v>
       </c>
-      <c r="H6" s="57"/>
+      <c r="H6" s="55"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F7" s="35" t="s">
         <v>87</v>
       </c>
-      <c r="G7" s="57"/>
-      <c r="H7" s="57"/>
+      <c r="G7" s="55"/>
+      <c r="H7" s="55"/>
       <c r="I7" s="35"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="G8" s="57"/>
-      <c r="H8" s="57"/>
+      <c r="G8" s="55"/>
+      <c r="H8" s="55"/>
       <c r="I8" s="35"/>
     </row>
     <row r="9" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
@@ -12457,8 +12512,8 @@
       <c r="C9" s="6"/>
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
-      <c r="G9" s="57"/>
-      <c r="H9" s="57"/>
+      <c r="G9" s="55"/>
+      <c r="H9" s="55"/>
     </row>
     <row r="10" spans="1:9" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C10" s="7" t="s">
@@ -12481,22 +12536,22 @@
       </c>
     </row>
     <row r="11" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A11" s="55" t="s">
+      <c r="A11" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="B11" s="55"/>
-      <c r="C11" s="55"/>
-      <c r="D11" s="55"/>
-      <c r="E11" s="55"/>
-      <c r="F11" s="55"/>
-      <c r="G11" s="55"/>
-      <c r="H11" s="55"/>
+      <c r="B11" s="52"/>
+      <c r="C11" s="52"/>
+      <c r="D11" s="52"/>
+      <c r="E11" s="52"/>
+      <c r="F11" s="52"/>
+      <c r="G11" s="52"/>
+      <c r="H11" s="52"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="52" t="s">
+      <c r="A12" s="54" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="52"/>
+      <c r="B12" s="54"/>
       <c r="C12" s="10">
         <v>567702</v>
       </c>
@@ -12517,8 +12572,8 @@
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="52"/>
-      <c r="B13" s="52"/>
+      <c r="A13" s="54"/>
+      <c r="B13" s="54"/>
       <c r="C13" s="10">
         <v>560925</v>
       </c>
@@ -12539,8 +12594,8 @@
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="52"/>
-      <c r="B14" s="52"/>
+      <c r="A14" s="54"/>
+      <c r="B14" s="54"/>
       <c r="C14" s="11" t="s">
         <v>21</v>
       </c>
@@ -12561,10 +12616,10 @@
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="53" t="s">
+      <c r="A15" s="50" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="53"/>
+      <c r="B15" s="50"/>
       <c r="C15" s="12">
         <v>564314</v>
       </c>
@@ -12585,10 +12640,10 @@
       </c>
     </row>
     <row r="16" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="51" t="s">
+      <c r="A16" s="53" t="s">
         <v>62</v>
       </c>
-      <c r="B16" s="51"/>
+      <c r="B16" s="53"/>
       <c r="C16" s="27" t="s">
         <v>163</v>
       </c>
@@ -12609,22 +12664,22 @@
       </c>
     </row>
     <row r="20" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A20" s="55" t="s">
+      <c r="A20" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="B20" s="55"/>
-      <c r="C20" s="55"/>
-      <c r="D20" s="55"/>
-      <c r="E20" s="55"/>
-      <c r="F20" s="55"/>
-      <c r="G20" s="55"/>
-      <c r="H20" s="55"/>
+      <c r="B20" s="52"/>
+      <c r="C20" s="52"/>
+      <c r="D20" s="52"/>
+      <c r="E20" s="52"/>
+      <c r="F20" s="52"/>
+      <c r="G20" s="52"/>
+      <c r="H20" s="52"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="52" t="s">
+      <c r="A21" s="54" t="s">
         <v>13</v>
       </c>
-      <c r="B21" s="52"/>
+      <c r="B21" s="54"/>
       <c r="C21" s="10">
         <v>720899</v>
       </c>
@@ -12645,8 +12700,8 @@
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="52"/>
-      <c r="B22" s="52"/>
+      <c r="A22" s="54"/>
+      <c r="B22" s="54"/>
       <c r="C22" s="10">
         <v>643855</v>
       </c>
@@ -12667,8 +12722,8 @@
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="52"/>
-      <c r="B23" s="52"/>
+      <c r="A23" s="54"/>
+      <c r="B23" s="54"/>
       <c r="C23" s="10">
         <v>555836</v>
       </c>
@@ -12689,10 +12744,10 @@
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="53" t="s">
+      <c r="A24" s="50" t="s">
         <v>14</v>
       </c>
-      <c r="B24" s="53"/>
+      <c r="B24" s="50"/>
       <c r="C24" s="15">
         <v>640197</v>
       </c>
@@ -12713,10 +12768,10 @@
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="51" t="s">
+      <c r="A25" s="53" t="s">
         <v>62</v>
       </c>
-      <c r="B25" s="51"/>
+      <c r="B25" s="53"/>
       <c r="C25" s="28" t="s">
         <v>190</v>
       </c>
@@ -12747,22 +12802,22 @@
       <c r="H26" s="20"/>
     </row>
     <row r="28" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A28" s="55" t="s">
+      <c r="A28" s="52" t="s">
         <v>16</v>
       </c>
-      <c r="B28" s="55"/>
-      <c r="C28" s="55"/>
-      <c r="D28" s="55"/>
-      <c r="E28" s="55"/>
-      <c r="F28" s="55"/>
-      <c r="G28" s="55"/>
-      <c r="H28" s="55"/>
+      <c r="B28" s="52"/>
+      <c r="C28" s="52"/>
+      <c r="D28" s="52"/>
+      <c r="E28" s="52"/>
+      <c r="F28" s="52"/>
+      <c r="G28" s="52"/>
+      <c r="H28" s="52"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="52" t="s">
+      <c r="A29" s="54" t="s">
         <v>13</v>
       </c>
-      <c r="B29" s="52"/>
+      <c r="B29" s="54"/>
       <c r="C29" s="13">
         <v>699969</v>
       </c>
@@ -12783,8 +12838,8 @@
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="52"/>
-      <c r="B30" s="52"/>
+      <c r="A30" s="54"/>
+      <c r="B30" s="54"/>
       <c r="C30" s="13">
         <v>594785</v>
       </c>
@@ -12805,8 +12860,8 @@
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="52"/>
-      <c r="B31" s="52"/>
+      <c r="A31" s="54"/>
+      <c r="B31" s="54"/>
       <c r="C31" s="13">
         <v>595232</v>
       </c>
@@ -12827,10 +12882,10 @@
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="53" t="s">
+      <c r="A32" s="50" t="s">
         <v>14</v>
       </c>
-      <c r="B32" s="53"/>
+      <c r="B32" s="50"/>
       <c r="C32" s="15">
         <v>629995</v>
       </c>
@@ -12851,10 +12906,10 @@
       </c>
     </row>
     <row r="33" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="51" t="s">
+      <c r="A33" s="53" t="s">
         <v>62</v>
       </c>
-      <c r="B33" s="51"/>
+      <c r="B33" s="53"/>
       <c r="C33" s="27" t="s">
         <v>190</v>
       </c>
@@ -12895,22 +12950,22 @@
       </c>
     </row>
     <row r="37" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A37" s="55" t="s">
+      <c r="A37" s="52" t="s">
         <v>17</v>
       </c>
-      <c r="B37" s="55"/>
-      <c r="C37" s="55"/>
-      <c r="D37" s="55"/>
-      <c r="E37" s="55"/>
-      <c r="F37" s="55"/>
-      <c r="G37" s="55"/>
-      <c r="H37" s="55"/>
+      <c r="B37" s="52"/>
+      <c r="C37" s="52"/>
+      <c r="D37" s="52"/>
+      <c r="E37" s="52"/>
+      <c r="F37" s="52"/>
+      <c r="G37" s="52"/>
+      <c r="H37" s="52"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="52" t="s">
+      <c r="A38" s="54" t="s">
         <v>13</v>
       </c>
-      <c r="B38" s="52"/>
+      <c r="B38" s="54"/>
       <c r="C38" s="8"/>
       <c r="D38" s="11">
         <v>975783</v>
@@ -12925,8 +12980,8 @@
       <c r="H38" s="21"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="52"/>
-      <c r="B39" s="52"/>
+      <c r="A39" s="54"/>
+      <c r="B39" s="54"/>
       <c r="C39" s="8"/>
       <c r="D39" s="11">
         <v>945790</v>
@@ -12941,8 +12996,8 @@
       <c r="H39" s="21"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="52"/>
-      <c r="B40" s="52"/>
+      <c r="A40" s="54"/>
+      <c r="B40" s="54"/>
       <c r="C40" s="8"/>
       <c r="D40" s="11">
         <v>945829</v>
@@ -12957,10 +13012,10 @@
       <c r="H40" s="21"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="53" t="s">
+      <c r="A41" s="50" t="s">
         <v>14</v>
       </c>
-      <c r="B41" s="53"/>
+      <c r="B41" s="50"/>
       <c r="C41" s="9"/>
       <c r="D41" s="16">
         <v>955800</v>
@@ -12975,10 +13030,10 @@
       <c r="H41" s="22"/>
     </row>
     <row r="42" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A42" s="51" t="s">
+      <c r="A42" s="53" t="s">
         <v>62</v>
       </c>
-      <c r="B42" s="51"/>
+      <c r="B42" s="53"/>
       <c r="C42" s="24"/>
       <c r="D42" s="27">
         <v>955.8</v>
@@ -12993,10 +13048,10 @@
       <c r="H42" s="22"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" s="54" t="s">
+      <c r="A43" s="57" t="s">
         <v>18</v>
       </c>
-      <c r="B43" s="54"/>
+      <c r="B43" s="57"/>
       <c r="C43" s="8"/>
       <c r="D43" s="11" t="s">
         <v>63</v>
@@ -13011,8 +13066,8 @@
       <c r="H43" s="21"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" s="54"/>
-      <c r="B44" s="54"/>
+      <c r="A44" s="57"/>
+      <c r="B44" s="57"/>
       <c r="C44" s="8"/>
       <c r="D44" s="11" t="s">
         <v>63</v>
@@ -13027,8 +13082,8 @@
       <c r="H44" s="21"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" s="54"/>
-      <c r="B45" s="54"/>
+      <c r="A45" s="57"/>
+      <c r="B45" s="57"/>
       <c r="C45" s="8"/>
       <c r="D45" s="11" t="s">
         <v>63</v>
@@ -13043,10 +13098,10 @@
       <c r="H45" s="21"/>
     </row>
     <row r="46" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A46" s="51" t="s">
+      <c r="A46" s="53" t="s">
         <v>19</v>
       </c>
-      <c r="B46" s="51"/>
+      <c r="B46" s="53"/>
       <c r="C46" s="24"/>
       <c r="D46" s="27">
         <v>0.68</v>
@@ -13061,10 +13116,10 @@
       <c r="H46" s="29"/>
     </row>
     <row r="47" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="50" t="s">
+      <c r="A47" s="56" t="s">
         <v>64</v>
       </c>
-      <c r="B47" s="50"/>
+      <c r="B47" s="56"/>
       <c r="C47" s="8"/>
       <c r="D47" s="23" t="s">
         <v>68</v>
@@ -13099,22 +13154,22 @@
       </c>
     </row>
     <row r="51" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A51" s="55" t="s">
+      <c r="A51" s="52" t="s">
         <v>20</v>
       </c>
-      <c r="B51" s="55"/>
-      <c r="C51" s="55"/>
-      <c r="D51" s="55"/>
-      <c r="E51" s="55"/>
-      <c r="F51" s="55"/>
-      <c r="G51" s="55"/>
-      <c r="H51" s="55"/>
+      <c r="B51" s="52"/>
+      <c r="C51" s="52"/>
+      <c r="D51" s="52"/>
+      <c r="E51" s="52"/>
+      <c r="F51" s="52"/>
+      <c r="G51" s="52"/>
+      <c r="H51" s="52"/>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A52" s="52" t="s">
+      <c r="A52" s="54" t="s">
         <v>13</v>
       </c>
-      <c r="B52" s="52"/>
+      <c r="B52" s="54"/>
       <c r="C52" s="8"/>
       <c r="D52" s="2">
         <v>662783</v>
@@ -13133,8 +13188,8 @@
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A53" s="52"/>
-      <c r="B53" s="52"/>
+      <c r="A53" s="54"/>
+      <c r="B53" s="54"/>
       <c r="C53" s="8"/>
       <c r="D53" s="2">
         <v>734126</v>
@@ -13153,8 +13208,8 @@
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A54" s="52"/>
-      <c r="B54" s="52"/>
+      <c r="A54" s="54"/>
+      <c r="B54" s="54"/>
       <c r="C54" s="8"/>
       <c r="D54" s="2">
         <v>662782</v>
@@ -13173,10 +13228,10 @@
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A55" s="53" t="s">
+      <c r="A55" s="50" t="s">
         <v>14</v>
       </c>
-      <c r="B55" s="53"/>
+      <c r="B55" s="50"/>
       <c r="C55" s="9"/>
       <c r="D55" s="3">
         <v>686563</v>
@@ -13195,10 +13250,10 @@
       </c>
     </row>
     <row r="56" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A56" s="51" t="s">
+      <c r="A56" s="53" t="s">
         <v>62</v>
       </c>
-      <c r="B56" s="51"/>
+      <c r="B56" s="53"/>
       <c r="C56" s="24"/>
       <c r="D56" s="25">
         <v>686.6</v>
@@ -13217,10 +13272,10 @@
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A57" s="54" t="s">
+      <c r="A57" s="57" t="s">
         <v>18</v>
       </c>
-      <c r="B57" s="54"/>
+      <c r="B57" s="57"/>
       <c r="C57" s="8"/>
       <c r="D57" s="11" t="s">
         <v>65</v>
@@ -13239,8 +13294,8 @@
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A58" s="54"/>
-      <c r="B58" s="54"/>
+      <c r="A58" s="57"/>
+      <c r="B58" s="57"/>
       <c r="C58" s="8"/>
       <c r="D58" s="11" t="s">
         <v>66</v>
@@ -13259,8 +13314,8 @@
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A59" s="54"/>
-      <c r="B59" s="54"/>
+      <c r="A59" s="57"/>
+      <c r="B59" s="57"/>
       <c r="C59" s="8"/>
       <c r="D59" s="11" t="s">
         <v>65</v>
@@ -13279,10 +13334,10 @@
       </c>
     </row>
     <row r="60" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A60" s="51" t="s">
+      <c r="A60" s="53" t="s">
         <v>19</v>
       </c>
-      <c r="B60" s="51"/>
+      <c r="B60" s="53"/>
       <c r="C60" s="26"/>
       <c r="D60" s="25">
         <v>0.93</v>
@@ -13301,10 +13356,10 @@
       </c>
     </row>
     <row r="61" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="50" t="s">
+      <c r="A61" s="56" t="s">
         <v>64</v>
       </c>
-      <c r="B61" s="50"/>
+      <c r="B61" s="56"/>
       <c r="C61" s="8"/>
       <c r="D61" s="23" t="s">
         <v>70</v>
@@ -13324,18 +13379,6 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A11:H11"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A12:B14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A20:H20"/>
-    <mergeCell ref="A21:B23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A28:H28"/>
-    <mergeCell ref="A29:B31"/>
-    <mergeCell ref="G6:H9"/>
     <mergeCell ref="A61:B61"/>
     <mergeCell ref="A25:B25"/>
     <mergeCell ref="A33:B33"/>
@@ -13352,6 +13395,18 @@
     <mergeCell ref="A43:B45"/>
     <mergeCell ref="A46:B46"/>
     <mergeCell ref="A51:H51"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A11:H11"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A12:B14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A20:H20"/>
+    <mergeCell ref="A21:B23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A28:H28"/>
+    <mergeCell ref="A29:B31"/>
+    <mergeCell ref="G6:H9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -13379,11 +13434,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="51" t="s">
         <v>94</v>
       </c>
-      <c r="B1" s="56"/>
-      <c r="C1" s="56"/>
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C3" s="3" t="s">
@@ -13491,10 +13546,10 @@
       <c r="H11" s="34"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="52" t="s">
+      <c r="A12" s="54" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="52"/>
+      <c r="B12" s="54"/>
       <c r="C12" s="8"/>
       <c r="D12" s="11" t="s">
         <v>90</v>
@@ -13509,8 +13564,8 @@
       <c r="H12" s="21"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="52"/>
-      <c r="B13" s="52"/>
+      <c r="A13" s="54"/>
+      <c r="B13" s="54"/>
       <c r="C13" s="8"/>
       <c r="D13" s="11" t="s">
         <v>90</v>
@@ -13525,8 +13580,8 @@
       <c r="H13" s="21"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="52"/>
-      <c r="B14" s="52"/>
+      <c r="A14" s="54"/>
+      <c r="B14" s="54"/>
       <c r="C14" s="8"/>
       <c r="D14" s="11" t="s">
         <v>90</v>
@@ -13541,10 +13596,10 @@
       <c r="H14" s="21"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="53" t="s">
+      <c r="A15" s="50" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="53"/>
+      <c r="B15" s="50"/>
       <c r="C15" s="9"/>
       <c r="D15" s="11" t="s">
         <v>90</v>
@@ -13562,10 +13617,10 @@
       </c>
     </row>
     <row r="16" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="51" t="s">
+      <c r="A16" s="53" t="s">
         <v>62</v>
       </c>
-      <c r="B16" s="51"/>
+      <c r="B16" s="53"/>
       <c r="C16" s="24"/>
       <c r="D16" s="27" t="s">
         <v>91</v>
@@ -13583,10 +13638,10 @@
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="54" t="s">
+      <c r="A17" s="57" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="54"/>
+      <c r="B17" s="57"/>
       <c r="C17" s="8"/>
       <c r="D17" s="13">
         <v>12461</v>
@@ -13601,8 +13656,8 @@
       <c r="H17" s="21"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="54"/>
-      <c r="B18" s="54"/>
+      <c r="A18" s="57"/>
+      <c r="B18" s="57"/>
       <c r="C18" s="8"/>
       <c r="D18" s="13">
         <v>12461</v>
@@ -13617,8 +13672,8 @@
       <c r="H18" s="21"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="54"/>
-      <c r="B19" s="54"/>
+      <c r="A19" s="57"/>
+      <c r="B19" s="57"/>
       <c r="C19" s="8"/>
       <c r="D19" s="13">
         <v>12461</v>
@@ -13633,10 +13688,10 @@
       <c r="H19" s="21"/>
     </row>
     <row r="20" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="51" t="s">
+      <c r="A20" s="53" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="51"/>
+      <c r="B20" s="53"/>
       <c r="C20" s="24"/>
       <c r="D20" s="27">
         <v>12.46</v>
@@ -13651,10 +13706,10 @@
       <c r="H20" s="29"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="50" t="s">
+      <c r="A21" s="56" t="s">
         <v>64</v>
       </c>
-      <c r="B21" s="50"/>
+      <c r="B21" s="56"/>
       <c r="C21" s="8"/>
       <c r="D21" s="23"/>
       <c r="E21" s="23"/>
@@ -13683,22 +13738,22 @@
       </c>
     </row>
     <row r="25" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A25" s="55" t="s">
+      <c r="A25" s="52" t="s">
         <v>20</v>
       </c>
-      <c r="B25" s="55"/>
-      <c r="C25" s="55"/>
-      <c r="D25" s="55"/>
-      <c r="E25" s="55"/>
-      <c r="F25" s="55"/>
-      <c r="G25" s="55"/>
-      <c r="H25" s="55"/>
+      <c r="B25" s="52"/>
+      <c r="C25" s="52"/>
+      <c r="D25" s="52"/>
+      <c r="E25" s="52"/>
+      <c r="F25" s="52"/>
+      <c r="G25" s="52"/>
+      <c r="H25" s="52"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" s="52" t="s">
+      <c r="A26" s="54" t="s">
         <v>13</v>
       </c>
-      <c r="B26" s="52"/>
+      <c r="B26" s="54"/>
       <c r="C26" s="8"/>
       <c r="D26" s="11" t="s">
         <v>97</v>
@@ -13720,8 +13775,8 @@
       <c r="K26" s="35"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" s="52"/>
-      <c r="B27" s="52"/>
+      <c r="A27" s="54"/>
+      <c r="B27" s="54"/>
       <c r="C27" s="8"/>
       <c r="D27" s="11" t="s">
         <v>97</v>
@@ -13743,8 +13798,8 @@
       <c r="K27" s="35"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" s="52"/>
-      <c r="B28" s="52"/>
+      <c r="A28" s="54"/>
+      <c r="B28" s="54"/>
       <c r="C28" s="8"/>
       <c r="D28" s="11" t="s">
         <v>97</v>
@@ -13766,10 +13821,10 @@
       <c r="K28" s="35"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" s="53" t="s">
+      <c r="A29" s="50" t="s">
         <v>14</v>
       </c>
-      <c r="B29" s="53"/>
+      <c r="B29" s="50"/>
       <c r="C29" s="9"/>
       <c r="D29" s="11" t="s">
         <v>97</v>
@@ -13789,10 +13844,10 @@
       <c r="K29" s="35"/>
     </row>
     <row r="30" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="51" t="s">
+      <c r="A30" s="53" t="s">
         <v>62</v>
       </c>
-      <c r="B30" s="51"/>
+      <c r="B30" s="53"/>
       <c r="C30" s="24"/>
       <c r="D30" s="27" t="s">
         <v>98</v>
@@ -13812,10 +13867,10 @@
       <c r="K30" s="35"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A31" s="54" t="s">
+      <c r="A31" s="57" t="s">
         <v>18</v>
       </c>
-      <c r="B31" s="54"/>
+      <c r="B31" s="57"/>
       <c r="C31" s="8"/>
       <c r="D31" s="13">
         <v>17322</v>
@@ -13835,8 +13890,8 @@
       <c r="K31" s="35"/>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A32" s="54"/>
-      <c r="B32" s="54"/>
+      <c r="A32" s="57"/>
+      <c r="B32" s="57"/>
       <c r="C32" s="8"/>
       <c r="D32" s="13">
         <v>17322</v>
@@ -13858,8 +13913,8 @@
       <c r="K32" s="35"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="54"/>
-      <c r="B33" s="54"/>
+      <c r="A33" s="57"/>
+      <c r="B33" s="57"/>
       <c r="C33" s="8"/>
       <c r="D33" s="13">
         <v>17322</v>
@@ -13879,10 +13934,10 @@
       </c>
     </row>
     <row r="34" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="51" t="s">
+      <c r="A34" s="53" t="s">
         <v>19</v>
       </c>
-      <c r="B34" s="51"/>
+      <c r="B34" s="53"/>
       <c r="C34" s="26"/>
       <c r="D34" s="27">
         <v>17.32</v>
@@ -13902,10 +13957,10 @@
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" s="50" t="s">
+      <c r="A35" s="56" t="s">
         <v>64</v>
       </c>
-      <c r="B35" s="50"/>
+      <c r="B35" s="56"/>
       <c r="C35" s="8"/>
       <c r="D35" s="23"/>
       <c r="E35" s="23"/>
@@ -14002,22 +14057,22 @@
       </c>
     </row>
     <row r="9" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="65" t="s">
+      <c r="A9" s="59" t="s">
         <v>115</v>
       </c>
-      <c r="B9" s="65"/>
-      <c r="C9" s="65"/>
-      <c r="D9" s="65"/>
-      <c r="E9" s="65"/>
-      <c r="F9" s="65"/>
-      <c r="J9" s="65" t="s">
+      <c r="B9" s="59"/>
+      <c r="C9" s="59"/>
+      <c r="D9" s="59"/>
+      <c r="E9" s="59"/>
+      <c r="F9" s="59"/>
+      <c r="J9" s="59" t="s">
         <v>116</v>
       </c>
-      <c r="K9" s="65"/>
-      <c r="L9" s="65"/>
-      <c r="M9" s="65"/>
-      <c r="N9" s="65"/>
-      <c r="O9" s="65"/>
+      <c r="K9" s="59"/>
+      <c r="L9" s="59"/>
+      <c r="M9" s="59"/>
+      <c r="N9" s="59"/>
+      <c r="O9" s="59"/>
       <c r="P9" s="40"/>
       <c r="Q9" s="40"/>
     </row>
@@ -14065,14 +14120,14 @@
       <c r="B39" s="38"/>
       <c r="C39" s="38"/>
       <c r="D39" s="38"/>
-      <c r="E39" s="51" t="s">
+      <c r="E39" s="53" t="s">
         <v>62</v>
       </c>
-      <c r="F39" s="51"/>
-      <c r="G39" s="51" t="s">
+      <c r="F39" s="53"/>
+      <c r="G39" s="53" t="s">
         <v>19</v>
       </c>
-      <c r="H39" s="51"/>
+      <c r="H39" s="53"/>
       <c r="I39" s="35"/>
     </row>
     <row r="40" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -14095,12 +14150,12 @@
       <c r="I40" s="44"/>
     </row>
     <row r="41" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A41" s="59" t="s">
+      <c r="A41" s="60" t="s">
         <v>121</v>
       </c>
-      <c r="B41" s="59"/>
-      <c r="C41" s="59"/>
-      <c r="D41" s="59"/>
+      <c r="B41" s="60"/>
+      <c r="C41" s="60"/>
+      <c r="D41" s="60"/>
       <c r="E41" s="42">
         <v>955.8</v>
       </c>
@@ -14115,12 +14170,12 @@
       </c>
     </row>
     <row r="42" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A42" s="59" t="s">
+      <c r="A42" s="60" t="s">
         <v>120</v>
       </c>
-      <c r="B42" s="59"/>
-      <c r="C42" s="59"/>
-      <c r="D42" s="59"/>
+      <c r="B42" s="60"/>
+      <c r="C42" s="60"/>
+      <c r="D42" s="60"/>
       <c r="E42" s="42">
         <v>475</v>
       </c>
@@ -14135,12 +14190,12 @@
       </c>
     </row>
     <row r="43" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A43" s="59" t="s">
+      <c r="A43" s="60" t="s">
         <v>119</v>
       </c>
-      <c r="B43" s="59"/>
-      <c r="C43" s="59"/>
-      <c r="D43" s="59"/>
+      <c r="B43" s="60"/>
+      <c r="C43" s="60"/>
+      <c r="D43" s="60"/>
       <c r="E43" s="42">
         <v>447.7</v>
       </c>
@@ -14155,12 +14210,12 @@
       </c>
     </row>
     <row r="44" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A44" s="59" t="s">
+      <c r="A44" s="60" t="s">
         <v>122</v>
       </c>
-      <c r="B44" s="59"/>
-      <c r="C44" s="59"/>
-      <c r="D44" s="59"/>
+      <c r="B44" s="60"/>
+      <c r="C44" s="60"/>
+      <c r="D44" s="60"/>
       <c r="E44" s="42">
         <v>686.6</v>
       </c>
@@ -14299,11 +14354,11 @@
       <c r="F105" s="38"/>
       <c r="G105" s="38"/>
       <c r="H105" s="38"/>
-      <c r="I105" s="51" t="s">
+      <c r="I105" s="53" t="s">
         <v>62</v>
       </c>
-      <c r="J105" s="51"/>
-      <c r="K105" s="51"/>
+      <c r="J105" s="53"/>
+      <c r="K105" s="53"/>
       <c r="L105" s="47"/>
     </row>
     <row r="106" spans="5:12" ht="63" x14ac:dyDescent="0.25">
@@ -14323,12 +14378,12 @@
       <c r="L106" s="48"/>
     </row>
     <row r="107" spans="5:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E107" s="59" t="s">
+      <c r="E107" s="60" t="s">
         <v>132</v>
       </c>
-      <c r="F107" s="59"/>
-      <c r="G107" s="59"/>
-      <c r="H107" s="59"/>
+      <c r="F107" s="60"/>
+      <c r="G107" s="60"/>
+      <c r="H107" s="60"/>
       <c r="I107" s="42">
         <v>0.6</v>
       </c>
@@ -14341,12 +14396,12 @@
       <c r="L107" s="49"/>
     </row>
     <row r="108" spans="5:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E108" s="59" t="s">
+      <c r="E108" s="60" t="s">
         <v>8</v>
       </c>
-      <c r="F108" s="59"/>
-      <c r="G108" s="59"/>
-      <c r="H108" s="59"/>
+      <c r="F108" s="60"/>
+      <c r="G108" s="60"/>
+      <c r="H108" s="60"/>
       <c r="I108" s="42">
         <v>6.3</v>
       </c>
@@ -14359,12 +14414,12 @@
       <c r="L108" s="46"/>
     </row>
     <row r="109" spans="5:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E109" s="59" t="s">
+      <c r="E109" s="60" t="s">
         <v>9</v>
       </c>
-      <c r="F109" s="59"/>
-      <c r="G109" s="59"/>
-      <c r="H109" s="59"/>
+      <c r="F109" s="60"/>
+      <c r="G109" s="60"/>
+      <c r="H109" s="60"/>
       <c r="I109" s="42">
         <v>7.6</v>
       </c>
@@ -14377,12 +14432,12 @@
       <c r="L109" s="46"/>
     </row>
     <row r="110" spans="5:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E110" s="59" t="s">
+      <c r="E110" s="60" t="s">
         <v>10</v>
       </c>
-      <c r="F110" s="59"/>
-      <c r="G110" s="59"/>
-      <c r="H110" s="59"/>
+      <c r="F110" s="60"/>
+      <c r="G110" s="60"/>
+      <c r="H110" s="60"/>
       <c r="I110" s="42">
         <v>8.5</v>
       </c>
@@ -14395,12 +14450,12 @@
       <c r="L110" s="46"/>
     </row>
     <row r="111" spans="5:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E111" s="59" t="s">
+      <c r="E111" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="F111" s="59"/>
-      <c r="G111" s="59"/>
-      <c r="H111" s="59"/>
+      <c r="F111" s="60"/>
+      <c r="G111" s="60"/>
+      <c r="H111" s="60"/>
       <c r="I111" s="42">
         <v>4</v>
       </c>
@@ -14413,12 +14468,12 @@
       <c r="L111" s="46"/>
     </row>
     <row r="112" spans="5:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E112" s="59" t="s">
+      <c r="E112" s="60" t="s">
         <v>12</v>
       </c>
-      <c r="F112" s="59"/>
-      <c r="G112" s="59"/>
-      <c r="H112" s="59"/>
+      <c r="F112" s="60"/>
+      <c r="G112" s="60"/>
+      <c r="H112" s="60"/>
       <c r="I112" s="42">
         <v>7.3</v>
       </c>
@@ -14429,20 +14484,20 @@
       <c r="L112" s="46"/>
     </row>
     <row r="113" spans="5:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E113" s="60"/>
-      <c r="F113" s="60"/>
-      <c r="G113" s="60"/>
-      <c r="H113" s="60"/>
+      <c r="E113" s="65"/>
+      <c r="F113" s="65"/>
+      <c r="G113" s="65"/>
+      <c r="H113" s="65"/>
       <c r="I113" s="46"/>
       <c r="J113" s="46"/>
       <c r="K113" s="46"/>
       <c r="L113" s="46"/>
     </row>
     <row r="114" spans="5:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E114" s="60"/>
-      <c r="F114" s="60"/>
-      <c r="G114" s="60"/>
-      <c r="H114" s="60"/>
+      <c r="E114" s="65"/>
+      <c r="F114" s="65"/>
+      <c r="G114" s="65"/>
+      <c r="H114" s="65"/>
       <c r="I114" s="46"/>
       <c r="J114" s="46"/>
       <c r="K114" s="46"/>
@@ -14450,21 +14505,6 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="A9:F9"/>
-    <mergeCell ref="J9:O9"/>
-    <mergeCell ref="A41:D41"/>
-    <mergeCell ref="A42:D42"/>
-    <mergeCell ref="A43:D43"/>
-    <mergeCell ref="A44:D44"/>
-    <mergeCell ref="A11:Q11"/>
-    <mergeCell ref="E39:F39"/>
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="A48:D48"/>
-    <mergeCell ref="A62:Q62"/>
-    <mergeCell ref="A45:D45"/>
-    <mergeCell ref="A46:D46"/>
-    <mergeCell ref="A47:D47"/>
-    <mergeCell ref="E111:H111"/>
     <mergeCell ref="E112:H112"/>
     <mergeCell ref="E113:H113"/>
     <mergeCell ref="E114:H114"/>
@@ -14473,6 +14513,21 @@
     <mergeCell ref="E108:H108"/>
     <mergeCell ref="E109:H109"/>
     <mergeCell ref="E110:H110"/>
+    <mergeCell ref="A62:Q62"/>
+    <mergeCell ref="A45:D45"/>
+    <mergeCell ref="A46:D46"/>
+    <mergeCell ref="A47:D47"/>
+    <mergeCell ref="E111:H111"/>
+    <mergeCell ref="A44:D44"/>
+    <mergeCell ref="A11:Q11"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="A48:D48"/>
+    <mergeCell ref="A9:F9"/>
+    <mergeCell ref="J9:O9"/>
+    <mergeCell ref="A41:D41"/>
+    <mergeCell ref="A42:D42"/>
+    <mergeCell ref="A43:D43"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -14501,11 +14556,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="51" t="s">
         <v>140</v>
       </c>
-      <c r="B1" s="56"/>
-      <c r="C1" s="56"/>
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C3" s="3" t="s">
@@ -14613,10 +14668,10 @@
       <c r="H11" s="34"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="52" t="s">
+      <c r="A12" s="54" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="52"/>
+      <c r="B12" s="54"/>
       <c r="C12" s="8"/>
       <c r="D12" s="11" t="s">
         <v>150</v>
@@ -14631,8 +14686,8 @@
       <c r="H12" s="21"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="52"/>
-      <c r="B13" s="52"/>
+      <c r="A13" s="54"/>
+      <c r="B13" s="54"/>
       <c r="C13" s="8"/>
       <c r="D13" s="11" t="s">
         <v>150</v>
@@ -14647,8 +14702,8 @@
       <c r="H13" s="21"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="52"/>
-      <c r="B14" s="52"/>
+      <c r="A14" s="54"/>
+      <c r="B14" s="54"/>
       <c r="C14" s="8"/>
       <c r="D14" s="11" t="s">
         <v>150</v>
@@ -14663,10 +14718,10 @@
       <c r="H14" s="21"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="53" t="s">
+      <c r="A15" s="50" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="53"/>
+      <c r="B15" s="50"/>
       <c r="C15" s="9"/>
       <c r="D15" s="11" t="s">
         <v>150</v>
@@ -14682,10 +14737,10 @@
       <c r="I15" s="35"/>
     </row>
     <row r="16" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="51" t="s">
+      <c r="A16" s="53" t="s">
         <v>62</v>
       </c>
-      <c r="B16" s="51"/>
+      <c r="B16" s="53"/>
       <c r="C16" s="24"/>
       <c r="D16" s="27" t="s">
         <v>152</v>
@@ -14703,10 +14758,10 @@
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="54" t="s">
+      <c r="A17" s="57" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="54"/>
+      <c r="B17" s="57"/>
       <c r="C17" s="8"/>
       <c r="D17" s="13">
         <v>12166</v>
@@ -14724,8 +14779,8 @@
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="54"/>
-      <c r="B18" s="54"/>
+      <c r="A18" s="57"/>
+      <c r="B18" s="57"/>
       <c r="C18" s="8"/>
       <c r="D18" s="13">
         <v>12166</v>
@@ -14743,8 +14798,8 @@
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="54"/>
-      <c r="B19" s="54"/>
+      <c r="A19" s="57"/>
+      <c r="B19" s="57"/>
       <c r="C19" s="8"/>
       <c r="D19" s="13">
         <v>12166</v>
@@ -14762,10 +14817,10 @@
       </c>
     </row>
     <row r="20" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="51" t="s">
+      <c r="A20" s="53" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="51"/>
+      <c r="B20" s="53"/>
       <c r="C20" s="24"/>
       <c r="D20" s="27">
         <v>12.17</v>
@@ -14783,10 +14838,10 @@
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="50" t="s">
+      <c r="A21" s="56" t="s">
         <v>151</v>
       </c>
-      <c r="B21" s="50"/>
+      <c r="B21" s="56"/>
       <c r="C21" s="8"/>
       <c r="D21" s="23"/>
       <c r="E21" s="23"/>
@@ -14815,22 +14870,22 @@
       </c>
     </row>
     <row r="25" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A25" s="55" t="s">
+      <c r="A25" s="52" t="s">
         <v>20</v>
       </c>
-      <c r="B25" s="55"/>
-      <c r="C25" s="55"/>
-      <c r="D25" s="55"/>
-      <c r="E25" s="55"/>
-      <c r="F25" s="55"/>
-      <c r="G25" s="55"/>
-      <c r="H25" s="55"/>
+      <c r="B25" s="52"/>
+      <c r="C25" s="52"/>
+      <c r="D25" s="52"/>
+      <c r="E25" s="52"/>
+      <c r="F25" s="52"/>
+      <c r="G25" s="52"/>
+      <c r="H25" s="52"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" s="52" t="s">
+      <c r="A26" s="54" t="s">
         <v>13</v>
       </c>
-      <c r="B26" s="52"/>
+      <c r="B26" s="54"/>
       <c r="C26" s="8"/>
       <c r="D26" s="11" t="s">
         <v>156</v>
@@ -14850,8 +14905,8 @@
       <c r="K26" s="35"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" s="52"/>
-      <c r="B27" s="52"/>
+      <c r="A27" s="54"/>
+      <c r="B27" s="54"/>
       <c r="C27" s="8"/>
       <c r="D27" s="11" t="s">
         <v>156</v>
@@ -14869,8 +14924,8 @@
       <c r="K27" s="35"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" s="52"/>
-      <c r="B28" s="52"/>
+      <c r="A28" s="54"/>
+      <c r="B28" s="54"/>
       <c r="C28" s="8"/>
       <c r="D28" s="11" t="s">
         <v>156</v>
@@ -14888,10 +14943,10 @@
       <c r="K28" s="35"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" s="53" t="s">
+      <c r="A29" s="50" t="s">
         <v>14</v>
       </c>
-      <c r="B29" s="53"/>
+      <c r="B29" s="50"/>
       <c r="C29" s="9"/>
       <c r="D29" s="11" t="s">
         <v>156</v>
@@ -14911,10 +14966,10 @@
       <c r="K29" s="35"/>
     </row>
     <row r="30" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="51" t="s">
+      <c r="A30" s="53" t="s">
         <v>62</v>
       </c>
-      <c r="B30" s="51"/>
+      <c r="B30" s="53"/>
       <c r="C30" s="24"/>
       <c r="D30" s="27" t="s">
         <v>157</v>
@@ -14934,10 +14989,10 @@
       <c r="K30" s="35"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A31" s="54" t="s">
+      <c r="A31" s="57" t="s">
         <v>18</v>
       </c>
-      <c r="B31" s="54"/>
+      <c r="B31" s="57"/>
       <c r="C31" s="8"/>
       <c r="D31" s="13">
         <v>11578</v>
@@ -14957,8 +15012,8 @@
       <c r="K31" s="35"/>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A32" s="54"/>
-      <c r="B32" s="54"/>
+      <c r="A32" s="57"/>
+      <c r="B32" s="57"/>
       <c r="C32" s="8"/>
       <c r="D32" s="13">
         <v>11578</v>
@@ -14978,8 +15033,8 @@
       <c r="K32" s="35"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="54"/>
-      <c r="B33" s="54"/>
+      <c r="A33" s="57"/>
+      <c r="B33" s="57"/>
       <c r="C33" s="8"/>
       <c r="D33" s="13">
         <v>11578</v>
@@ -14997,10 +15052,10 @@
       </c>
     </row>
     <row r="34" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="51" t="s">
+      <c r="A34" s="53" t="s">
         <v>19</v>
       </c>
-      <c r="B34" s="51"/>
+      <c r="B34" s="53"/>
       <c r="C34" s="26"/>
       <c r="D34" s="27">
         <v>11.58</v>
@@ -15016,10 +15071,10 @@
       <c r="I34" s="35"/>
     </row>
     <row r="35" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="50" t="s">
+      <c r="A35" s="56" t="s">
         <v>151</v>
       </c>
-      <c r="B35" s="50"/>
+      <c r="B35" s="56"/>
       <c r="C35" s="8"/>
       <c r="D35" s="23" t="s">
         <v>155</v>
@@ -15033,6 +15088,12 @@
     <row r="60" ht="29.25" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="A17:B19"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="G5:H8"/>
+    <mergeCell ref="A12:B14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A16:B16"/>
     <mergeCell ref="A31:B33"/>
     <mergeCell ref="A34:B34"/>
     <mergeCell ref="A35:B35"/>
@@ -15043,12 +15104,6 @@
     <mergeCell ref="A26:B28"/>
     <mergeCell ref="A29:B29"/>
     <mergeCell ref="A30:B30"/>
-    <mergeCell ref="A17:B19"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="G5:H8"/>
-    <mergeCell ref="A12:B14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -15059,8 +15114,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB2B4029-73E7-4913-B07E-003BD9BD8C9C}">
   <dimension ref="A1:K62"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H33" sqref="H33"/>
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H62" sqref="H62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15075,11 +15130,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="51" t="s">
         <v>160</v>
       </c>
-      <c r="B1" s="56"/>
-      <c r="C1" s="56"/>
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C3" s="3" t="s">
@@ -15124,22 +15179,22 @@
       <c r="D6" s="4">
         <v>179</v>
       </c>
-      <c r="G6" s="57" t="s">
+      <c r="G6" s="55" t="s">
         <v>162</v>
       </c>
-      <c r="H6" s="57"/>
+      <c r="H6" s="55"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F7" s="35" t="s">
         <v>87</v>
       </c>
-      <c r="G7" s="57"/>
-      <c r="H7" s="57"/>
+      <c r="G7" s="55"/>
+      <c r="H7" s="55"/>
       <c r="I7" s="35"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="G8" s="57"/>
-      <c r="H8" s="57"/>
+      <c r="G8" s="55"/>
+      <c r="H8" s="55"/>
       <c r="I8" s="35"/>
     </row>
     <row r="9" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
@@ -15150,8 +15205,8 @@
       <c r="C9" s="6"/>
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
-      <c r="G9" s="57"/>
-      <c r="H9" s="57"/>
+      <c r="G9" s="55"/>
+      <c r="H9" s="55"/>
     </row>
     <row r="10" spans="1:11" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C10" s="7" t="s">
@@ -15174,27 +15229,27 @@
       </c>
     </row>
     <row r="11" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A11" s="55" t="s">
+      <c r="A11" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="B11" s="55"/>
-      <c r="C11" s="55"/>
-      <c r="D11" s="55"/>
-      <c r="E11" s="55"/>
-      <c r="F11" s="55"/>
-      <c r="G11" s="55"/>
-      <c r="H11" s="55"/>
-      <c r="I11" s="69" t="s">
+      <c r="B11" s="52"/>
+      <c r="C11" s="52"/>
+      <c r="D11" s="52"/>
+      <c r="E11" s="52"/>
+      <c r="F11" s="52"/>
+      <c r="G11" s="52"/>
+      <c r="H11" s="52"/>
+      <c r="I11" s="71" t="s">
         <v>169</v>
       </c>
-      <c r="J11" s="70"/>
-      <c r="K11" s="70"/>
+      <c r="J11" s="72"/>
+      <c r="K11" s="72"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="52" t="s">
+      <c r="A12" s="54" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="52"/>
+      <c r="B12" s="54"/>
       <c r="C12" s="10">
         <v>561206</v>
       </c>
@@ -15213,13 +15268,13 @@
       <c r="H12" s="10">
         <v>724775</v>
       </c>
-      <c r="I12" s="69"/>
-      <c r="J12" s="70"/>
-      <c r="K12" s="70"/>
+      <c r="I12" s="71"/>
+      <c r="J12" s="72"/>
+      <c r="K12" s="72"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="52"/>
-      <c r="B13" s="52"/>
+      <c r="A13" s="54"/>
+      <c r="B13" s="54"/>
       <c r="C13" s="10">
         <v>560348</v>
       </c>
@@ -15238,13 +15293,13 @@
       <c r="H13" s="10">
         <v>727716</v>
       </c>
-      <c r="I13" s="69"/>
-      <c r="J13" s="70"/>
-      <c r="K13" s="70"/>
+      <c r="I13" s="71"/>
+      <c r="J13" s="72"/>
+      <c r="K13" s="72"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="52"/>
-      <c r="B14" s="52"/>
+      <c r="A14" s="54"/>
+      <c r="B14" s="54"/>
       <c r="C14" s="13">
         <v>553310</v>
       </c>
@@ -15263,15 +15318,15 @@
       <c r="H14" s="10">
         <v>727869</v>
       </c>
-      <c r="I14" s="69"/>
-      <c r="J14" s="70"/>
-      <c r="K14" s="70"/>
+      <c r="I14" s="71"/>
+      <c r="J14" s="72"/>
+      <c r="K14" s="72"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="53" t="s">
+      <c r="A15" s="50" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="53"/>
+      <c r="B15" s="50"/>
       <c r="C15" s="12">
         <v>558288</v>
       </c>
@@ -15290,15 +15345,15 @@
       <c r="H15" s="12">
         <v>726787</v>
       </c>
-      <c r="I15" s="69"/>
-      <c r="J15" s="70"/>
-      <c r="K15" s="70"/>
+      <c r="I15" s="71"/>
+      <c r="J15" s="72"/>
+      <c r="K15" s="72"/>
     </row>
     <row r="16" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="51" t="s">
+      <c r="A16" s="53" t="s">
         <v>62</v>
       </c>
-      <c r="B16" s="51"/>
+      <c r="B16" s="53"/>
       <c r="C16" s="27" t="s">
         <v>163</v>
       </c>
@@ -15317,27 +15372,27 @@
       <c r="H16" s="27" t="s">
         <v>168</v>
       </c>
-      <c r="I16" s="69"/>
-      <c r="J16" s="70"/>
-      <c r="K16" s="70"/>
+      <c r="I16" s="71"/>
+      <c r="J16" s="72"/>
+      <c r="K16" s="72"/>
     </row>
     <row r="20" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A20" s="55" t="s">
+      <c r="A20" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="B20" s="55"/>
-      <c r="C20" s="55"/>
-      <c r="D20" s="55"/>
-      <c r="E20" s="55"/>
-      <c r="F20" s="55"/>
-      <c r="G20" s="55"/>
-      <c r="H20" s="55"/>
+      <c r="B20" s="52"/>
+      <c r="C20" s="52"/>
+      <c r="D20" s="52"/>
+      <c r="E20" s="52"/>
+      <c r="F20" s="52"/>
+      <c r="G20" s="52"/>
+      <c r="H20" s="52"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="52" t="s">
+      <c r="A21" s="54" t="s">
         <v>13</v>
       </c>
-      <c r="B21" s="52"/>
+      <c r="B21" s="54"/>
       <c r="C21" s="10">
         <v>508707</v>
       </c>
@@ -15358,8 +15413,8 @@
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="52"/>
-      <c r="B22" s="52"/>
+      <c r="A22" s="54"/>
+      <c r="B22" s="54"/>
       <c r="C22" s="10">
         <v>516344</v>
       </c>
@@ -15380,8 +15435,8 @@
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="52"/>
-      <c r="B23" s="52"/>
+      <c r="A23" s="54"/>
+      <c r="B23" s="54"/>
       <c r="C23" s="10">
         <v>509207</v>
       </c>
@@ -15402,10 +15457,10 @@
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="53" t="s">
+      <c r="A24" s="50" t="s">
         <v>14</v>
       </c>
-      <c r="B24" s="53"/>
+      <c r="B24" s="50"/>
       <c r="C24" s="15">
         <v>511419</v>
       </c>
@@ -15426,10 +15481,10 @@
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="51" t="s">
+      <c r="A25" s="53" t="s">
         <v>62</v>
       </c>
-      <c r="B25" s="51"/>
+      <c r="B25" s="53"/>
       <c r="C25" s="28" t="s">
         <v>211</v>
       </c>
@@ -15460,22 +15515,22 @@
       <c r="H26" s="20"/>
     </row>
     <row r="28" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A28" s="55" t="s">
+      <c r="A28" s="52" t="s">
         <v>16</v>
       </c>
-      <c r="B28" s="55"/>
-      <c r="C28" s="55"/>
-      <c r="D28" s="55"/>
-      <c r="E28" s="55"/>
-      <c r="F28" s="55"/>
-      <c r="G28" s="55"/>
-      <c r="H28" s="55"/>
+      <c r="B28" s="52"/>
+      <c r="C28" s="52"/>
+      <c r="D28" s="52"/>
+      <c r="E28" s="52"/>
+      <c r="F28" s="52"/>
+      <c r="G28" s="52"/>
+      <c r="H28" s="52"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="52" t="s">
+      <c r="A29" s="54" t="s">
         <v>13</v>
       </c>
-      <c r="B29" s="52"/>
+      <c r="B29" s="54"/>
       <c r="C29" s="13">
         <v>533882</v>
       </c>
@@ -15496,8 +15551,8 @@
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="52"/>
-      <c r="B30" s="52"/>
+      <c r="A30" s="54"/>
+      <c r="B30" s="54"/>
       <c r="C30" s="13">
         <v>538718</v>
       </c>
@@ -15518,8 +15573,8 @@
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="52"/>
-      <c r="B31" s="52"/>
+      <c r="A31" s="54"/>
+      <c r="B31" s="54"/>
       <c r="C31" s="13">
         <v>533202</v>
       </c>
@@ -15540,10 +15595,10 @@
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="53" t="s">
+      <c r="A32" s="50" t="s">
         <v>14</v>
       </c>
-      <c r="B32" s="53"/>
+      <c r="B32" s="50"/>
       <c r="C32" s="15">
         <v>535267</v>
       </c>
@@ -15564,10 +15619,10 @@
       </c>
     </row>
     <row r="33" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="51" t="s">
+      <c r="A33" s="53" t="s">
         <v>62</v>
       </c>
-      <c r="B33" s="51"/>
+      <c r="B33" s="53"/>
       <c r="C33" s="27" t="s">
         <v>232</v>
       </c>
@@ -15608,22 +15663,22 @@
       </c>
     </row>
     <row r="37" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A37" s="55" t="s">
+      <c r="A37" s="52" t="s">
         <v>17</v>
       </c>
-      <c r="B37" s="55"/>
-      <c r="C37" s="55"/>
-      <c r="D37" s="55"/>
-      <c r="E37" s="55"/>
-      <c r="F37" s="55"/>
-      <c r="G37" s="55"/>
-      <c r="H37" s="55"/>
+      <c r="B37" s="52"/>
+      <c r="C37" s="52"/>
+      <c r="D37" s="52"/>
+      <c r="E37" s="52"/>
+      <c r="F37" s="52"/>
+      <c r="G37" s="52"/>
+      <c r="H37" s="52"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="52" t="s">
+      <c r="A38" s="54" t="s">
         <v>13</v>
       </c>
-      <c r="B38" s="52"/>
+      <c r="B38" s="54"/>
       <c r="C38" s="8"/>
       <c r="D38" s="11">
         <v>48572</v>
@@ -15638,8 +15693,8 @@
       <c r="H38" s="21"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="52"/>
-      <c r="B39" s="52"/>
+      <c r="A39" s="54"/>
+      <c r="B39" s="54"/>
       <c r="C39" s="8"/>
       <c r="D39" s="11">
         <v>48572</v>
@@ -15654,8 +15709,8 @@
       <c r="H39" s="21"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="52"/>
-      <c r="B40" s="52"/>
+      <c r="A40" s="54"/>
+      <c r="B40" s="54"/>
       <c r="C40" s="8"/>
       <c r="D40" s="11">
         <v>48572</v>
@@ -15670,10 +15725,10 @@
       <c r="H40" s="21"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="53" t="s">
+      <c r="A41" s="50" t="s">
         <v>14</v>
       </c>
-      <c r="B41" s="53"/>
+      <c r="B41" s="50"/>
       <c r="C41" s="9"/>
       <c r="D41" s="16">
         <v>48572</v>
@@ -15688,10 +15743,10 @@
       <c r="H41" s="22"/>
     </row>
     <row r="42" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A42" s="51" t="s">
+      <c r="A42" s="53" t="s">
         <v>62</v>
       </c>
-      <c r="B42" s="51"/>
+      <c r="B42" s="53"/>
       <c r="C42" s="24"/>
       <c r="D42" s="27" t="s">
         <v>174</v>
@@ -15706,10 +15761,10 @@
       <c r="H42" s="22"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" s="54" t="s">
+      <c r="A43" s="57" t="s">
         <v>18</v>
       </c>
-      <c r="B43" s="54"/>
+      <c r="B43" s="57"/>
       <c r="C43" s="8"/>
       <c r="D43" s="13">
         <v>13176</v>
@@ -15724,8 +15779,8 @@
       <c r="H43" s="21"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" s="54"/>
-      <c r="B44" s="54"/>
+      <c r="A44" s="57"/>
+      <c r="B44" s="57"/>
       <c r="C44" s="8"/>
       <c r="D44" s="13">
         <v>13176</v>
@@ -15740,8 +15795,8 @@
       <c r="H44" s="21"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" s="54"/>
-      <c r="B45" s="54"/>
+      <c r="A45" s="57"/>
+      <c r="B45" s="57"/>
       <c r="C45" s="8"/>
       <c r="D45" s="13">
         <v>13176</v>
@@ -15756,10 +15811,10 @@
       <c r="H45" s="21"/>
     </row>
     <row r="46" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A46" s="51" t="s">
+      <c r="A46" s="53" t="s">
         <v>19</v>
       </c>
-      <c r="B46" s="51"/>
+      <c r="B46" s="53"/>
       <c r="C46" s="24"/>
       <c r="D46" s="27">
         <v>13.18</v>
@@ -15794,22 +15849,22 @@
       </c>
     </row>
     <row r="50" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A50" s="55" t="s">
+      <c r="A50" s="52" t="s">
         <v>20</v>
       </c>
-      <c r="B50" s="55"/>
-      <c r="C50" s="55"/>
-      <c r="D50" s="55"/>
-      <c r="E50" s="55"/>
-      <c r="F50" s="55"/>
-      <c r="G50" s="55"/>
-      <c r="H50" s="55"/>
+      <c r="B50" s="52"/>
+      <c r="C50" s="52"/>
+      <c r="D50" s="52"/>
+      <c r="E50" s="52"/>
+      <c r="F50" s="52"/>
+      <c r="G50" s="52"/>
+      <c r="H50" s="52"/>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A51" s="52" t="s">
+      <c r="A51" s="54" t="s">
         <v>13</v>
       </c>
-      <c r="B51" s="52"/>
+      <c r="B51" s="54"/>
       <c r="C51" s="8"/>
       <c r="D51" s="11" t="s">
         <v>185</v>
@@ -15823,11 +15878,13 @@
       <c r="G51" s="11" t="s">
         <v>183</v>
       </c>
-      <c r="H51" s="36"/>
+      <c r="H51" s="73" t="s">
+        <v>243</v>
+      </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A52" s="52"/>
-      <c r="B52" s="52"/>
+      <c r="A52" s="54"/>
+      <c r="B52" s="54"/>
       <c r="C52" s="8"/>
       <c r="D52" s="11" t="s">
         <v>185</v>
@@ -15841,11 +15898,13 @@
       <c r="G52" s="11" t="s">
         <v>183</v>
       </c>
-      <c r="H52" s="2"/>
+      <c r="H52" s="11" t="s">
+        <v>243</v>
+      </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A53" s="52"/>
-      <c r="B53" s="52"/>
+      <c r="A53" s="54"/>
+      <c r="B53" s="54"/>
       <c r="C53" s="8"/>
       <c r="D53" s="11" t="s">
         <v>185</v>
@@ -15859,13 +15918,15 @@
       <c r="G53" s="11" t="s">
         <v>183</v>
       </c>
-      <c r="H53" s="2"/>
+      <c r="H53" s="11" t="s">
+        <v>243</v>
+      </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A54" s="53" t="s">
+      <c r="A54" s="50" t="s">
         <v>14</v>
       </c>
-      <c r="B54" s="53"/>
+      <c r="B54" s="50"/>
       <c r="C54" s="9"/>
       <c r="D54" s="16" t="s">
         <v>185</v>
@@ -15879,13 +15940,15 @@
       <c r="G54" s="16" t="s">
         <v>183</v>
       </c>
-      <c r="H54" s="3"/>
+      <c r="H54" s="16" t="s">
+        <v>243</v>
+      </c>
     </row>
     <row r="55" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A55" s="51" t="s">
+      <c r="A55" s="53" t="s">
         <v>62</v>
       </c>
-      <c r="B55" s="51"/>
+      <c r="B55" s="53"/>
       <c r="C55" s="24"/>
       <c r="D55" s="27" t="s">
         <v>186</v>
@@ -15899,13 +15962,15 @@
       <c r="G55" s="27" t="s">
         <v>184</v>
       </c>
-      <c r="H55" s="3"/>
+      <c r="H55" s="16" t="s">
+        <v>244</v>
+      </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A56" s="54" t="s">
+      <c r="A56" s="57" t="s">
         <v>18</v>
       </c>
-      <c r="B56" s="54"/>
+      <c r="B56" s="57"/>
       <c r="C56" s="8"/>
       <c r="D56" s="13">
         <v>13128</v>
@@ -15919,11 +15984,13 @@
       <c r="G56" s="13">
         <v>83506</v>
       </c>
-      <c r="H56" s="10"/>
+      <c r="H56" s="13">
+        <v>41159</v>
+      </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A57" s="54"/>
-      <c r="B57" s="54"/>
+      <c r="A57" s="57"/>
+      <c r="B57" s="57"/>
       <c r="C57" s="8"/>
       <c r="D57" s="13">
         <v>13128</v>
@@ -15937,11 +16004,13 @@
       <c r="G57" s="13">
         <v>83506</v>
       </c>
-      <c r="H57" s="10"/>
+      <c r="H57" s="13">
+        <v>41159</v>
+      </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A58" s="54"/>
-      <c r="B58" s="54"/>
+      <c r="A58" s="57"/>
+      <c r="B58" s="57"/>
       <c r="C58" s="8"/>
       <c r="D58" s="13">
         <v>13128</v>
@@ -15955,13 +16024,15 @@
       <c r="G58" s="13">
         <v>83506</v>
       </c>
-      <c r="H58" s="10"/>
+      <c r="H58" s="13">
+        <v>41159</v>
+      </c>
     </row>
     <row r="59" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A59" s="51" t="s">
+      <c r="A59" s="53" t="s">
         <v>19</v>
       </c>
-      <c r="B59" s="51"/>
+      <c r="B59" s="53"/>
       <c r="C59" s="26"/>
       <c r="D59" s="27">
         <v>13.13</v>
@@ -15975,21 +16046,35 @@
       <c r="G59" s="25">
         <v>83.51</v>
       </c>
-      <c r="H59" s="12"/>
+      <c r="H59" s="74">
+        <v>41.2</v>
+      </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D60" s="71" t="s">
+      <c r="D60" s="69" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D61" s="72"/>
+      <c r="D61" s="70"/>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D62" s="72"/>
+      <c r="D62" s="70"/>
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="I11:K16"/>
+    <mergeCell ref="A43:B45"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="A50:H50"/>
+    <mergeCell ref="A51:B53"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="A37:H37"/>
+    <mergeCell ref="A38:B40"/>
+    <mergeCell ref="A41:B41"/>
     <mergeCell ref="A16:B16"/>
     <mergeCell ref="D60:D62"/>
     <mergeCell ref="A1:C1"/>
@@ -16006,18 +16091,6 @@
     <mergeCell ref="A29:B31"/>
     <mergeCell ref="A55:B55"/>
     <mergeCell ref="A56:B58"/>
-    <mergeCell ref="A59:B59"/>
-    <mergeCell ref="I11:K16"/>
-    <mergeCell ref="A43:B45"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="A50:H50"/>
-    <mergeCell ref="A51:B53"/>
-    <mergeCell ref="A54:B54"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="A37:H37"/>
-    <mergeCell ref="A38:B40"/>
-    <mergeCell ref="A41:B41"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -16028,8 +16101,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7126B3F8-CE12-4BD3-9953-4236673B1403}">
   <dimension ref="A1:T114"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="X2" sqref="X2"/>
+    <sheetView topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="K115" sqref="K115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16088,22 +16161,22 @@
       </c>
     </row>
     <row r="9" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="65" t="s">
+      <c r="A9" s="59" t="s">
         <v>115</v>
       </c>
-      <c r="B9" s="65"/>
-      <c r="C9" s="65"/>
-      <c r="D9" s="65"/>
-      <c r="E9" s="65"/>
-      <c r="F9" s="65"/>
-      <c r="J9" s="65" t="s">
+      <c r="B9" s="59"/>
+      <c r="C9" s="59"/>
+      <c r="D9" s="59"/>
+      <c r="E9" s="59"/>
+      <c r="F9" s="59"/>
+      <c r="J9" s="59" t="s">
         <v>116</v>
       </c>
-      <c r="K9" s="65"/>
-      <c r="L9" s="65"/>
-      <c r="M9" s="65"/>
-      <c r="N9" s="65"/>
-      <c r="O9" s="65"/>
+      <c r="K9" s="59"/>
+      <c r="L9" s="59"/>
+      <c r="M9" s="59"/>
+      <c r="N9" s="59"/>
+      <c r="O9" s="59"/>
       <c r="P9" s="40"/>
       <c r="Q9" s="40"/>
     </row>
@@ -16151,14 +16224,14 @@
       <c r="B39" s="38"/>
       <c r="C39" s="38"/>
       <c r="D39" s="38"/>
-      <c r="E39" s="51" t="s">
+      <c r="E39" s="53" t="s">
         <v>62</v>
       </c>
-      <c r="F39" s="51"/>
-      <c r="G39" s="51" t="s">
+      <c r="F39" s="53"/>
+      <c r="G39" s="53" t="s">
         <v>19</v>
       </c>
-      <c r="H39" s="51"/>
+      <c r="H39" s="53"/>
       <c r="I39" s="35"/>
     </row>
     <row r="40" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -16181,12 +16254,12 @@
       <c r="I40" s="44"/>
     </row>
     <row r="41" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A41" s="59" t="s">
+      <c r="A41" s="60" t="s">
         <v>121</v>
       </c>
-      <c r="B41" s="59"/>
-      <c r="C41" s="59"/>
-      <c r="D41" s="59"/>
+      <c r="B41" s="60"/>
+      <c r="C41" s="60"/>
+      <c r="D41" s="60"/>
       <c r="E41" s="42">
         <v>955.8</v>
       </c>
@@ -16201,12 +16274,12 @@
       </c>
     </row>
     <row r="42" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A42" s="59" t="s">
+      <c r="A42" s="60" t="s">
         <v>120</v>
       </c>
-      <c r="B42" s="59"/>
-      <c r="C42" s="59"/>
-      <c r="D42" s="59"/>
+      <c r="B42" s="60"/>
+      <c r="C42" s="60"/>
+      <c r="D42" s="60"/>
       <c r="E42" s="42">
         <v>475</v>
       </c>
@@ -16221,12 +16294,12 @@
       </c>
     </row>
     <row r="43" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A43" s="59" t="s">
+      <c r="A43" s="60" t="s">
         <v>119</v>
       </c>
-      <c r="B43" s="59"/>
-      <c r="C43" s="59"/>
-      <c r="D43" s="59"/>
+      <c r="B43" s="60"/>
+      <c r="C43" s="60"/>
+      <c r="D43" s="60"/>
       <c r="E43" s="42">
         <v>447.7</v>
       </c>
@@ -16241,12 +16314,12 @@
       </c>
     </row>
     <row r="44" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A44" s="59" t="s">
+      <c r="A44" s="60" t="s">
         <v>122</v>
       </c>
-      <c r="B44" s="59"/>
-      <c r="C44" s="59"/>
-      <c r="D44" s="59"/>
+      <c r="B44" s="60"/>
+      <c r="C44" s="60"/>
+      <c r="D44" s="60"/>
       <c r="E44" s="42">
         <v>686.6</v>
       </c>
@@ -16330,11 +16403,15 @@
       <c r="E48" s="42">
         <v>299.2</v>
       </c>
-      <c r="F48" s="42"/>
+      <c r="F48" s="42">
+        <v>15.55</v>
+      </c>
       <c r="G48" s="42">
         <v>2.14</v>
       </c>
-      <c r="H48" s="42"/>
+      <c r="H48" s="42">
+        <v>41.2</v>
+      </c>
     </row>
     <row r="62" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A62" s="61" t="s">
@@ -16385,11 +16462,11 @@
       <c r="F105" s="38"/>
       <c r="G105" s="38"/>
       <c r="H105" s="38"/>
-      <c r="I105" s="51" t="s">
+      <c r="I105" s="53" t="s">
         <v>62</v>
       </c>
-      <c r="J105" s="51"/>
-      <c r="K105" s="51"/>
+      <c r="J105" s="53"/>
+      <c r="K105" s="53"/>
       <c r="L105" s="47"/>
     </row>
     <row r="106" spans="5:12" ht="63" x14ac:dyDescent="0.25">
@@ -16409,12 +16486,12 @@
       <c r="L106" s="48"/>
     </row>
     <row r="107" spans="5:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E107" s="59" t="s">
+      <c r="E107" s="60" t="s">
         <v>132</v>
       </c>
-      <c r="F107" s="59"/>
-      <c r="G107" s="59"/>
-      <c r="H107" s="59"/>
+      <c r="F107" s="60"/>
+      <c r="G107" s="60"/>
+      <c r="H107" s="60"/>
       <c r="I107" s="42">
         <v>0.56000000000000005</v>
       </c>
@@ -16427,12 +16504,12 @@
       <c r="L107" s="49"/>
     </row>
     <row r="108" spans="5:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E108" s="59" t="s">
+      <c r="E108" s="60" t="s">
         <v>8</v>
       </c>
-      <c r="F108" s="59"/>
-      <c r="G108" s="59"/>
-      <c r="H108" s="59"/>
+      <c r="F108" s="60"/>
+      <c r="G108" s="60"/>
+      <c r="H108" s="60"/>
       <c r="I108" s="42">
         <v>0.61</v>
       </c>
@@ -16445,12 +16522,12 @@
       <c r="L108" s="46"/>
     </row>
     <row r="109" spans="5:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E109" s="59" t="s">
+      <c r="E109" s="60" t="s">
         <v>9</v>
       </c>
-      <c r="F109" s="59"/>
-      <c r="G109" s="59"/>
-      <c r="H109" s="59"/>
+      <c r="F109" s="60"/>
+      <c r="G109" s="60"/>
+      <c r="H109" s="60"/>
       <c r="I109" s="42">
         <v>0.74</v>
       </c>
@@ -16463,12 +16540,12 @@
       <c r="L109" s="46"/>
     </row>
     <row r="110" spans="5:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E110" s="59" t="s">
+      <c r="E110" s="60" t="s">
         <v>10</v>
       </c>
-      <c r="F110" s="59"/>
-      <c r="G110" s="59"/>
-      <c r="H110" s="59"/>
+      <c r="F110" s="60"/>
+      <c r="G110" s="60"/>
+      <c r="H110" s="60"/>
       <c r="I110" s="42">
         <v>0.86</v>
       </c>
@@ -16481,12 +16558,12 @@
       <c r="L110" s="46"/>
     </row>
     <row r="111" spans="5:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E111" s="59" t="s">
+      <c r="E111" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="F111" s="59"/>
-      <c r="G111" s="59"/>
-      <c r="H111" s="59"/>
+      <c r="F111" s="60"/>
+      <c r="G111" s="60"/>
+      <c r="H111" s="60"/>
       <c r="I111" s="42">
         <v>0.4</v>
       </c>
@@ -16499,36 +16576,38 @@
       <c r="L111" s="46"/>
     </row>
     <row r="112" spans="5:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E112" s="59" t="s">
+      <c r="E112" s="60" t="s">
         <v>12</v>
       </c>
-      <c r="F112" s="59"/>
-      <c r="G112" s="59"/>
-      <c r="H112" s="59"/>
+      <c r="F112" s="60"/>
+      <c r="G112" s="60"/>
+      <c r="H112" s="60"/>
       <c r="I112" s="42">
         <v>0.73</v>
       </c>
       <c r="J112" s="42">
         <v>3.07</v>
       </c>
-      <c r="K112" s="42"/>
+      <c r="K112" s="42">
+        <v>15.55</v>
+      </c>
       <c r="L112" s="46"/>
     </row>
     <row r="113" spans="5:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E113" s="60"/>
-      <c r="F113" s="60"/>
-      <c r="G113" s="60"/>
-      <c r="H113" s="60"/>
+      <c r="E113" s="65"/>
+      <c r="F113" s="65"/>
+      <c r="G113" s="65"/>
+      <c r="H113" s="65"/>
       <c r="I113" s="46"/>
       <c r="J113" s="46"/>
       <c r="K113" s="46"/>
       <c r="L113" s="46"/>
     </row>
     <row r="114" spans="5:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E114" s="60"/>
-      <c r="F114" s="60"/>
-      <c r="G114" s="60"/>
-      <c r="H114" s="60"/>
+      <c r="E114" s="65"/>
+      <c r="F114" s="65"/>
+      <c r="G114" s="65"/>
+      <c r="H114" s="65"/>
       <c r="I114" s="46"/>
       <c r="J114" s="46"/>
       <c r="K114" s="46"/>
@@ -16536,16 +16615,12 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="E110:H110"/>
-    <mergeCell ref="E111:H111"/>
-    <mergeCell ref="E112:H112"/>
-    <mergeCell ref="E113:H113"/>
-    <mergeCell ref="E114:H114"/>
-    <mergeCell ref="A48:D48"/>
-    <mergeCell ref="A62:Q62"/>
-    <mergeCell ref="I105:K105"/>
-    <mergeCell ref="E107:H107"/>
-    <mergeCell ref="E108:H108"/>
+    <mergeCell ref="A41:D41"/>
+    <mergeCell ref="A9:F9"/>
+    <mergeCell ref="J9:O9"/>
+    <mergeCell ref="A11:Q11"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="G39:H39"/>
     <mergeCell ref="E109:H109"/>
     <mergeCell ref="A42:D42"/>
     <mergeCell ref="A43:D43"/>
@@ -16553,12 +16628,16 @@
     <mergeCell ref="A45:D45"/>
     <mergeCell ref="A46:D46"/>
     <mergeCell ref="A47:D47"/>
-    <mergeCell ref="A9:F9"/>
-    <mergeCell ref="J9:O9"/>
-    <mergeCell ref="A11:Q11"/>
-    <mergeCell ref="E39:F39"/>
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="A41:D41"/>
+    <mergeCell ref="A48:D48"/>
+    <mergeCell ref="A62:Q62"/>
+    <mergeCell ref="I105:K105"/>
+    <mergeCell ref="E107:H107"/>
+    <mergeCell ref="E108:H108"/>
+    <mergeCell ref="E110:H110"/>
+    <mergeCell ref="E111:H111"/>
+    <mergeCell ref="E112:H112"/>
+    <mergeCell ref="E113:H113"/>
+    <mergeCell ref="E114:H114"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -16567,10 +16646,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15DD7F52-A5C3-486A-839D-8D1373B885C5}">
-  <dimension ref="A1:K60"/>
+  <dimension ref="A1:N82"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K46" sqref="K46"/>
+    <sheetView topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="G85" sqref="G85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16586,11 +16665,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="51" t="s">
         <v>107</v>
       </c>
-      <c r="B1" s="56"/>
-      <c r="C1" s="56"/>
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C3" s="3" t="s">
@@ -16694,10 +16773,10 @@
       <c r="H11" s="34"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="52" t="s">
+      <c r="A12" s="54" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="52"/>
+      <c r="B12" s="54"/>
       <c r="C12" s="8"/>
       <c r="D12" s="11"/>
       <c r="E12" s="11"/>
@@ -16706,8 +16785,8 @@
       <c r="H12" s="21"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="52"/>
-      <c r="B13" s="52"/>
+      <c r="A13" s="54"/>
+      <c r="B13" s="54"/>
       <c r="C13" s="8"/>
       <c r="D13" s="11"/>
       <c r="E13" s="11"/>
@@ -16716,8 +16795,8 @@
       <c r="H13" s="21"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="52"/>
-      <c r="B14" s="52"/>
+      <c r="A14" s="54"/>
+      <c r="B14" s="54"/>
       <c r="C14" s="8"/>
       <c r="D14" s="11"/>
       <c r="E14" s="11"/>
@@ -16726,10 +16805,10 @@
       <c r="H14" s="21"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="53" t="s">
+      <c r="A15" s="50" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="53"/>
+      <c r="B15" s="50"/>
       <c r="C15" s="9"/>
       <c r="D15" s="11"/>
       <c r="E15" s="11"/>
@@ -16739,10 +16818,10 @@
       <c r="I15" s="35"/>
     </row>
     <row r="16" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="51" t="s">
+      <c r="A16" s="53" t="s">
         <v>62</v>
       </c>
-      <c r="B16" s="51"/>
+      <c r="B16" s="53"/>
       <c r="C16" s="24"/>
       <c r="D16" s="27"/>
       <c r="E16" s="27"/>
@@ -16752,10 +16831,10 @@
       <c r="I16" s="35"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="54" t="s">
+      <c r="A17" s="57" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="54"/>
+      <c r="B17" s="57"/>
       <c r="C17" s="8"/>
       <c r="D17" s="13"/>
       <c r="E17" s="13"/>
@@ -16764,8 +16843,8 @@
       <c r="H17" s="21"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="54"/>
-      <c r="B18" s="54"/>
+      <c r="A18" s="57"/>
+      <c r="B18" s="57"/>
       <c r="C18" s="8"/>
       <c r="D18" s="13"/>
       <c r="E18" s="13"/>
@@ -16774,8 +16853,8 @@
       <c r="H18" s="21"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="54"/>
-      <c r="B19" s="54"/>
+      <c r="A19" s="57"/>
+      <c r="B19" s="57"/>
       <c r="C19" s="8"/>
       <c r="D19" s="13"/>
       <c r="E19" s="13"/>
@@ -16784,10 +16863,10 @@
       <c r="H19" s="21"/>
     </row>
     <row r="20" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="51" t="s">
+      <c r="A20" s="53" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="51"/>
+      <c r="B20" s="53"/>
       <c r="C20" s="24"/>
       <c r="D20" s="27"/>
       <c r="E20" s="37"/>
@@ -16796,10 +16875,10 @@
       <c r="H20" s="29"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="50" t="s">
+      <c r="A21" s="56" t="s">
         <v>64</v>
       </c>
-      <c r="B21" s="50"/>
+      <c r="B21" s="56"/>
       <c r="C21" s="8"/>
       <c r="D21" s="23"/>
       <c r="E21" s="23"/>
@@ -16828,22 +16907,22 @@
       </c>
     </row>
     <row r="25" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A25" s="55" t="s">
+      <c r="A25" s="52" t="s">
         <v>20</v>
       </c>
-      <c r="B25" s="55"/>
-      <c r="C25" s="55"/>
-      <c r="D25" s="55"/>
-      <c r="E25" s="55"/>
-      <c r="F25" s="55"/>
-      <c r="G25" s="55"/>
-      <c r="H25" s="55"/>
+      <c r="B25" s="52"/>
+      <c r="C25" s="52"/>
+      <c r="D25" s="52"/>
+      <c r="E25" s="52"/>
+      <c r="F25" s="52"/>
+      <c r="G25" s="52"/>
+      <c r="H25" s="52"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" s="52" t="s">
+      <c r="A26" s="54" t="s">
         <v>13</v>
       </c>
-      <c r="B26" s="52"/>
+      <c r="B26" s="54"/>
       <c r="C26" s="8"/>
       <c r="D26" s="11" t="s">
         <v>111</v>
@@ -16859,8 +16938,8 @@
       <c r="K26" s="35"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" s="52"/>
-      <c r="B27" s="52"/>
+      <c r="A27" s="54"/>
+      <c r="B27" s="54"/>
       <c r="C27" s="8"/>
       <c r="D27" s="11" t="s">
         <v>111</v>
@@ -16876,8 +16955,8 @@
       <c r="K27" s="35"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" s="52"/>
-      <c r="B28" s="52"/>
+      <c r="A28" s="54"/>
+      <c r="B28" s="54"/>
       <c r="C28" s="8"/>
       <c r="D28" s="11" t="s">
         <v>111</v>
@@ -16893,10 +16972,10 @@
       <c r="K28" s="35"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" s="53" t="s">
+      <c r="A29" s="50" t="s">
         <v>14</v>
       </c>
-      <c r="B29" s="53"/>
+      <c r="B29" s="50"/>
       <c r="C29" s="9"/>
       <c r="D29" s="11" t="s">
         <v>111</v>
@@ -16912,10 +16991,10 @@
       <c r="K29" s="35"/>
     </row>
     <row r="30" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="51" t="s">
+      <c r="A30" s="53" t="s">
         <v>62</v>
       </c>
-      <c r="B30" s="51"/>
+      <c r="B30" s="53"/>
       <c r="C30" s="24"/>
       <c r="D30" s="27" t="s">
         <v>112</v>
@@ -16929,10 +17008,10 @@
       <c r="K30" s="35"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A31" s="54" t="s">
+      <c r="A31" s="57" t="s">
         <v>18</v>
       </c>
-      <c r="B31" s="54"/>
+      <c r="B31" s="57"/>
       <c r="C31" s="8"/>
       <c r="D31" s="13" t="s">
         <v>113</v>
@@ -16946,8 +17025,8 @@
       <c r="K31" s="35"/>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A32" s="54"/>
-      <c r="B32" s="54"/>
+      <c r="A32" s="57"/>
+      <c r="B32" s="57"/>
       <c r="C32" s="8"/>
       <c r="D32" s="13" t="s">
         <v>113</v>
@@ -16963,8 +17042,8 @@
       <c r="K32" s="35"/>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A33" s="54"/>
-      <c r="B33" s="54"/>
+      <c r="A33" s="57"/>
+      <c r="B33" s="57"/>
       <c r="C33" s="8"/>
       <c r="D33" s="13" t="s">
         <v>113</v>
@@ -16976,10 +17055,10 @@
       <c r="I33" s="35"/>
     </row>
     <row r="34" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="51" t="s">
+      <c r="A34" s="53" t="s">
         <v>19</v>
       </c>
-      <c r="B34" s="51"/>
+      <c r="B34" s="53"/>
       <c r="C34" s="26"/>
       <c r="D34" s="27">
         <v>14.94</v>
@@ -16991,10 +17070,10 @@
       <c r="I34" s="35"/>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A35" s="50" t="s">
+      <c r="A35" s="56" t="s">
         <v>64</v>
       </c>
-      <c r="B35" s="50"/>
+      <c r="B35" s="56"/>
       <c r="C35" s="8"/>
       <c r="D35" s="23"/>
       <c r="E35" s="23"/>
@@ -17023,22 +17102,22 @@
       </c>
     </row>
     <row r="39" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A39" s="55" t="s">
+      <c r="A39" s="52" t="s">
         <v>20</v>
       </c>
-      <c r="B39" s="55"/>
-      <c r="C39" s="55"/>
-      <c r="D39" s="55"/>
-      <c r="E39" s="55"/>
-      <c r="F39" s="55"/>
-      <c r="G39" s="55"/>
-      <c r="H39" s="55"/>
+      <c r="B39" s="52"/>
+      <c r="C39" s="52"/>
+      <c r="D39" s="52"/>
+      <c r="E39" s="52"/>
+      <c r="F39" s="52"/>
+      <c r="G39" s="52"/>
+      <c r="H39" s="52"/>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A40" s="52" t="s">
+      <c r="A40" s="54" t="s">
         <v>13</v>
       </c>
-      <c r="B40" s="52"/>
+      <c r="B40" s="54"/>
       <c r="C40" s="8"/>
       <c r="D40" s="11" t="s">
         <v>111</v>
@@ -17054,8 +17133,8 @@
       <c r="K40" s="35"/>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A41" s="52"/>
-      <c r="B41" s="52"/>
+      <c r="A41" s="54"/>
+      <c r="B41" s="54"/>
       <c r="C41" s="8"/>
       <c r="D41" s="11" t="s">
         <v>111</v>
@@ -17071,8 +17150,8 @@
       <c r="K41" s="35"/>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A42" s="52"/>
-      <c r="B42" s="52"/>
+      <c r="A42" s="54"/>
+      <c r="B42" s="54"/>
       <c r="C42" s="8"/>
       <c r="D42" s="11" t="s">
         <v>111</v>
@@ -17088,10 +17167,10 @@
       <c r="K42" s="35"/>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A43" s="53" t="s">
+      <c r="A43" s="50" t="s">
         <v>14</v>
       </c>
-      <c r="B43" s="53"/>
+      <c r="B43" s="50"/>
       <c r="C43" s="9"/>
       <c r="D43" s="11" t="s">
         <v>111</v>
@@ -17107,10 +17186,10 @@
       <c r="K43" s="35"/>
     </row>
     <row r="44" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A44" s="51" t="s">
+      <c r="A44" s="53" t="s">
         <v>62</v>
       </c>
-      <c r="B44" s="51"/>
+      <c r="B44" s="53"/>
       <c r="C44" s="24"/>
       <c r="D44" s="27" t="s">
         <v>112</v>
@@ -17124,10 +17203,10 @@
       <c r="K44" s="35"/>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A45" s="54" t="s">
+      <c r="A45" s="57" t="s">
         <v>18</v>
       </c>
-      <c r="B45" s="54"/>
+      <c r="B45" s="57"/>
       <c r="C45" s="8"/>
       <c r="D45" s="13" t="s">
         <v>113</v>
@@ -17141,8 +17220,8 @@
       <c r="K45" s="35"/>
     </row>
     <row r="46" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="54"/>
-      <c r="B46" s="54"/>
+      <c r="A46" s="57"/>
+      <c r="B46" s="57"/>
       <c r="C46" s="8"/>
       <c r="D46" s="13" t="s">
         <v>113</v>
@@ -17158,8 +17237,8 @@
       <c r="K46" s="35"/>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A47" s="54"/>
-      <c r="B47" s="54"/>
+      <c r="A47" s="57"/>
+      <c r="B47" s="57"/>
       <c r="C47" s="8"/>
       <c r="D47" s="13" t="s">
         <v>113</v>
@@ -17171,10 +17250,10 @@
       <c r="I47" s="35"/>
     </row>
     <row r="48" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A48" s="51" t="s">
+      <c r="A48" s="53" t="s">
         <v>19</v>
       </c>
-      <c r="B48" s="51"/>
+      <c r="B48" s="53"/>
       <c r="C48" s="26"/>
       <c r="D48" s="27">
         <v>14.94</v>
@@ -17185,11 +17264,11 @@
       <c r="H48" s="16"/>
       <c r="I48" s="35"/>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A49" s="50" t="s">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A49" s="56" t="s">
         <v>64</v>
       </c>
-      <c r="B49" s="50"/>
+      <c r="B49" s="56"/>
       <c r="C49" s="8"/>
       <c r="D49" s="23"/>
       <c r="E49" s="23"/>
@@ -17197,9 +17276,420 @@
       <c r="G49" s="23"/>
       <c r="H49" s="23"/>
     </row>
-    <row r="60" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A51" s="75"/>
+      <c r="B51" s="75"/>
+      <c r="C51" s="75"/>
+      <c r="D51" s="75"/>
+      <c r="E51" s="75"/>
+      <c r="F51" s="75"/>
+      <c r="G51" s="75"/>
+      <c r="H51" s="75"/>
+      <c r="I51" s="75"/>
+      <c r="J51" s="75"/>
+      <c r="K51" s="75"/>
+      <c r="L51" s="75"/>
+      <c r="M51" s="75"/>
+      <c r="N51" s="75"/>
+    </row>
+    <row r="53" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A53" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B53" s="7"/>
+      <c r="C53" s="6"/>
+      <c r="D53" s="6"/>
+      <c r="E53" s="6"/>
+      <c r="F53" s="6"/>
+      <c r="G53" s="6"/>
+      <c r="H53" s="6"/>
+    </row>
+    <row r="54" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C54" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D54" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E54" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F54" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G54" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H54" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A55" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="B55" s="34"/>
+      <c r="C55" s="34"/>
+      <c r="D55" s="34"/>
+      <c r="E55" s="34"/>
+      <c r="F55" s="34"/>
+      <c r="G55" s="34"/>
+      <c r="H55" s="34"/>
+      <c r="I55" s="35"/>
+      <c r="J55" s="35" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A56" s="54" t="s">
+        <v>13</v>
+      </c>
+      <c r="B56" s="54"/>
+      <c r="C56" s="8"/>
+      <c r="D56" s="11"/>
+      <c r="E56" s="11"/>
+      <c r="F56" s="11"/>
+      <c r="G56" s="21"/>
+      <c r="H56" s="21"/>
+      <c r="I56" s="35" t="s">
+        <v>246</v>
+      </c>
+      <c r="J56" s="35"/>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A57" s="54"/>
+      <c r="B57" s="54"/>
+      <c r="C57" s="8"/>
+      <c r="D57" s="11"/>
+      <c r="E57" s="11"/>
+      <c r="F57" s="11"/>
+      <c r="G57" s="21"/>
+      <c r="H57" s="21"/>
+      <c r="I57" s="35" t="s">
+        <v>247</v>
+      </c>
+      <c r="J57" s="35"/>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A58" s="54"/>
+      <c r="B58" s="54"/>
+      <c r="C58" s="8"/>
+      <c r="D58" s="11"/>
+      <c r="E58" s="11"/>
+      <c r="F58" s="11"/>
+      <c r="G58" s="21"/>
+      <c r="H58" s="21"/>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A59" s="50" t="s">
+        <v>14</v>
+      </c>
+      <c r="B59" s="50"/>
+      <c r="C59" s="9"/>
+      <c r="D59" s="11"/>
+      <c r="E59" s="11"/>
+      <c r="F59" s="11"/>
+      <c r="G59" s="22"/>
+      <c r="H59" s="22"/>
+      <c r="I59" s="35"/>
+    </row>
+    <row r="60" spans="1:14" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="53" t="s">
+        <v>62</v>
+      </c>
+      <c r="B60" s="53"/>
+      <c r="C60" s="24"/>
+      <c r="D60" s="27"/>
+      <c r="E60" s="27"/>
+      <c r="F60" s="27"/>
+      <c r="G60" s="22"/>
+      <c r="H60" s="22"/>
+      <c r="I60" s="35"/>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A61" s="57" t="s">
+        <v>18</v>
+      </c>
+      <c r="B61" s="57"/>
+      <c r="C61" s="8"/>
+      <c r="D61" s="13"/>
+      <c r="E61" s="13"/>
+      <c r="F61" s="13"/>
+      <c r="G61" s="21"/>
+      <c r="H61" s="21"/>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A62" s="57"/>
+      <c r="B62" s="57"/>
+      <c r="C62" s="8"/>
+      <c r="D62" s="13"/>
+      <c r="E62" s="13"/>
+      <c r="F62" s="13"/>
+      <c r="G62" s="21"/>
+      <c r="H62" s="21"/>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A63" s="57"/>
+      <c r="B63" s="57"/>
+      <c r="C63" s="8"/>
+      <c r="D63" s="13"/>
+      <c r="E63" s="13"/>
+      <c r="F63" s="13"/>
+      <c r="G63" s="21"/>
+      <c r="H63" s="21"/>
+    </row>
+    <row r="64" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A64" s="53" t="s">
+        <v>19</v>
+      </c>
+      <c r="B64" s="53"/>
+      <c r="C64" s="24"/>
+      <c r="D64" s="27"/>
+      <c r="E64" s="37"/>
+      <c r="F64" s="37"/>
+      <c r="G64" s="29"/>
+      <c r="H64" s="29"/>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A65" s="56" t="s">
+        <v>64</v>
+      </c>
+      <c r="B65" s="56"/>
+      <c r="C65" s="8"/>
+      <c r="D65" s="23"/>
+      <c r="E65" s="23"/>
+      <c r="F65" s="23"/>
+      <c r="G65" s="21"/>
+      <c r="H65" s="21"/>
+    </row>
+    <row r="68" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C68" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D68" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E68" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F68" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G68" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H68" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A69" s="52" t="s">
+        <v>20</v>
+      </c>
+      <c r="B69" s="52"/>
+      <c r="C69" s="52"/>
+      <c r="D69" s="52"/>
+      <c r="E69" s="52"/>
+      <c r="F69" s="52"/>
+      <c r="G69" s="52"/>
+      <c r="H69" s="52"/>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A70" s="54" t="s">
+        <v>13</v>
+      </c>
+      <c r="B70" s="54"/>
+      <c r="C70" s="8"/>
+      <c r="D70" s="11"/>
+      <c r="E70" s="11"/>
+      <c r="F70" s="11">
+        <v>7904</v>
+      </c>
+      <c r="G70" s="11"/>
+      <c r="H70" s="11"/>
+      <c r="I70" s="35"/>
+      <c r="J70" s="35" t="s">
+        <v>245</v>
+      </c>
+      <c r="K70" s="35"/>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A71" s="54"/>
+      <c r="B71" s="54"/>
+      <c r="C71" s="8"/>
+      <c r="D71" s="11"/>
+      <c r="E71" s="11"/>
+      <c r="F71" s="11">
+        <v>7904</v>
+      </c>
+      <c r="G71" s="11"/>
+      <c r="H71" s="11"/>
+      <c r="I71" s="35" t="s">
+        <v>246</v>
+      </c>
+      <c r="J71" s="35"/>
+      <c r="K71" s="35"/>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A72" s="54"/>
+      <c r="B72" s="54"/>
+      <c r="C72" s="8"/>
+      <c r="D72" s="11"/>
+      <c r="E72" s="11"/>
+      <c r="F72" s="11">
+        <v>7904</v>
+      </c>
+      <c r="G72" s="11"/>
+      <c r="H72" s="11"/>
+      <c r="I72" s="35" t="s">
+        <v>247</v>
+      </c>
+      <c r="J72" s="35"/>
+      <c r="K72" s="35"/>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A73" s="50" t="s">
+        <v>14</v>
+      </c>
+      <c r="B73" s="50"/>
+      <c r="C73" s="9"/>
+      <c r="D73" s="11"/>
+      <c r="E73" s="16"/>
+      <c r="F73" s="16">
+        <v>7904</v>
+      </c>
+      <c r="G73" s="16"/>
+      <c r="H73" s="16"/>
+      <c r="I73" s="35"/>
+      <c r="J73" s="35"/>
+      <c r="K73" s="35"/>
+    </row>
+    <row r="74" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A74" s="53" t="s">
+        <v>62</v>
+      </c>
+      <c r="B74" s="53"/>
+      <c r="C74" s="24"/>
+      <c r="D74" s="27"/>
+      <c r="E74" s="27"/>
+      <c r="F74" s="27" t="s">
+        <v>248</v>
+      </c>
+      <c r="G74" s="27"/>
+      <c r="H74" s="16"/>
+      <c r="I74" s="35"/>
+      <c r="J74" s="35"/>
+      <c r="K74" s="35"/>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A75" s="57" t="s">
+        <v>18</v>
+      </c>
+      <c r="B75" s="57"/>
+      <c r="C75" s="8"/>
+      <c r="D75" s="13"/>
+      <c r="E75" s="13"/>
+      <c r="F75" s="13">
+        <v>80972</v>
+      </c>
+      <c r="G75" s="13"/>
+      <c r="H75" s="11"/>
+      <c r="I75" s="35"/>
+      <c r="J75" s="35"/>
+      <c r="K75" s="35"/>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A76" s="57"/>
+      <c r="B76" s="57"/>
+      <c r="C76" s="8"/>
+      <c r="D76" s="13"/>
+      <c r="E76" s="13"/>
+      <c r="F76" s="13">
+        <v>80972</v>
+      </c>
+      <c r="G76" s="13"/>
+      <c r="H76" s="11"/>
+      <c r="I76" s="35"/>
+      <c r="J76" s="35" t="s">
+        <v>102</v>
+      </c>
+      <c r="K76" s="35"/>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A77" s="57"/>
+      <c r="B77" s="57"/>
+      <c r="C77" s="8"/>
+      <c r="D77" s="13"/>
+      <c r="E77" s="13"/>
+      <c r="F77" s="13">
+        <v>80972</v>
+      </c>
+      <c r="G77" s="13"/>
+      <c r="H77" s="16"/>
+      <c r="I77" s="35"/>
+    </row>
+    <row r="78" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A78" s="53" t="s">
+        <v>19</v>
+      </c>
+      <c r="B78" s="53"/>
+      <c r="C78" s="26"/>
+      <c r="D78" s="27"/>
+      <c r="E78" s="27"/>
+      <c r="F78" s="28">
+        <v>80972</v>
+      </c>
+      <c r="G78" s="27"/>
+      <c r="H78" s="16"/>
+      <c r="I78" s="35"/>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A79" s="56" t="s">
+        <v>64</v>
+      </c>
+      <c r="B79" s="56"/>
+      <c r="C79" s="8"/>
+      <c r="D79" s="23"/>
+      <c r="E79" s="23"/>
+      <c r="F79" s="23">
+        <v>80.97</v>
+      </c>
+      <c r="G79" s="23"/>
+      <c r="H79" s="23"/>
+    </row>
+    <row r="82" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F82" s="76" t="s">
+        <v>249</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="22">
+  <mergeCells count="35">
+    <mergeCell ref="A74:B74"/>
+    <mergeCell ref="A75:B77"/>
+    <mergeCell ref="A78:B78"/>
+    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="A65:B65"/>
+    <mergeCell ref="A69:H69"/>
+    <mergeCell ref="A70:B72"/>
+    <mergeCell ref="A73:B73"/>
+    <mergeCell ref="A56:B58"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="A61:B63"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="A39:H39"/>
+    <mergeCell ref="A40:B42"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="A45:B47"/>
+    <mergeCell ref="A17:B19"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="G5:H8"/>
+    <mergeCell ref="A12:B14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A16:B16"/>
     <mergeCell ref="A31:B33"/>
     <mergeCell ref="A34:B34"/>
     <mergeCell ref="A35:B35"/>
@@ -17209,19 +17699,6 @@
     <mergeCell ref="A26:B28"/>
     <mergeCell ref="A29:B29"/>
     <mergeCell ref="A30:B30"/>
-    <mergeCell ref="A17:B19"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="G5:H8"/>
-    <mergeCell ref="A12:B14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="A39:H39"/>
-    <mergeCell ref="A40:B42"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="A45:B47"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/Measurements/measurements_12-03-2023.xlsx
+++ b/Measurements/measurements_12-03-2023.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eric\Documents\GitHub\FPGA-SIMD-Sandbox\Measurements\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBD2291C-912B-4C94-A58C-C6B0CDC0D07A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2103FE43-D28D-476A-BC20-31837131DD22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="853" activeTab="4" xr2:uid="{E844A9DA-1A30-477C-9862-EC514B4B7F27}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="853" activeTab="5" xr2:uid="{E844A9DA-1A30-477C-9862-EC514B4B7F27}"/>
   </bookViews>
   <sheets>
     <sheet name="Messwerte 12.03.2023" sheetId="1" r:id="rId1"/>
@@ -1146,14 +1146,18 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1161,22 +1165,28 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1191,8 +1201,8 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1203,27 +1213,17 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -12437,11 +12437,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="51"/>
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C3" s="3" t="s">
@@ -12486,22 +12486,22 @@
       <c r="D6" s="4">
         <v>179</v>
       </c>
-      <c r="G6" s="55" t="s">
+      <c r="G6" s="61" t="s">
         <v>159</v>
       </c>
-      <c r="H6" s="55"/>
+      <c r="H6" s="61"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F7" s="35" t="s">
         <v>87</v>
       </c>
-      <c r="G7" s="55"/>
-      <c r="H7" s="55"/>
+      <c r="G7" s="61"/>
+      <c r="H7" s="61"/>
       <c r="I7" s="35"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="G8" s="55"/>
-      <c r="H8" s="55"/>
+      <c r="G8" s="61"/>
+      <c r="H8" s="61"/>
       <c r="I8" s="35"/>
     </row>
     <row r="9" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
@@ -12512,8 +12512,8 @@
       <c r="C9" s="6"/>
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
-      <c r="G9" s="55"/>
-      <c r="H9" s="55"/>
+      <c r="G9" s="61"/>
+      <c r="H9" s="61"/>
     </row>
     <row r="10" spans="1:9" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C10" s="7" t="s">
@@ -12536,22 +12536,22 @@
       </c>
     </row>
     <row r="11" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A11" s="52" t="s">
+      <c r="A11" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="B11" s="52"/>
-      <c r="C11" s="52"/>
-      <c r="D11" s="52"/>
-      <c r="E11" s="52"/>
-      <c r="F11" s="52"/>
-      <c r="G11" s="52"/>
-      <c r="H11" s="52"/>
+      <c r="B11" s="59"/>
+      <c r="C11" s="59"/>
+      <c r="D11" s="59"/>
+      <c r="E11" s="59"/>
+      <c r="F11" s="59"/>
+      <c r="G11" s="59"/>
+      <c r="H11" s="59"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="54" t="s">
+      <c r="A12" s="56" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="54"/>
+      <c r="B12" s="56"/>
       <c r="C12" s="10">
         <v>567702</v>
       </c>
@@ -12572,8 +12572,8 @@
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="54"/>
-      <c r="B13" s="54"/>
+      <c r="A13" s="56"/>
+      <c r="B13" s="56"/>
       <c r="C13" s="10">
         <v>560925</v>
       </c>
@@ -12594,8 +12594,8 @@
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="54"/>
-      <c r="B14" s="54"/>
+      <c r="A14" s="56"/>
+      <c r="B14" s="56"/>
       <c r="C14" s="11" t="s">
         <v>21</v>
       </c>
@@ -12616,10 +12616,10 @@
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="50" t="s">
+      <c r="A15" s="57" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="50"/>
+      <c r="B15" s="57"/>
       <c r="C15" s="12">
         <v>564314</v>
       </c>
@@ -12640,10 +12640,10 @@
       </c>
     </row>
     <row r="16" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="53" t="s">
+      <c r="A16" s="55" t="s">
         <v>62</v>
       </c>
-      <c r="B16" s="53"/>
+      <c r="B16" s="55"/>
       <c r="C16" s="27" t="s">
         <v>163</v>
       </c>
@@ -12664,22 +12664,22 @@
       </c>
     </row>
     <row r="20" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A20" s="52" t="s">
+      <c r="A20" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="B20" s="52"/>
-      <c r="C20" s="52"/>
-      <c r="D20" s="52"/>
-      <c r="E20" s="52"/>
-      <c r="F20" s="52"/>
-      <c r="G20" s="52"/>
-      <c r="H20" s="52"/>
+      <c r="B20" s="59"/>
+      <c r="C20" s="59"/>
+      <c r="D20" s="59"/>
+      <c r="E20" s="59"/>
+      <c r="F20" s="59"/>
+      <c r="G20" s="59"/>
+      <c r="H20" s="59"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="54" t="s">
+      <c r="A21" s="56" t="s">
         <v>13</v>
       </c>
-      <c r="B21" s="54"/>
+      <c r="B21" s="56"/>
       <c r="C21" s="10">
         <v>720899</v>
       </c>
@@ -12700,8 +12700,8 @@
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="54"/>
-      <c r="B22" s="54"/>
+      <c r="A22" s="56"/>
+      <c r="B22" s="56"/>
       <c r="C22" s="10">
         <v>643855</v>
       </c>
@@ -12722,8 +12722,8 @@
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="54"/>
-      <c r="B23" s="54"/>
+      <c r="A23" s="56"/>
+      <c r="B23" s="56"/>
       <c r="C23" s="10">
         <v>555836</v>
       </c>
@@ -12744,10 +12744,10 @@
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="50" t="s">
+      <c r="A24" s="57" t="s">
         <v>14</v>
       </c>
-      <c r="B24" s="50"/>
+      <c r="B24" s="57"/>
       <c r="C24" s="15">
         <v>640197</v>
       </c>
@@ -12768,10 +12768,10 @@
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="53" t="s">
+      <c r="A25" s="55" t="s">
         <v>62</v>
       </c>
-      <c r="B25" s="53"/>
+      <c r="B25" s="55"/>
       <c r="C25" s="28" t="s">
         <v>190</v>
       </c>
@@ -12802,22 +12802,22 @@
       <c r="H26" s="20"/>
     </row>
     <row r="28" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A28" s="52" t="s">
+      <c r="A28" s="59" t="s">
         <v>16</v>
       </c>
-      <c r="B28" s="52"/>
-      <c r="C28" s="52"/>
-      <c r="D28" s="52"/>
-      <c r="E28" s="52"/>
-      <c r="F28" s="52"/>
-      <c r="G28" s="52"/>
-      <c r="H28" s="52"/>
+      <c r="B28" s="59"/>
+      <c r="C28" s="59"/>
+      <c r="D28" s="59"/>
+      <c r="E28" s="59"/>
+      <c r="F28" s="59"/>
+      <c r="G28" s="59"/>
+      <c r="H28" s="59"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="54" t="s">
+      <c r="A29" s="56" t="s">
         <v>13</v>
       </c>
-      <c r="B29" s="54"/>
+      <c r="B29" s="56"/>
       <c r="C29" s="13">
         <v>699969</v>
       </c>
@@ -12838,8 +12838,8 @@
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="54"/>
-      <c r="B30" s="54"/>
+      <c r="A30" s="56"/>
+      <c r="B30" s="56"/>
       <c r="C30" s="13">
         <v>594785</v>
       </c>
@@ -12860,8 +12860,8 @@
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="54"/>
-      <c r="B31" s="54"/>
+      <c r="A31" s="56"/>
+      <c r="B31" s="56"/>
       <c r="C31" s="13">
         <v>595232</v>
       </c>
@@ -12882,10 +12882,10 @@
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="50" t="s">
+      <c r="A32" s="57" t="s">
         <v>14</v>
       </c>
-      <c r="B32" s="50"/>
+      <c r="B32" s="57"/>
       <c r="C32" s="15">
         <v>629995</v>
       </c>
@@ -12906,10 +12906,10 @@
       </c>
     </row>
     <row r="33" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="53" t="s">
+      <c r="A33" s="55" t="s">
         <v>62</v>
       </c>
-      <c r="B33" s="53"/>
+      <c r="B33" s="55"/>
       <c r="C33" s="27" t="s">
         <v>190</v>
       </c>
@@ -12950,22 +12950,22 @@
       </c>
     </row>
     <row r="37" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A37" s="52" t="s">
+      <c r="A37" s="59" t="s">
         <v>17</v>
       </c>
-      <c r="B37" s="52"/>
-      <c r="C37" s="52"/>
-      <c r="D37" s="52"/>
-      <c r="E37" s="52"/>
-      <c r="F37" s="52"/>
-      <c r="G37" s="52"/>
-      <c r="H37" s="52"/>
+      <c r="B37" s="59"/>
+      <c r="C37" s="59"/>
+      <c r="D37" s="59"/>
+      <c r="E37" s="59"/>
+      <c r="F37" s="59"/>
+      <c r="G37" s="59"/>
+      <c r="H37" s="59"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="54" t="s">
+      <c r="A38" s="56" t="s">
         <v>13</v>
       </c>
-      <c r="B38" s="54"/>
+      <c r="B38" s="56"/>
       <c r="C38" s="8"/>
       <c r="D38" s="11">
         <v>975783</v>
@@ -12980,8 +12980,8 @@
       <c r="H38" s="21"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="54"/>
-      <c r="B39" s="54"/>
+      <c r="A39" s="56"/>
+      <c r="B39" s="56"/>
       <c r="C39" s="8"/>
       <c r="D39" s="11">
         <v>945790</v>
@@ -12996,8 +12996,8 @@
       <c r="H39" s="21"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="54"/>
-      <c r="B40" s="54"/>
+      <c r="A40" s="56"/>
+      <c r="B40" s="56"/>
       <c r="C40" s="8"/>
       <c r="D40" s="11">
         <v>945829</v>
@@ -13012,10 +13012,10 @@
       <c r="H40" s="21"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="50" t="s">
+      <c r="A41" s="57" t="s">
         <v>14</v>
       </c>
-      <c r="B41" s="50"/>
+      <c r="B41" s="57"/>
       <c r="C41" s="9"/>
       <c r="D41" s="16">
         <v>955800</v>
@@ -13030,10 +13030,10 @@
       <c r="H41" s="22"/>
     </row>
     <row r="42" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A42" s="53" t="s">
+      <c r="A42" s="55" t="s">
         <v>62</v>
       </c>
-      <c r="B42" s="53"/>
+      <c r="B42" s="55"/>
       <c r="C42" s="24"/>
       <c r="D42" s="27">
         <v>955.8</v>
@@ -13048,10 +13048,10 @@
       <c r="H42" s="22"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" s="57" t="s">
+      <c r="A43" s="58" t="s">
         <v>18</v>
       </c>
-      <c r="B43" s="57"/>
+      <c r="B43" s="58"/>
       <c r="C43" s="8"/>
       <c r="D43" s="11" t="s">
         <v>63</v>
@@ -13066,8 +13066,8 @@
       <c r="H43" s="21"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" s="57"/>
-      <c r="B44" s="57"/>
+      <c r="A44" s="58"/>
+      <c r="B44" s="58"/>
       <c r="C44" s="8"/>
       <c r="D44" s="11" t="s">
         <v>63</v>
@@ -13082,8 +13082,8 @@
       <c r="H44" s="21"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" s="57"/>
-      <c r="B45" s="57"/>
+      <c r="A45" s="58"/>
+      <c r="B45" s="58"/>
       <c r="C45" s="8"/>
       <c r="D45" s="11" t="s">
         <v>63</v>
@@ -13098,10 +13098,10 @@
       <c r="H45" s="21"/>
     </row>
     <row r="46" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A46" s="53" t="s">
+      <c r="A46" s="55" t="s">
         <v>19</v>
       </c>
-      <c r="B46" s="53"/>
+      <c r="B46" s="55"/>
       <c r="C46" s="24"/>
       <c r="D46" s="27">
         <v>0.68</v>
@@ -13116,10 +13116,10 @@
       <c r="H46" s="29"/>
     </row>
     <row r="47" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="56" t="s">
+      <c r="A47" s="54" t="s">
         <v>64</v>
       </c>
-      <c r="B47" s="56"/>
+      <c r="B47" s="54"/>
       <c r="C47" s="8"/>
       <c r="D47" s="23" t="s">
         <v>68</v>
@@ -13154,22 +13154,22 @@
       </c>
     </row>
     <row r="51" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A51" s="52" t="s">
+      <c r="A51" s="59" t="s">
         <v>20</v>
       </c>
-      <c r="B51" s="52"/>
-      <c r="C51" s="52"/>
-      <c r="D51" s="52"/>
-      <c r="E51" s="52"/>
-      <c r="F51" s="52"/>
-      <c r="G51" s="52"/>
-      <c r="H51" s="52"/>
+      <c r="B51" s="59"/>
+      <c r="C51" s="59"/>
+      <c r="D51" s="59"/>
+      <c r="E51" s="59"/>
+      <c r="F51" s="59"/>
+      <c r="G51" s="59"/>
+      <c r="H51" s="59"/>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A52" s="54" t="s">
+      <c r="A52" s="56" t="s">
         <v>13</v>
       </c>
-      <c r="B52" s="54"/>
+      <c r="B52" s="56"/>
       <c r="C52" s="8"/>
       <c r="D52" s="2">
         <v>662783</v>
@@ -13188,8 +13188,8 @@
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A53" s="54"/>
-      <c r="B53" s="54"/>
+      <c r="A53" s="56"/>
+      <c r="B53" s="56"/>
       <c r="C53" s="8"/>
       <c r="D53" s="2">
         <v>734126</v>
@@ -13208,8 +13208,8 @@
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A54" s="54"/>
-      <c r="B54" s="54"/>
+      <c r="A54" s="56"/>
+      <c r="B54" s="56"/>
       <c r="C54" s="8"/>
       <c r="D54" s="2">
         <v>662782</v>
@@ -13228,10 +13228,10 @@
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A55" s="50" t="s">
+      <c r="A55" s="57" t="s">
         <v>14</v>
       </c>
-      <c r="B55" s="50"/>
+      <c r="B55" s="57"/>
       <c r="C55" s="9"/>
       <c r="D55" s="3">
         <v>686563</v>
@@ -13250,10 +13250,10 @@
       </c>
     </row>
     <row r="56" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A56" s="53" t="s">
+      <c r="A56" s="55" t="s">
         <v>62</v>
       </c>
-      <c r="B56" s="53"/>
+      <c r="B56" s="55"/>
       <c r="C56" s="24"/>
       <c r="D56" s="25">
         <v>686.6</v>
@@ -13272,10 +13272,10 @@
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A57" s="57" t="s">
+      <c r="A57" s="58" t="s">
         <v>18</v>
       </c>
-      <c r="B57" s="57"/>
+      <c r="B57" s="58"/>
       <c r="C57" s="8"/>
       <c r="D57" s="11" t="s">
         <v>65</v>
@@ -13294,8 +13294,8 @@
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A58" s="57"/>
-      <c r="B58" s="57"/>
+      <c r="A58" s="58"/>
+      <c r="B58" s="58"/>
       <c r="C58" s="8"/>
       <c r="D58" s="11" t="s">
         <v>66</v>
@@ -13314,8 +13314,8 @@
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A59" s="57"/>
-      <c r="B59" s="57"/>
+      <c r="A59" s="58"/>
+      <c r="B59" s="58"/>
       <c r="C59" s="8"/>
       <c r="D59" s="11" t="s">
         <v>65</v>
@@ -13334,10 +13334,10 @@
       </c>
     </row>
     <row r="60" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A60" s="53" t="s">
+      <c r="A60" s="55" t="s">
         <v>19</v>
       </c>
-      <c r="B60" s="53"/>
+      <c r="B60" s="55"/>
       <c r="C60" s="26"/>
       <c r="D60" s="25">
         <v>0.93</v>
@@ -13356,10 +13356,10 @@
       </c>
     </row>
     <row r="61" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="56" t="s">
+      <c r="A61" s="54" t="s">
         <v>64</v>
       </c>
-      <c r="B61" s="56"/>
+      <c r="B61" s="54"/>
       <c r="C61" s="8"/>
       <c r="D61" s="23" t="s">
         <v>70</v>
@@ -13379,6 +13379,18 @@
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A11:H11"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A12:B14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A20:H20"/>
+    <mergeCell ref="A21:B23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A28:H28"/>
+    <mergeCell ref="A29:B31"/>
+    <mergeCell ref="G6:H9"/>
     <mergeCell ref="A61:B61"/>
     <mergeCell ref="A25:B25"/>
     <mergeCell ref="A33:B33"/>
@@ -13395,18 +13407,6 @@
     <mergeCell ref="A43:B45"/>
     <mergeCell ref="A46:B46"/>
     <mergeCell ref="A51:H51"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A11:H11"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A12:B14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A20:H20"/>
-    <mergeCell ref="A21:B23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A28:H28"/>
-    <mergeCell ref="A29:B31"/>
-    <mergeCell ref="G6:H9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -13434,11 +13434,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="60" t="s">
         <v>94</v>
       </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="51"/>
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C3" s="3" t="s">
@@ -13475,10 +13475,10 @@
       <c r="D5" s="4">
         <v>1.4</v>
       </c>
-      <c r="G5" s="58" t="s">
+      <c r="G5" s="62" t="s">
         <v>158</v>
       </c>
-      <c r="H5" s="58"/>
+      <c r="H5" s="62"/>
     </row>
     <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C6" s="3" t="s">
@@ -13490,16 +13490,16 @@
       <c r="F6" s="35" t="s">
         <v>87</v>
       </c>
-      <c r="G6" s="58"/>
-      <c r="H6" s="58"/>
+      <c r="G6" s="62"/>
+      <c r="H6" s="62"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="G7" s="58"/>
-      <c r="H7" s="58"/>
+      <c r="G7" s="62"/>
+      <c r="H7" s="62"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="G8" s="58"/>
-      <c r="H8" s="58"/>
+      <c r="G8" s="62"/>
+      <c r="H8" s="62"/>
     </row>
     <row r="9" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
@@ -13546,10 +13546,10 @@
       <c r="H11" s="34"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="54" t="s">
+      <c r="A12" s="56" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="54"/>
+      <c r="B12" s="56"/>
       <c r="C12" s="8"/>
       <c r="D12" s="11" t="s">
         <v>90</v>
@@ -13564,8 +13564,8 @@
       <c r="H12" s="21"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="54"/>
-      <c r="B13" s="54"/>
+      <c r="A13" s="56"/>
+      <c r="B13" s="56"/>
       <c r="C13" s="8"/>
       <c r="D13" s="11" t="s">
         <v>90</v>
@@ -13580,8 +13580,8 @@
       <c r="H13" s="21"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="54"/>
-      <c r="B14" s="54"/>
+      <c r="A14" s="56"/>
+      <c r="B14" s="56"/>
       <c r="C14" s="8"/>
       <c r="D14" s="11" t="s">
         <v>90</v>
@@ -13596,10 +13596,10 @@
       <c r="H14" s="21"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="50" t="s">
+      <c r="A15" s="57" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="50"/>
+      <c r="B15" s="57"/>
       <c r="C15" s="9"/>
       <c r="D15" s="11" t="s">
         <v>90</v>
@@ -13617,10 +13617,10 @@
       </c>
     </row>
     <row r="16" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="53" t="s">
+      <c r="A16" s="55" t="s">
         <v>62</v>
       </c>
-      <c r="B16" s="53"/>
+      <c r="B16" s="55"/>
       <c r="C16" s="24"/>
       <c r="D16" s="27" t="s">
         <v>91</v>
@@ -13638,10 +13638,10 @@
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="57" t="s">
+      <c r="A17" s="58" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="57"/>
+      <c r="B17" s="58"/>
       <c r="C17" s="8"/>
       <c r="D17" s="13">
         <v>12461</v>
@@ -13656,8 +13656,8 @@
       <c r="H17" s="21"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="57"/>
-      <c r="B18" s="57"/>
+      <c r="A18" s="58"/>
+      <c r="B18" s="58"/>
       <c r="C18" s="8"/>
       <c r="D18" s="13">
         <v>12461</v>
@@ -13672,8 +13672,8 @@
       <c r="H18" s="21"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="57"/>
-      <c r="B19" s="57"/>
+      <c r="A19" s="58"/>
+      <c r="B19" s="58"/>
       <c r="C19" s="8"/>
       <c r="D19" s="13">
         <v>12461</v>
@@ -13688,10 +13688,10 @@
       <c r="H19" s="21"/>
     </row>
     <row r="20" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="53" t="s">
+      <c r="A20" s="55" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="53"/>
+      <c r="B20" s="55"/>
       <c r="C20" s="24"/>
       <c r="D20" s="27">
         <v>12.46</v>
@@ -13706,10 +13706,10 @@
       <c r="H20" s="29"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="56" t="s">
+      <c r="A21" s="54" t="s">
         <v>64</v>
       </c>
-      <c r="B21" s="56"/>
+      <c r="B21" s="54"/>
       <c r="C21" s="8"/>
       <c r="D21" s="23"/>
       <c r="E21" s="23"/>
@@ -13738,22 +13738,22 @@
       </c>
     </row>
     <row r="25" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A25" s="52" t="s">
+      <c r="A25" s="59" t="s">
         <v>20</v>
       </c>
-      <c r="B25" s="52"/>
-      <c r="C25" s="52"/>
-      <c r="D25" s="52"/>
-      <c r="E25" s="52"/>
-      <c r="F25" s="52"/>
-      <c r="G25" s="52"/>
-      <c r="H25" s="52"/>
+      <c r="B25" s="59"/>
+      <c r="C25" s="59"/>
+      <c r="D25" s="59"/>
+      <c r="E25" s="59"/>
+      <c r="F25" s="59"/>
+      <c r="G25" s="59"/>
+      <c r="H25" s="59"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" s="54" t="s">
+      <c r="A26" s="56" t="s">
         <v>13</v>
       </c>
-      <c r="B26" s="54"/>
+      <c r="B26" s="56"/>
       <c r="C26" s="8"/>
       <c r="D26" s="11" t="s">
         <v>97</v>
@@ -13775,8 +13775,8 @@
       <c r="K26" s="35"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" s="54"/>
-      <c r="B27" s="54"/>
+      <c r="A27" s="56"/>
+      <c r="B27" s="56"/>
       <c r="C27" s="8"/>
       <c r="D27" s="11" t="s">
         <v>97</v>
@@ -13798,8 +13798,8 @@
       <c r="K27" s="35"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" s="54"/>
-      <c r="B28" s="54"/>
+      <c r="A28" s="56"/>
+      <c r="B28" s="56"/>
       <c r="C28" s="8"/>
       <c r="D28" s="11" t="s">
         <v>97</v>
@@ -13821,10 +13821,10 @@
       <c r="K28" s="35"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" s="50" t="s">
+      <c r="A29" s="57" t="s">
         <v>14</v>
       </c>
-      <c r="B29" s="50"/>
+      <c r="B29" s="57"/>
       <c r="C29" s="9"/>
       <c r="D29" s="11" t="s">
         <v>97</v>
@@ -13844,10 +13844,10 @@
       <c r="K29" s="35"/>
     </row>
     <row r="30" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="53" t="s">
+      <c r="A30" s="55" t="s">
         <v>62</v>
       </c>
-      <c r="B30" s="53"/>
+      <c r="B30" s="55"/>
       <c r="C30" s="24"/>
       <c r="D30" s="27" t="s">
         <v>98</v>
@@ -13867,10 +13867,10 @@
       <c r="K30" s="35"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A31" s="57" t="s">
+      <c r="A31" s="58" t="s">
         <v>18</v>
       </c>
-      <c r="B31" s="57"/>
+      <c r="B31" s="58"/>
       <c r="C31" s="8"/>
       <c r="D31" s="13">
         <v>17322</v>
@@ -13890,8 +13890,8 @@
       <c r="K31" s="35"/>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A32" s="57"/>
-      <c r="B32" s="57"/>
+      <c r="A32" s="58"/>
+      <c r="B32" s="58"/>
       <c r="C32" s="8"/>
       <c r="D32" s="13">
         <v>17322</v>
@@ -13913,8 +13913,8 @@
       <c r="K32" s="35"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="57"/>
-      <c r="B33" s="57"/>
+      <c r="A33" s="58"/>
+      <c r="B33" s="58"/>
       <c r="C33" s="8"/>
       <c r="D33" s="13">
         <v>17322</v>
@@ -13934,10 +13934,10 @@
       </c>
     </row>
     <row r="34" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="53" t="s">
+      <c r="A34" s="55" t="s">
         <v>19</v>
       </c>
-      <c r="B34" s="53"/>
+      <c r="B34" s="55"/>
       <c r="C34" s="26"/>
       <c r="D34" s="27">
         <v>17.32</v>
@@ -13957,10 +13957,10 @@
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" s="56" t="s">
+      <c r="A35" s="54" t="s">
         <v>64</v>
       </c>
-      <c r="B35" s="56"/>
+      <c r="B35" s="54"/>
       <c r="C35" s="8"/>
       <c r="D35" s="23"/>
       <c r="E35" s="23"/>
@@ -14057,45 +14057,45 @@
       </c>
     </row>
     <row r="9" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="59" t="s">
+      <c r="A9" s="69" t="s">
         <v>115</v>
       </c>
-      <c r="B9" s="59"/>
-      <c r="C9" s="59"/>
-      <c r="D9" s="59"/>
-      <c r="E9" s="59"/>
-      <c r="F9" s="59"/>
-      <c r="J9" s="59" t="s">
+      <c r="B9" s="69"/>
+      <c r="C9" s="69"/>
+      <c r="D9" s="69"/>
+      <c r="E9" s="69"/>
+      <c r="F9" s="69"/>
+      <c r="J9" s="69" t="s">
         <v>116</v>
       </c>
-      <c r="K9" s="59"/>
-      <c r="L9" s="59"/>
-      <c r="M9" s="59"/>
-      <c r="N9" s="59"/>
-      <c r="O9" s="59"/>
+      <c r="K9" s="69"/>
+      <c r="L9" s="69"/>
+      <c r="M9" s="69"/>
+      <c r="N9" s="69"/>
+      <c r="O9" s="69"/>
       <c r="P9" s="40"/>
       <c r="Q9" s="40"/>
     </row>
     <row r="11" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A11" s="61" t="s">
+      <c r="A11" s="65" t="s">
         <v>129</v>
       </c>
-      <c r="B11" s="61"/>
-      <c r="C11" s="61"/>
-      <c r="D11" s="61"/>
-      <c r="E11" s="61"/>
-      <c r="F11" s="61"/>
-      <c r="G11" s="61"/>
-      <c r="H11" s="61"/>
-      <c r="I11" s="61"/>
-      <c r="J11" s="61"/>
-      <c r="K11" s="61"/>
-      <c r="L11" s="61"/>
-      <c r="M11" s="61"/>
-      <c r="N11" s="61"/>
-      <c r="O11" s="61"/>
-      <c r="P11" s="61"/>
-      <c r="Q11" s="61"/>
+      <c r="B11" s="65"/>
+      <c r="C11" s="65"/>
+      <c r="D11" s="65"/>
+      <c r="E11" s="65"/>
+      <c r="F11" s="65"/>
+      <c r="G11" s="65"/>
+      <c r="H11" s="65"/>
+      <c r="I11" s="65"/>
+      <c r="J11" s="65"/>
+      <c r="K11" s="65"/>
+      <c r="L11" s="65"/>
+      <c r="M11" s="65"/>
+      <c r="N11" s="65"/>
+      <c r="O11" s="65"/>
+      <c r="P11" s="65"/>
+      <c r="Q11" s="65"/>
       <c r="R11" s="20"/>
       <c r="S11" s="20"/>
       <c r="T11" s="20"/>
@@ -14120,14 +14120,14 @@
       <c r="B39" s="38"/>
       <c r="C39" s="38"/>
       <c r="D39" s="38"/>
-      <c r="E39" s="53" t="s">
+      <c r="E39" s="55" t="s">
         <v>62</v>
       </c>
-      <c r="F39" s="53"/>
-      <c r="G39" s="53" t="s">
+      <c r="F39" s="55"/>
+      <c r="G39" s="55" t="s">
         <v>19</v>
       </c>
-      <c r="H39" s="53"/>
+      <c r="H39" s="55"/>
       <c r="I39" s="35"/>
     </row>
     <row r="40" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -14150,12 +14150,12 @@
       <c r="I40" s="44"/>
     </row>
     <row r="41" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A41" s="60" t="s">
+      <c r="A41" s="63" t="s">
         <v>121</v>
       </c>
-      <c r="B41" s="60"/>
-      <c r="C41" s="60"/>
-      <c r="D41" s="60"/>
+      <c r="B41" s="63"/>
+      <c r="C41" s="63"/>
+      <c r="D41" s="63"/>
       <c r="E41" s="42">
         <v>955.8</v>
       </c>
@@ -14170,12 +14170,12 @@
       </c>
     </row>
     <row r="42" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A42" s="60" t="s">
+      <c r="A42" s="63" t="s">
         <v>120</v>
       </c>
-      <c r="B42" s="60"/>
-      <c r="C42" s="60"/>
-      <c r="D42" s="60"/>
+      <c r="B42" s="63"/>
+      <c r="C42" s="63"/>
+      <c r="D42" s="63"/>
       <c r="E42" s="42">
         <v>475</v>
       </c>
@@ -14190,12 +14190,12 @@
       </c>
     </row>
     <row r="43" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A43" s="60" t="s">
+      <c r="A43" s="63" t="s">
         <v>119</v>
       </c>
-      <c r="B43" s="60"/>
-      <c r="C43" s="60"/>
-      <c r="D43" s="60"/>
+      <c r="B43" s="63"/>
+      <c r="C43" s="63"/>
+      <c r="D43" s="63"/>
       <c r="E43" s="42">
         <v>447.7</v>
       </c>
@@ -14210,12 +14210,12 @@
       </c>
     </row>
     <row r="44" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A44" s="60" t="s">
+      <c r="A44" s="63" t="s">
         <v>122</v>
       </c>
-      <c r="B44" s="60"/>
-      <c r="C44" s="60"/>
-      <c r="D44" s="60"/>
+      <c r="B44" s="63"/>
+      <c r="C44" s="63"/>
+      <c r="D44" s="63"/>
       <c r="E44" s="42">
         <v>686.6</v>
       </c>
@@ -14230,12 +14230,12 @@
       </c>
     </row>
     <row r="45" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A45" s="62" t="s">
+      <c r="A45" s="66" t="s">
         <v>123</v>
       </c>
-      <c r="B45" s="63"/>
-      <c r="C45" s="63"/>
-      <c r="D45" s="64"/>
+      <c r="B45" s="67"/>
+      <c r="C45" s="67"/>
+      <c r="D45" s="68"/>
       <c r="E45" s="42">
         <v>565.20000000000005</v>
       </c>
@@ -14250,12 +14250,12 @@
       </c>
     </row>
     <row r="46" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A46" s="62" t="s">
+      <c r="A46" s="66" t="s">
         <v>124</v>
       </c>
-      <c r="B46" s="63"/>
-      <c r="C46" s="63"/>
-      <c r="D46" s="64"/>
+      <c r="B46" s="67"/>
+      <c r="C46" s="67"/>
+      <c r="D46" s="68"/>
       <c r="E46" s="42">
         <v>196.4</v>
       </c>
@@ -14270,12 +14270,12 @@
       </c>
     </row>
     <row r="47" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A47" s="62" t="s">
+      <c r="A47" s="66" t="s">
         <v>127</v>
       </c>
-      <c r="B47" s="63"/>
-      <c r="C47" s="63"/>
-      <c r="D47" s="64"/>
+      <c r="B47" s="67"/>
+      <c r="C47" s="67"/>
+      <c r="D47" s="68"/>
       <c r="E47" s="42">
         <v>304.39999999999998</v>
       </c>
@@ -14290,12 +14290,12 @@
       </c>
     </row>
     <row r="48" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A48" s="62" t="s">
+      <c r="A48" s="66" t="s">
         <v>128</v>
       </c>
-      <c r="B48" s="63"/>
-      <c r="C48" s="63"/>
-      <c r="D48" s="64"/>
+      <c r="B48" s="67"/>
+      <c r="C48" s="67"/>
+      <c r="D48" s="68"/>
       <c r="E48" s="42">
         <v>299.2</v>
       </c>
@@ -14306,25 +14306,25 @@
       <c r="H48" s="42"/>
     </row>
     <row r="62" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A62" s="61" t="s">
+      <c r="A62" s="65" t="s">
         <v>131</v>
       </c>
-      <c r="B62" s="61"/>
-      <c r="C62" s="61"/>
-      <c r="D62" s="61"/>
-      <c r="E62" s="61"/>
-      <c r="F62" s="61"/>
-      <c r="G62" s="61"/>
-      <c r="H62" s="61"/>
-      <c r="I62" s="61"/>
-      <c r="J62" s="61"/>
-      <c r="K62" s="61"/>
-      <c r="L62" s="61"/>
-      <c r="M62" s="61"/>
-      <c r="N62" s="61"/>
-      <c r="O62" s="61"/>
-      <c r="P62" s="61"/>
-      <c r="Q62" s="61"/>
+      <c r="B62" s="65"/>
+      <c r="C62" s="65"/>
+      <c r="D62" s="65"/>
+      <c r="E62" s="65"/>
+      <c r="F62" s="65"/>
+      <c r="G62" s="65"/>
+      <c r="H62" s="65"/>
+      <c r="I62" s="65"/>
+      <c r="J62" s="65"/>
+      <c r="K62" s="65"/>
+      <c r="L62" s="65"/>
+      <c r="M62" s="65"/>
+      <c r="N62" s="65"/>
+      <c r="O62" s="65"/>
+      <c r="P62" s="65"/>
+      <c r="Q62" s="65"/>
     </row>
     <row r="97" spans="5:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="H97" s="41"/>
@@ -14354,11 +14354,11 @@
       <c r="F105" s="38"/>
       <c r="G105" s="38"/>
       <c r="H105" s="38"/>
-      <c r="I105" s="53" t="s">
+      <c r="I105" s="55" t="s">
         <v>62</v>
       </c>
-      <c r="J105" s="53"/>
-      <c r="K105" s="53"/>
+      <c r="J105" s="55"/>
+      <c r="K105" s="55"/>
       <c r="L105" s="47"/>
     </row>
     <row r="106" spans="5:12" ht="63" x14ac:dyDescent="0.25">
@@ -14378,12 +14378,12 @@
       <c r="L106" s="48"/>
     </row>
     <row r="107" spans="5:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E107" s="60" t="s">
+      <c r="E107" s="63" t="s">
         <v>132</v>
       </c>
-      <c r="F107" s="60"/>
-      <c r="G107" s="60"/>
-      <c r="H107" s="60"/>
+      <c r="F107" s="63"/>
+      <c r="G107" s="63"/>
+      <c r="H107" s="63"/>
       <c r="I107" s="42">
         <v>0.6</v>
       </c>
@@ -14396,12 +14396,12 @@
       <c r="L107" s="49"/>
     </row>
     <row r="108" spans="5:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E108" s="60" t="s">
+      <c r="E108" s="63" t="s">
         <v>8</v>
       </c>
-      <c r="F108" s="60"/>
-      <c r="G108" s="60"/>
-      <c r="H108" s="60"/>
+      <c r="F108" s="63"/>
+      <c r="G108" s="63"/>
+      <c r="H108" s="63"/>
       <c r="I108" s="42">
         <v>6.3</v>
       </c>
@@ -14414,12 +14414,12 @@
       <c r="L108" s="46"/>
     </row>
     <row r="109" spans="5:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E109" s="60" t="s">
+      <c r="E109" s="63" t="s">
         <v>9</v>
       </c>
-      <c r="F109" s="60"/>
-      <c r="G109" s="60"/>
-      <c r="H109" s="60"/>
+      <c r="F109" s="63"/>
+      <c r="G109" s="63"/>
+      <c r="H109" s="63"/>
       <c r="I109" s="42">
         <v>7.6</v>
       </c>
@@ -14432,12 +14432,12 @@
       <c r="L109" s="46"/>
     </row>
     <row r="110" spans="5:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E110" s="60" t="s">
+      <c r="E110" s="63" t="s">
         <v>10</v>
       </c>
-      <c r="F110" s="60"/>
-      <c r="G110" s="60"/>
-      <c r="H110" s="60"/>
+      <c r="F110" s="63"/>
+      <c r="G110" s="63"/>
+      <c r="H110" s="63"/>
       <c r="I110" s="42">
         <v>8.5</v>
       </c>
@@ -14450,12 +14450,12 @@
       <c r="L110" s="46"/>
     </row>
     <row r="111" spans="5:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E111" s="60" t="s">
+      <c r="E111" s="63" t="s">
         <v>11</v>
       </c>
-      <c r="F111" s="60"/>
-      <c r="G111" s="60"/>
-      <c r="H111" s="60"/>
+      <c r="F111" s="63"/>
+      <c r="G111" s="63"/>
+      <c r="H111" s="63"/>
       <c r="I111" s="42">
         <v>4</v>
       </c>
@@ -14468,12 +14468,12 @@
       <c r="L111" s="46"/>
     </row>
     <row r="112" spans="5:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E112" s="60" t="s">
+      <c r="E112" s="63" t="s">
         <v>12</v>
       </c>
-      <c r="F112" s="60"/>
-      <c r="G112" s="60"/>
-      <c r="H112" s="60"/>
+      <c r="F112" s="63"/>
+      <c r="G112" s="63"/>
+      <c r="H112" s="63"/>
       <c r="I112" s="42">
         <v>7.3</v>
       </c>
@@ -14484,20 +14484,20 @@
       <c r="L112" s="46"/>
     </row>
     <row r="113" spans="5:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E113" s="65"/>
-      <c r="F113" s="65"/>
-      <c r="G113" s="65"/>
-      <c r="H113" s="65"/>
+      <c r="E113" s="64"/>
+      <c r="F113" s="64"/>
+      <c r="G113" s="64"/>
+      <c r="H113" s="64"/>
       <c r="I113" s="46"/>
       <c r="J113" s="46"/>
       <c r="K113" s="46"/>
       <c r="L113" s="46"/>
     </row>
     <row r="114" spans="5:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E114" s="65"/>
-      <c r="F114" s="65"/>
-      <c r="G114" s="65"/>
-      <c r="H114" s="65"/>
+      <c r="E114" s="64"/>
+      <c r="F114" s="64"/>
+      <c r="G114" s="64"/>
+      <c r="H114" s="64"/>
       <c r="I114" s="46"/>
       <c r="J114" s="46"/>
       <c r="K114" s="46"/>
@@ -14505,6 +14505,21 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="A9:F9"/>
+    <mergeCell ref="J9:O9"/>
+    <mergeCell ref="A41:D41"/>
+    <mergeCell ref="A42:D42"/>
+    <mergeCell ref="A43:D43"/>
+    <mergeCell ref="A44:D44"/>
+    <mergeCell ref="A11:Q11"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="A48:D48"/>
+    <mergeCell ref="A62:Q62"/>
+    <mergeCell ref="A45:D45"/>
+    <mergeCell ref="A46:D46"/>
+    <mergeCell ref="A47:D47"/>
+    <mergeCell ref="E111:H111"/>
     <mergeCell ref="E112:H112"/>
     <mergeCell ref="E113:H113"/>
     <mergeCell ref="E114:H114"/>
@@ -14513,21 +14528,6 @@
     <mergeCell ref="E108:H108"/>
     <mergeCell ref="E109:H109"/>
     <mergeCell ref="E110:H110"/>
-    <mergeCell ref="A62:Q62"/>
-    <mergeCell ref="A45:D45"/>
-    <mergeCell ref="A46:D46"/>
-    <mergeCell ref="A47:D47"/>
-    <mergeCell ref="E111:H111"/>
-    <mergeCell ref="A44:D44"/>
-    <mergeCell ref="A11:Q11"/>
-    <mergeCell ref="E39:F39"/>
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="A48:D48"/>
-    <mergeCell ref="A9:F9"/>
-    <mergeCell ref="J9:O9"/>
-    <mergeCell ref="A41:D41"/>
-    <mergeCell ref="A42:D42"/>
-    <mergeCell ref="A43:D43"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -14556,11 +14556,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="60" t="s">
         <v>140</v>
       </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="51"/>
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C3" s="3" t="s">
@@ -14597,10 +14597,10 @@
       <c r="D5" s="4">
         <v>1.4</v>
       </c>
-      <c r="G5" s="58" t="s">
+      <c r="G5" s="62" t="s">
         <v>146</v>
       </c>
-      <c r="H5" s="58"/>
+      <c r="H5" s="62"/>
     </row>
     <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C6" s="3" t="s">
@@ -14612,16 +14612,16 @@
       <c r="F6" s="35" t="s">
         <v>87</v>
       </c>
-      <c r="G6" s="58"/>
-      <c r="H6" s="58"/>
+      <c r="G6" s="62"/>
+      <c r="H6" s="62"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="G7" s="58"/>
-      <c r="H7" s="58"/>
+      <c r="G7" s="62"/>
+      <c r="H7" s="62"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="G8" s="58"/>
-      <c r="H8" s="58"/>
+      <c r="G8" s="62"/>
+      <c r="H8" s="62"/>
     </row>
     <row r="9" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
@@ -14668,10 +14668,10 @@
       <c r="H11" s="34"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="54" t="s">
+      <c r="A12" s="56" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="54"/>
+      <c r="B12" s="56"/>
       <c r="C12" s="8"/>
       <c r="D12" s="11" t="s">
         <v>150</v>
@@ -14686,8 +14686,8 @@
       <c r="H12" s="21"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="54"/>
-      <c r="B13" s="54"/>
+      <c r="A13" s="56"/>
+      <c r="B13" s="56"/>
       <c r="C13" s="8"/>
       <c r="D13" s="11" t="s">
         <v>150</v>
@@ -14702,8 +14702,8 @@
       <c r="H13" s="21"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="54"/>
-      <c r="B14" s="54"/>
+      <c r="A14" s="56"/>
+      <c r="B14" s="56"/>
       <c r="C14" s="8"/>
       <c r="D14" s="11" t="s">
         <v>150</v>
@@ -14718,10 +14718,10 @@
       <c r="H14" s="21"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="50" t="s">
+      <c r="A15" s="57" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="50"/>
+      <c r="B15" s="57"/>
       <c r="C15" s="9"/>
       <c r="D15" s="11" t="s">
         <v>150</v>
@@ -14737,10 +14737,10 @@
       <c r="I15" s="35"/>
     </row>
     <row r="16" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="53" t="s">
+      <c r="A16" s="55" t="s">
         <v>62</v>
       </c>
-      <c r="B16" s="53"/>
+      <c r="B16" s="55"/>
       <c r="C16" s="24"/>
       <c r="D16" s="27" t="s">
         <v>152</v>
@@ -14758,10 +14758,10 @@
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="57" t="s">
+      <c r="A17" s="58" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="57"/>
+      <c r="B17" s="58"/>
       <c r="C17" s="8"/>
       <c r="D17" s="13">
         <v>12166</v>
@@ -14779,8 +14779,8 @@
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="57"/>
-      <c r="B18" s="57"/>
+      <c r="A18" s="58"/>
+      <c r="B18" s="58"/>
       <c r="C18" s="8"/>
       <c r="D18" s="13">
         <v>12166</v>
@@ -14798,8 +14798,8 @@
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="57"/>
-      <c r="B19" s="57"/>
+      <c r="A19" s="58"/>
+      <c r="B19" s="58"/>
       <c r="C19" s="8"/>
       <c r="D19" s="13">
         <v>12166</v>
@@ -14817,10 +14817,10 @@
       </c>
     </row>
     <row r="20" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="53" t="s">
+      <c r="A20" s="55" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="53"/>
+      <c r="B20" s="55"/>
       <c r="C20" s="24"/>
       <c r="D20" s="27">
         <v>12.17</v>
@@ -14838,10 +14838,10 @@
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="56" t="s">
+      <c r="A21" s="54" t="s">
         <v>151</v>
       </c>
-      <c r="B21" s="56"/>
+      <c r="B21" s="54"/>
       <c r="C21" s="8"/>
       <c r="D21" s="23"/>
       <c r="E21" s="23"/>
@@ -14870,22 +14870,22 @@
       </c>
     </row>
     <row r="25" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A25" s="52" t="s">
+      <c r="A25" s="59" t="s">
         <v>20</v>
       </c>
-      <c r="B25" s="52"/>
-      <c r="C25" s="52"/>
-      <c r="D25" s="52"/>
-      <c r="E25" s="52"/>
-      <c r="F25" s="52"/>
-      <c r="G25" s="52"/>
-      <c r="H25" s="52"/>
+      <c r="B25" s="59"/>
+      <c r="C25" s="59"/>
+      <c r="D25" s="59"/>
+      <c r="E25" s="59"/>
+      <c r="F25" s="59"/>
+      <c r="G25" s="59"/>
+      <c r="H25" s="59"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" s="54" t="s">
+      <c r="A26" s="56" t="s">
         <v>13</v>
       </c>
-      <c r="B26" s="54"/>
+      <c r="B26" s="56"/>
       <c r="C26" s="8"/>
       <c r="D26" s="11" t="s">
         <v>156</v>
@@ -14896,7 +14896,7 @@
       <c r="F26" s="11">
         <v>12778</v>
       </c>
-      <c r="G26" s="66" t="s">
+      <c r="G26" s="70" t="s">
         <v>161</v>
       </c>
       <c r="H26" s="11"/>
@@ -14905,8 +14905,8 @@
       <c r="K26" s="35"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" s="54"/>
-      <c r="B27" s="54"/>
+      <c r="A27" s="56"/>
+      <c r="B27" s="56"/>
       <c r="C27" s="8"/>
       <c r="D27" s="11" t="s">
         <v>156</v>
@@ -14917,15 +14917,15 @@
       <c r="F27" s="11">
         <v>12778</v>
       </c>
-      <c r="G27" s="67"/>
+      <c r="G27" s="71"/>
       <c r="H27" s="11"/>
       <c r="I27" s="35"/>
       <c r="J27" s="35"/>
       <c r="K27" s="35"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" s="54"/>
-      <c r="B28" s="54"/>
+      <c r="A28" s="56"/>
+      <c r="B28" s="56"/>
       <c r="C28" s="8"/>
       <c r="D28" s="11" t="s">
         <v>156</v>
@@ -14936,17 +14936,17 @@
       <c r="F28" s="11">
         <v>12778</v>
       </c>
-      <c r="G28" s="67"/>
+      <c r="G28" s="71"/>
       <c r="H28" s="11"/>
       <c r="I28" s="35"/>
       <c r="J28" s="35"/>
       <c r="K28" s="35"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" s="50" t="s">
+      <c r="A29" s="57" t="s">
         <v>14</v>
       </c>
-      <c r="B29" s="50"/>
+      <c r="B29" s="57"/>
       <c r="C29" s="9"/>
       <c r="D29" s="11" t="s">
         <v>156</v>
@@ -14957,7 +14957,7 @@
       <c r="F29" s="11">
         <v>12778</v>
       </c>
-      <c r="G29" s="67"/>
+      <c r="G29" s="71"/>
       <c r="H29" s="16"/>
       <c r="I29" s="35" t="s">
         <v>145</v>
@@ -14966,10 +14966,10 @@
       <c r="K29" s="35"/>
     </row>
     <row r="30" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="53" t="s">
+      <c r="A30" s="55" t="s">
         <v>62</v>
       </c>
-      <c r="B30" s="53"/>
+      <c r="B30" s="55"/>
       <c r="C30" s="24"/>
       <c r="D30" s="27" t="s">
         <v>157</v>
@@ -14980,7 +14980,7 @@
       <c r="F30" s="27" t="s">
         <v>76</v>
       </c>
-      <c r="G30" s="67"/>
+      <c r="G30" s="71"/>
       <c r="H30" s="16"/>
       <c r="I30" s="35" t="s">
         <v>141</v>
@@ -14989,10 +14989,10 @@
       <c r="K30" s="35"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A31" s="57" t="s">
+      <c r="A31" s="58" t="s">
         <v>18</v>
       </c>
-      <c r="B31" s="57"/>
+      <c r="B31" s="58"/>
       <c r="C31" s="8"/>
       <c r="D31" s="13">
         <v>11578</v>
@@ -15003,7 +15003,7 @@
       <c r="F31" s="13">
         <v>50086</v>
       </c>
-      <c r="G31" s="67"/>
+      <c r="G31" s="71"/>
       <c r="H31" s="11"/>
       <c r="I31" s="35" t="s">
         <v>142</v>
@@ -15012,8 +15012,8 @@
       <c r="K31" s="35"/>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A32" s="57"/>
-      <c r="B32" s="57"/>
+      <c r="A32" s="58"/>
+      <c r="B32" s="58"/>
       <c r="C32" s="8"/>
       <c r="D32" s="13">
         <v>11578</v>
@@ -15024,7 +15024,7 @@
       <c r="F32" s="13">
         <v>50086</v>
       </c>
-      <c r="G32" s="67"/>
+      <c r="G32" s="71"/>
       <c r="H32" s="11"/>
       <c r="I32" s="35" t="s">
         <v>143</v>
@@ -15033,8 +15033,8 @@
       <c r="K32" s="35"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="57"/>
-      <c r="B33" s="57"/>
+      <c r="A33" s="58"/>
+      <c r="B33" s="58"/>
       <c r="C33" s="8"/>
       <c r="D33" s="13">
         <v>11578</v>
@@ -15045,17 +15045,17 @@
       <c r="F33" s="13">
         <v>50086</v>
       </c>
-      <c r="G33" s="67"/>
+      <c r="G33" s="71"/>
       <c r="H33" s="16"/>
       <c r="I33" s="35" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="53" t="s">
+      <c r="A34" s="55" t="s">
         <v>19</v>
       </c>
-      <c r="B34" s="53"/>
+      <c r="B34" s="55"/>
       <c r="C34" s="26"/>
       <c r="D34" s="27">
         <v>11.58</v>
@@ -15066,34 +15066,28 @@
       <c r="F34" s="27">
         <v>50.09</v>
       </c>
-      <c r="G34" s="67"/>
+      <c r="G34" s="71"/>
       <c r="H34" s="16"/>
       <c r="I34" s="35"/>
     </row>
     <row r="35" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="56" t="s">
+      <c r="A35" s="54" t="s">
         <v>151</v>
       </c>
-      <c r="B35" s="56"/>
+      <c r="B35" s="54"/>
       <c r="C35" s="8"/>
       <c r="D35" s="23" t="s">
         <v>155</v>
       </c>
       <c r="E35" s="23"/>
       <c r="F35" s="23"/>
-      <c r="G35" s="68"/>
+      <c r="G35" s="72"/>
       <c r="H35" s="23"/>
     </row>
     <row r="46" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="60" ht="29.25" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="A17:B19"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="G5:H8"/>
-    <mergeCell ref="A12:B14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
     <mergeCell ref="A31:B33"/>
     <mergeCell ref="A34:B34"/>
     <mergeCell ref="A35:B35"/>
@@ -15104,6 +15098,12 @@
     <mergeCell ref="A26:B28"/>
     <mergeCell ref="A29:B29"/>
     <mergeCell ref="A30:B30"/>
+    <mergeCell ref="A17:B19"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="G5:H8"/>
+    <mergeCell ref="A12:B14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A16:B16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -15114,7 +15114,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB2B4029-73E7-4913-B07E-003BD9BD8C9C}">
   <dimension ref="A1:K62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="H62" sqref="H62"/>
     </sheetView>
   </sheetViews>
@@ -15130,11 +15130,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="60" t="s">
         <v>160</v>
       </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="51"/>
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C3" s="3" t="s">
@@ -15179,22 +15179,22 @@
       <c r="D6" s="4">
         <v>179</v>
       </c>
-      <c r="G6" s="55" t="s">
+      <c r="G6" s="61" t="s">
         <v>162</v>
       </c>
-      <c r="H6" s="55"/>
+      <c r="H6" s="61"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F7" s="35" t="s">
         <v>87</v>
       </c>
-      <c r="G7" s="55"/>
-      <c r="H7" s="55"/>
+      <c r="G7" s="61"/>
+      <c r="H7" s="61"/>
       <c r="I7" s="35"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="G8" s="55"/>
-      <c r="H8" s="55"/>
+      <c r="G8" s="61"/>
+      <c r="H8" s="61"/>
       <c r="I8" s="35"/>
     </row>
     <row r="9" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
@@ -15205,8 +15205,8 @@
       <c r="C9" s="6"/>
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
-      <c r="G9" s="55"/>
-      <c r="H9" s="55"/>
+      <c r="G9" s="61"/>
+      <c r="H9" s="61"/>
     </row>
     <row r="10" spans="1:11" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C10" s="7" t="s">
@@ -15229,27 +15229,27 @@
       </c>
     </row>
     <row r="11" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A11" s="52" t="s">
+      <c r="A11" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="B11" s="52"/>
-      <c r="C11" s="52"/>
-      <c r="D11" s="52"/>
-      <c r="E11" s="52"/>
-      <c r="F11" s="52"/>
-      <c r="G11" s="52"/>
-      <c r="H11" s="52"/>
-      <c r="I11" s="71" t="s">
+      <c r="B11" s="59"/>
+      <c r="C11" s="59"/>
+      <c r="D11" s="59"/>
+      <c r="E11" s="59"/>
+      <c r="F11" s="59"/>
+      <c r="G11" s="59"/>
+      <c r="H11" s="59"/>
+      <c r="I11" s="73" t="s">
         <v>169</v>
       </c>
-      <c r="J11" s="72"/>
-      <c r="K11" s="72"/>
+      <c r="J11" s="74"/>
+      <c r="K11" s="74"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="54" t="s">
+      <c r="A12" s="56" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="54"/>
+      <c r="B12" s="56"/>
       <c r="C12" s="10">
         <v>561206</v>
       </c>
@@ -15268,13 +15268,13 @@
       <c r="H12" s="10">
         <v>724775</v>
       </c>
-      <c r="I12" s="71"/>
-      <c r="J12" s="72"/>
-      <c r="K12" s="72"/>
+      <c r="I12" s="73"/>
+      <c r="J12" s="74"/>
+      <c r="K12" s="74"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="54"/>
-      <c r="B13" s="54"/>
+      <c r="A13" s="56"/>
+      <c r="B13" s="56"/>
       <c r="C13" s="10">
         <v>560348</v>
       </c>
@@ -15293,13 +15293,13 @@
       <c r="H13" s="10">
         <v>727716</v>
       </c>
-      <c r="I13" s="71"/>
-      <c r="J13" s="72"/>
-      <c r="K13" s="72"/>
+      <c r="I13" s="73"/>
+      <c r="J13" s="74"/>
+      <c r="K13" s="74"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="54"/>
-      <c r="B14" s="54"/>
+      <c r="A14" s="56"/>
+      <c r="B14" s="56"/>
       <c r="C14" s="13">
         <v>553310</v>
       </c>
@@ -15318,15 +15318,15 @@
       <c r="H14" s="10">
         <v>727869</v>
       </c>
-      <c r="I14" s="71"/>
-      <c r="J14" s="72"/>
-      <c r="K14" s="72"/>
+      <c r="I14" s="73"/>
+      <c r="J14" s="74"/>
+      <c r="K14" s="74"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="50" t="s">
+      <c r="A15" s="57" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="50"/>
+      <c r="B15" s="57"/>
       <c r="C15" s="12">
         <v>558288</v>
       </c>
@@ -15345,15 +15345,15 @@
       <c r="H15" s="12">
         <v>726787</v>
       </c>
-      <c r="I15" s="71"/>
-      <c r="J15" s="72"/>
-      <c r="K15" s="72"/>
+      <c r="I15" s="73"/>
+      <c r="J15" s="74"/>
+      <c r="K15" s="74"/>
     </row>
     <row r="16" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="53" t="s">
+      <c r="A16" s="55" t="s">
         <v>62</v>
       </c>
-      <c r="B16" s="53"/>
+      <c r="B16" s="55"/>
       <c r="C16" s="27" t="s">
         <v>163</v>
       </c>
@@ -15372,27 +15372,27 @@
       <c r="H16" s="27" t="s">
         <v>168</v>
       </c>
-      <c r="I16" s="71"/>
-      <c r="J16" s="72"/>
-      <c r="K16" s="72"/>
+      <c r="I16" s="73"/>
+      <c r="J16" s="74"/>
+      <c r="K16" s="74"/>
     </row>
     <row r="20" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A20" s="52" t="s">
+      <c r="A20" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="B20" s="52"/>
-      <c r="C20" s="52"/>
-      <c r="D20" s="52"/>
-      <c r="E20" s="52"/>
-      <c r="F20" s="52"/>
-      <c r="G20" s="52"/>
-      <c r="H20" s="52"/>
+      <c r="B20" s="59"/>
+      <c r="C20" s="59"/>
+      <c r="D20" s="59"/>
+      <c r="E20" s="59"/>
+      <c r="F20" s="59"/>
+      <c r="G20" s="59"/>
+      <c r="H20" s="59"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="54" t="s">
+      <c r="A21" s="56" t="s">
         <v>13</v>
       </c>
-      <c r="B21" s="54"/>
+      <c r="B21" s="56"/>
       <c r="C21" s="10">
         <v>508707</v>
       </c>
@@ -15413,8 +15413,8 @@
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="54"/>
-      <c r="B22" s="54"/>
+      <c r="A22" s="56"/>
+      <c r="B22" s="56"/>
       <c r="C22" s="10">
         <v>516344</v>
       </c>
@@ -15435,8 +15435,8 @@
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="54"/>
-      <c r="B23" s="54"/>
+      <c r="A23" s="56"/>
+      <c r="B23" s="56"/>
       <c r="C23" s="10">
         <v>509207</v>
       </c>
@@ -15457,10 +15457,10 @@
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="50" t="s">
+      <c r="A24" s="57" t="s">
         <v>14</v>
       </c>
-      <c r="B24" s="50"/>
+      <c r="B24" s="57"/>
       <c r="C24" s="15">
         <v>511419</v>
       </c>
@@ -15481,10 +15481,10 @@
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="53" t="s">
+      <c r="A25" s="55" t="s">
         <v>62</v>
       </c>
-      <c r="B25" s="53"/>
+      <c r="B25" s="55"/>
       <c r="C25" s="28" t="s">
         <v>211</v>
       </c>
@@ -15515,22 +15515,22 @@
       <c r="H26" s="20"/>
     </row>
     <row r="28" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A28" s="52" t="s">
+      <c r="A28" s="59" t="s">
         <v>16</v>
       </c>
-      <c r="B28" s="52"/>
-      <c r="C28" s="52"/>
-      <c r="D28" s="52"/>
-      <c r="E28" s="52"/>
-      <c r="F28" s="52"/>
-      <c r="G28" s="52"/>
-      <c r="H28" s="52"/>
+      <c r="B28" s="59"/>
+      <c r="C28" s="59"/>
+      <c r="D28" s="59"/>
+      <c r="E28" s="59"/>
+      <c r="F28" s="59"/>
+      <c r="G28" s="59"/>
+      <c r="H28" s="59"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="54" t="s">
+      <c r="A29" s="56" t="s">
         <v>13</v>
       </c>
-      <c r="B29" s="54"/>
+      <c r="B29" s="56"/>
       <c r="C29" s="13">
         <v>533882</v>
       </c>
@@ -15551,8 +15551,8 @@
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="54"/>
-      <c r="B30" s="54"/>
+      <c r="A30" s="56"/>
+      <c r="B30" s="56"/>
       <c r="C30" s="13">
         <v>538718</v>
       </c>
@@ -15573,8 +15573,8 @@
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="54"/>
-      <c r="B31" s="54"/>
+      <c r="A31" s="56"/>
+      <c r="B31" s="56"/>
       <c r="C31" s="13">
         <v>533202</v>
       </c>
@@ -15595,10 +15595,10 @@
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="50" t="s">
+      <c r="A32" s="57" t="s">
         <v>14</v>
       </c>
-      <c r="B32" s="50"/>
+      <c r="B32" s="57"/>
       <c r="C32" s="15">
         <v>535267</v>
       </c>
@@ -15619,10 +15619,10 @@
       </c>
     </row>
     <row r="33" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="53" t="s">
+      <c r="A33" s="55" t="s">
         <v>62</v>
       </c>
-      <c r="B33" s="53"/>
+      <c r="B33" s="55"/>
       <c r="C33" s="27" t="s">
         <v>232</v>
       </c>
@@ -15663,22 +15663,22 @@
       </c>
     </row>
     <row r="37" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A37" s="52" t="s">
+      <c r="A37" s="59" t="s">
         <v>17</v>
       </c>
-      <c r="B37" s="52"/>
-      <c r="C37" s="52"/>
-      <c r="D37" s="52"/>
-      <c r="E37" s="52"/>
-      <c r="F37" s="52"/>
-      <c r="G37" s="52"/>
-      <c r="H37" s="52"/>
+      <c r="B37" s="59"/>
+      <c r="C37" s="59"/>
+      <c r="D37" s="59"/>
+      <c r="E37" s="59"/>
+      <c r="F37" s="59"/>
+      <c r="G37" s="59"/>
+      <c r="H37" s="59"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="54" t="s">
+      <c r="A38" s="56" t="s">
         <v>13</v>
       </c>
-      <c r="B38" s="54"/>
+      <c r="B38" s="56"/>
       <c r="C38" s="8"/>
       <c r="D38" s="11">
         <v>48572</v>
@@ -15693,8 +15693,8 @@
       <c r="H38" s="21"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="54"/>
-      <c r="B39" s="54"/>
+      <c r="A39" s="56"/>
+      <c r="B39" s="56"/>
       <c r="C39" s="8"/>
       <c r="D39" s="11">
         <v>48572</v>
@@ -15709,8 +15709,8 @@
       <c r="H39" s="21"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="54"/>
-      <c r="B40" s="54"/>
+      <c r="A40" s="56"/>
+      <c r="B40" s="56"/>
       <c r="C40" s="8"/>
       <c r="D40" s="11">
         <v>48572</v>
@@ -15725,10 +15725,10 @@
       <c r="H40" s="21"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="50" t="s">
+      <c r="A41" s="57" t="s">
         <v>14</v>
       </c>
-      <c r="B41" s="50"/>
+      <c r="B41" s="57"/>
       <c r="C41" s="9"/>
       <c r="D41" s="16">
         <v>48572</v>
@@ -15743,10 +15743,10 @@
       <c r="H41" s="22"/>
     </row>
     <row r="42" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A42" s="53" t="s">
+      <c r="A42" s="55" t="s">
         <v>62</v>
       </c>
-      <c r="B42" s="53"/>
+      <c r="B42" s="55"/>
       <c r="C42" s="24"/>
       <c r="D42" s="27" t="s">
         <v>174</v>
@@ -15761,10 +15761,10 @@
       <c r="H42" s="22"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" s="57" t="s">
+      <c r="A43" s="58" t="s">
         <v>18</v>
       </c>
-      <c r="B43" s="57"/>
+      <c r="B43" s="58"/>
       <c r="C43" s="8"/>
       <c r="D43" s="13">
         <v>13176</v>
@@ -15779,8 +15779,8 @@
       <c r="H43" s="21"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" s="57"/>
-      <c r="B44" s="57"/>
+      <c r="A44" s="58"/>
+      <c r="B44" s="58"/>
       <c r="C44" s="8"/>
       <c r="D44" s="13">
         <v>13176</v>
@@ -15795,8 +15795,8 @@
       <c r="H44" s="21"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" s="57"/>
-      <c r="B45" s="57"/>
+      <c r="A45" s="58"/>
+      <c r="B45" s="58"/>
       <c r="C45" s="8"/>
       <c r="D45" s="13">
         <v>13176</v>
@@ -15811,10 +15811,10 @@
       <c r="H45" s="21"/>
     </row>
     <row r="46" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A46" s="53" t="s">
+      <c r="A46" s="55" t="s">
         <v>19</v>
       </c>
-      <c r="B46" s="53"/>
+      <c r="B46" s="55"/>
       <c r="C46" s="24"/>
       <c r="D46" s="27">
         <v>13.18</v>
@@ -15849,22 +15849,22 @@
       </c>
     </row>
     <row r="50" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A50" s="52" t="s">
+      <c r="A50" s="59" t="s">
         <v>20</v>
       </c>
-      <c r="B50" s="52"/>
-      <c r="C50" s="52"/>
-      <c r="D50" s="52"/>
-      <c r="E50" s="52"/>
-      <c r="F50" s="52"/>
-      <c r="G50" s="52"/>
-      <c r="H50" s="52"/>
+      <c r="B50" s="59"/>
+      <c r="C50" s="59"/>
+      <c r="D50" s="59"/>
+      <c r="E50" s="59"/>
+      <c r="F50" s="59"/>
+      <c r="G50" s="59"/>
+      <c r="H50" s="59"/>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A51" s="54" t="s">
+      <c r="A51" s="56" t="s">
         <v>13</v>
       </c>
-      <c r="B51" s="54"/>
+      <c r="B51" s="56"/>
       <c r="C51" s="8"/>
       <c r="D51" s="11" t="s">
         <v>185</v>
@@ -15878,13 +15878,13 @@
       <c r="G51" s="11" t="s">
         <v>183</v>
       </c>
-      <c r="H51" s="73" t="s">
+      <c r="H51" s="50" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A52" s="54"/>
-      <c r="B52" s="54"/>
+      <c r="A52" s="56"/>
+      <c r="B52" s="56"/>
       <c r="C52" s="8"/>
       <c r="D52" s="11" t="s">
         <v>185</v>
@@ -15903,8 +15903,8 @@
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A53" s="54"/>
-      <c r="B53" s="54"/>
+      <c r="A53" s="56"/>
+      <c r="B53" s="56"/>
       <c r="C53" s="8"/>
       <c r="D53" s="11" t="s">
         <v>185</v>
@@ -15923,10 +15923,10 @@
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A54" s="50" t="s">
+      <c r="A54" s="57" t="s">
         <v>14</v>
       </c>
-      <c r="B54" s="50"/>
+      <c r="B54" s="57"/>
       <c r="C54" s="9"/>
       <c r="D54" s="16" t="s">
         <v>185</v>
@@ -15945,10 +15945,10 @@
       </c>
     </row>
     <row r="55" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A55" s="53" t="s">
+      <c r="A55" s="55" t="s">
         <v>62</v>
       </c>
-      <c r="B55" s="53"/>
+      <c r="B55" s="55"/>
       <c r="C55" s="24"/>
       <c r="D55" s="27" t="s">
         <v>186</v>
@@ -15967,10 +15967,10 @@
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A56" s="57" t="s">
+      <c r="A56" s="58" t="s">
         <v>18</v>
       </c>
-      <c r="B56" s="57"/>
+      <c r="B56" s="58"/>
       <c r="C56" s="8"/>
       <c r="D56" s="13">
         <v>13128</v>
@@ -15989,8 +15989,8 @@
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A57" s="57"/>
-      <c r="B57" s="57"/>
+      <c r="A57" s="58"/>
+      <c r="B57" s="58"/>
       <c r="C57" s="8"/>
       <c r="D57" s="13">
         <v>13128</v>
@@ -16009,8 +16009,8 @@
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A58" s="57"/>
-      <c r="B58" s="57"/>
+      <c r="A58" s="58"/>
+      <c r="B58" s="58"/>
       <c r="C58" s="8"/>
       <c r="D58" s="13">
         <v>13128</v>
@@ -16029,10 +16029,10 @@
       </c>
     </row>
     <row r="59" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A59" s="53" t="s">
+      <c r="A59" s="55" t="s">
         <v>19</v>
       </c>
-      <c r="B59" s="53"/>
+      <c r="B59" s="55"/>
       <c r="C59" s="26"/>
       <c r="D59" s="27">
         <v>13.13</v>
@@ -16046,36 +16046,23 @@
       <c r="G59" s="25">
         <v>83.51</v>
       </c>
-      <c r="H59" s="74">
+      <c r="H59" s="51">
         <v>41.2</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D60" s="69" t="s">
+      <c r="D60" s="75" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D61" s="70"/>
+      <c r="D61" s="76"/>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D62" s="70"/>
+      <c r="D62" s="76"/>
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="A59:B59"/>
-    <mergeCell ref="I11:K16"/>
-    <mergeCell ref="A43:B45"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="A50:H50"/>
-    <mergeCell ref="A51:B53"/>
-    <mergeCell ref="A54:B54"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="A37:H37"/>
-    <mergeCell ref="A38:B40"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="A16:B16"/>
     <mergeCell ref="D60:D62"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="G6:H9"/>
@@ -16091,6 +16078,19 @@
     <mergeCell ref="A29:B31"/>
     <mergeCell ref="A55:B55"/>
     <mergeCell ref="A56:B58"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="I11:K16"/>
+    <mergeCell ref="A43:B45"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="A50:H50"/>
+    <mergeCell ref="A51:B53"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="A37:H37"/>
+    <mergeCell ref="A38:B40"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="A16:B16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -16101,8 +16101,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7126B3F8-CE12-4BD3-9953-4236673B1403}">
   <dimension ref="A1:T114"/>
   <sheetViews>
-    <sheetView topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="K115" sqref="K115"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="U19" sqref="U19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16161,45 +16161,45 @@
       </c>
     </row>
     <row r="9" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="59" t="s">
+      <c r="A9" s="69" t="s">
         <v>115</v>
       </c>
-      <c r="B9" s="59"/>
-      <c r="C9" s="59"/>
-      <c r="D9" s="59"/>
-      <c r="E9" s="59"/>
-      <c r="F9" s="59"/>
-      <c r="J9" s="59" t="s">
+      <c r="B9" s="69"/>
+      <c r="C9" s="69"/>
+      <c r="D9" s="69"/>
+      <c r="E9" s="69"/>
+      <c r="F9" s="69"/>
+      <c r="J9" s="69" t="s">
         <v>116</v>
       </c>
-      <c r="K9" s="59"/>
-      <c r="L9" s="59"/>
-      <c r="M9" s="59"/>
-      <c r="N9" s="59"/>
-      <c r="O9" s="59"/>
+      <c r="K9" s="69"/>
+      <c r="L9" s="69"/>
+      <c r="M9" s="69"/>
+      <c r="N9" s="69"/>
+      <c r="O9" s="69"/>
       <c r="P9" s="40"/>
       <c r="Q9" s="40"/>
     </row>
     <row r="11" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A11" s="61" t="s">
+      <c r="A11" s="65" t="s">
         <v>129</v>
       </c>
-      <c r="B11" s="61"/>
-      <c r="C11" s="61"/>
-      <c r="D11" s="61"/>
-      <c r="E11" s="61"/>
-      <c r="F11" s="61"/>
-      <c r="G11" s="61"/>
-      <c r="H11" s="61"/>
-      <c r="I11" s="61"/>
-      <c r="J11" s="61"/>
-      <c r="K11" s="61"/>
-      <c r="L11" s="61"/>
-      <c r="M11" s="61"/>
-      <c r="N11" s="61"/>
-      <c r="O11" s="61"/>
-      <c r="P11" s="61"/>
-      <c r="Q11" s="61"/>
+      <c r="B11" s="65"/>
+      <c r="C11" s="65"/>
+      <c r="D11" s="65"/>
+      <c r="E11" s="65"/>
+      <c r="F11" s="65"/>
+      <c r="G11" s="65"/>
+      <c r="H11" s="65"/>
+      <c r="I11" s="65"/>
+      <c r="J11" s="65"/>
+      <c r="K11" s="65"/>
+      <c r="L11" s="65"/>
+      <c r="M11" s="65"/>
+      <c r="N11" s="65"/>
+      <c r="O11" s="65"/>
+      <c r="P11" s="65"/>
+      <c r="Q11" s="65"/>
       <c r="R11" s="20"/>
       <c r="S11" s="20"/>
       <c r="T11" s="20"/>
@@ -16224,14 +16224,14 @@
       <c r="B39" s="38"/>
       <c r="C39" s="38"/>
       <c r="D39" s="38"/>
-      <c r="E39" s="53" t="s">
+      <c r="E39" s="55" t="s">
         <v>62</v>
       </c>
-      <c r="F39" s="53"/>
-      <c r="G39" s="53" t="s">
+      <c r="F39" s="55"/>
+      <c r="G39" s="55" t="s">
         <v>19</v>
       </c>
-      <c r="H39" s="53"/>
+      <c r="H39" s="55"/>
       <c r="I39" s="35"/>
     </row>
     <row r="40" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -16254,12 +16254,12 @@
       <c r="I40" s="44"/>
     </row>
     <row r="41" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A41" s="60" t="s">
+      <c r="A41" s="63" t="s">
         <v>121</v>
       </c>
-      <c r="B41" s="60"/>
-      <c r="C41" s="60"/>
-      <c r="D41" s="60"/>
+      <c r="B41" s="63"/>
+      <c r="C41" s="63"/>
+      <c r="D41" s="63"/>
       <c r="E41" s="42">
         <v>955.8</v>
       </c>
@@ -16274,12 +16274,12 @@
       </c>
     </row>
     <row r="42" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A42" s="60" t="s">
+      <c r="A42" s="63" t="s">
         <v>120</v>
       </c>
-      <c r="B42" s="60"/>
-      <c r="C42" s="60"/>
-      <c r="D42" s="60"/>
+      <c r="B42" s="63"/>
+      <c r="C42" s="63"/>
+      <c r="D42" s="63"/>
       <c r="E42" s="42">
         <v>475</v>
       </c>
@@ -16294,12 +16294,12 @@
       </c>
     </row>
     <row r="43" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A43" s="60" t="s">
+      <c r="A43" s="63" t="s">
         <v>119</v>
       </c>
-      <c r="B43" s="60"/>
-      <c r="C43" s="60"/>
-      <c r="D43" s="60"/>
+      <c r="B43" s="63"/>
+      <c r="C43" s="63"/>
+      <c r="D43" s="63"/>
       <c r="E43" s="42">
         <v>447.7</v>
       </c>
@@ -16314,12 +16314,12 @@
       </c>
     </row>
     <row r="44" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A44" s="60" t="s">
+      <c r="A44" s="63" t="s">
         <v>122</v>
       </c>
-      <c r="B44" s="60"/>
-      <c r="C44" s="60"/>
-      <c r="D44" s="60"/>
+      <c r="B44" s="63"/>
+      <c r="C44" s="63"/>
+      <c r="D44" s="63"/>
       <c r="E44" s="42">
         <v>686.6</v>
       </c>
@@ -16334,12 +16334,12 @@
       </c>
     </row>
     <row r="45" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A45" s="62" t="s">
+      <c r="A45" s="66" t="s">
         <v>123</v>
       </c>
-      <c r="B45" s="63"/>
-      <c r="C45" s="63"/>
-      <c r="D45" s="64"/>
+      <c r="B45" s="67"/>
+      <c r="C45" s="67"/>
+      <c r="D45" s="68"/>
       <c r="E45" s="42">
         <v>565.20000000000005</v>
       </c>
@@ -16354,12 +16354,12 @@
       </c>
     </row>
     <row r="46" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A46" s="62" t="s">
+      <c r="A46" s="66" t="s">
         <v>124</v>
       </c>
-      <c r="B46" s="63"/>
-      <c r="C46" s="63"/>
-      <c r="D46" s="64"/>
+      <c r="B46" s="67"/>
+      <c r="C46" s="67"/>
+      <c r="D46" s="68"/>
       <c r="E46" s="42">
         <v>196.4</v>
       </c>
@@ -16374,12 +16374,12 @@
       </c>
     </row>
     <row r="47" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A47" s="62" t="s">
+      <c r="A47" s="66" t="s">
         <v>127</v>
       </c>
-      <c r="B47" s="63"/>
-      <c r="C47" s="63"/>
-      <c r="D47" s="64"/>
+      <c r="B47" s="67"/>
+      <c r="C47" s="67"/>
+      <c r="D47" s="68"/>
       <c r="E47" s="42">
         <v>304.39999999999998</v>
       </c>
@@ -16394,12 +16394,12 @@
       </c>
     </row>
     <row r="48" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A48" s="62" t="s">
+      <c r="A48" s="66" t="s">
         <v>128</v>
       </c>
-      <c r="B48" s="63"/>
-      <c r="C48" s="63"/>
-      <c r="D48" s="64"/>
+      <c r="B48" s="67"/>
+      <c r="C48" s="67"/>
+      <c r="D48" s="68"/>
       <c r="E48" s="42">
         <v>299.2</v>
       </c>
@@ -16414,25 +16414,25 @@
       </c>
     </row>
     <row r="62" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A62" s="61" t="s">
+      <c r="A62" s="65" t="s">
         <v>131</v>
       </c>
-      <c r="B62" s="61"/>
-      <c r="C62" s="61"/>
-      <c r="D62" s="61"/>
-      <c r="E62" s="61"/>
-      <c r="F62" s="61"/>
-      <c r="G62" s="61"/>
-      <c r="H62" s="61"/>
-      <c r="I62" s="61"/>
-      <c r="J62" s="61"/>
-      <c r="K62" s="61"/>
-      <c r="L62" s="61"/>
-      <c r="M62" s="61"/>
-      <c r="N62" s="61"/>
-      <c r="O62" s="61"/>
-      <c r="P62" s="61"/>
-      <c r="Q62" s="61"/>
+      <c r="B62" s="65"/>
+      <c r="C62" s="65"/>
+      <c r="D62" s="65"/>
+      <c r="E62" s="65"/>
+      <c r="F62" s="65"/>
+      <c r="G62" s="65"/>
+      <c r="H62" s="65"/>
+      <c r="I62" s="65"/>
+      <c r="J62" s="65"/>
+      <c r="K62" s="65"/>
+      <c r="L62" s="65"/>
+      <c r="M62" s="65"/>
+      <c r="N62" s="65"/>
+      <c r="O62" s="65"/>
+      <c r="P62" s="65"/>
+      <c r="Q62" s="65"/>
     </row>
     <row r="97" spans="5:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="H97" s="41"/>
@@ -16462,11 +16462,11 @@
       <c r="F105" s="38"/>
       <c r="G105" s="38"/>
       <c r="H105" s="38"/>
-      <c r="I105" s="53" t="s">
+      <c r="I105" s="55" t="s">
         <v>62</v>
       </c>
-      <c r="J105" s="53"/>
-      <c r="K105" s="53"/>
+      <c r="J105" s="55"/>
+      <c r="K105" s="55"/>
       <c r="L105" s="47"/>
     </row>
     <row r="106" spans="5:12" ht="63" x14ac:dyDescent="0.25">
@@ -16486,12 +16486,12 @@
       <c r="L106" s="48"/>
     </row>
     <row r="107" spans="5:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E107" s="60" t="s">
+      <c r="E107" s="63" t="s">
         <v>132</v>
       </c>
-      <c r="F107" s="60"/>
-      <c r="G107" s="60"/>
-      <c r="H107" s="60"/>
+      <c r="F107" s="63"/>
+      <c r="G107" s="63"/>
+      <c r="H107" s="63"/>
       <c r="I107" s="42">
         <v>0.56000000000000005</v>
       </c>
@@ -16504,12 +16504,12 @@
       <c r="L107" s="49"/>
     </row>
     <row r="108" spans="5:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E108" s="60" t="s">
+      <c r="E108" s="63" t="s">
         <v>8</v>
       </c>
-      <c r="F108" s="60"/>
-      <c r="G108" s="60"/>
-      <c r="H108" s="60"/>
+      <c r="F108" s="63"/>
+      <c r="G108" s="63"/>
+      <c r="H108" s="63"/>
       <c r="I108" s="42">
         <v>0.61</v>
       </c>
@@ -16522,12 +16522,12 @@
       <c r="L108" s="46"/>
     </row>
     <row r="109" spans="5:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E109" s="60" t="s">
+      <c r="E109" s="63" t="s">
         <v>9</v>
       </c>
-      <c r="F109" s="60"/>
-      <c r="G109" s="60"/>
-      <c r="H109" s="60"/>
+      <c r="F109" s="63"/>
+      <c r="G109" s="63"/>
+      <c r="H109" s="63"/>
       <c r="I109" s="42">
         <v>0.74</v>
       </c>
@@ -16540,12 +16540,12 @@
       <c r="L109" s="46"/>
     </row>
     <row r="110" spans="5:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E110" s="60" t="s">
+      <c r="E110" s="63" t="s">
         <v>10</v>
       </c>
-      <c r="F110" s="60"/>
-      <c r="G110" s="60"/>
-      <c r="H110" s="60"/>
+      <c r="F110" s="63"/>
+      <c r="G110" s="63"/>
+      <c r="H110" s="63"/>
       <c r="I110" s="42">
         <v>0.86</v>
       </c>
@@ -16558,12 +16558,12 @@
       <c r="L110" s="46"/>
     </row>
     <row r="111" spans="5:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E111" s="60" t="s">
+      <c r="E111" s="63" t="s">
         <v>11</v>
       </c>
-      <c r="F111" s="60"/>
-      <c r="G111" s="60"/>
-      <c r="H111" s="60"/>
+      <c r="F111" s="63"/>
+      <c r="G111" s="63"/>
+      <c r="H111" s="63"/>
       <c r="I111" s="42">
         <v>0.4</v>
       </c>
@@ -16576,12 +16576,12 @@
       <c r="L111" s="46"/>
     </row>
     <row r="112" spans="5:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E112" s="60" t="s">
+      <c r="E112" s="63" t="s">
         <v>12</v>
       </c>
-      <c r="F112" s="60"/>
-      <c r="G112" s="60"/>
-      <c r="H112" s="60"/>
+      <c r="F112" s="63"/>
+      <c r="G112" s="63"/>
+      <c r="H112" s="63"/>
       <c r="I112" s="42">
         <v>0.73</v>
       </c>
@@ -16594,20 +16594,20 @@
       <c r="L112" s="46"/>
     </row>
     <row r="113" spans="5:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E113" s="65"/>
-      <c r="F113" s="65"/>
-      <c r="G113" s="65"/>
-      <c r="H113" s="65"/>
+      <c r="E113" s="64"/>
+      <c r="F113" s="64"/>
+      <c r="G113" s="64"/>
+      <c r="H113" s="64"/>
       <c r="I113" s="46"/>
       <c r="J113" s="46"/>
       <c r="K113" s="46"/>
       <c r="L113" s="46"/>
     </row>
     <row r="114" spans="5:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E114" s="65"/>
-      <c r="F114" s="65"/>
-      <c r="G114" s="65"/>
-      <c r="H114" s="65"/>
+      <c r="E114" s="64"/>
+      <c r="F114" s="64"/>
+      <c r="G114" s="64"/>
+      <c r="H114" s="64"/>
       <c r="I114" s="46"/>
       <c r="J114" s="46"/>
       <c r="K114" s="46"/>
@@ -16615,12 +16615,11 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="A41:D41"/>
-    <mergeCell ref="A9:F9"/>
-    <mergeCell ref="J9:O9"/>
-    <mergeCell ref="A11:Q11"/>
-    <mergeCell ref="E39:F39"/>
-    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="E110:H110"/>
+    <mergeCell ref="E111:H111"/>
+    <mergeCell ref="E112:H112"/>
+    <mergeCell ref="E113:H113"/>
+    <mergeCell ref="E114:H114"/>
     <mergeCell ref="E109:H109"/>
     <mergeCell ref="A42:D42"/>
     <mergeCell ref="A43:D43"/>
@@ -16633,11 +16632,12 @@
     <mergeCell ref="I105:K105"/>
     <mergeCell ref="E107:H107"/>
     <mergeCell ref="E108:H108"/>
-    <mergeCell ref="E110:H110"/>
-    <mergeCell ref="E111:H111"/>
-    <mergeCell ref="E112:H112"/>
-    <mergeCell ref="E113:H113"/>
-    <mergeCell ref="E114:H114"/>
+    <mergeCell ref="A41:D41"/>
+    <mergeCell ref="A9:F9"/>
+    <mergeCell ref="J9:O9"/>
+    <mergeCell ref="A11:Q11"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="G39:H39"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -16648,8 +16648,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15DD7F52-A5C3-486A-839D-8D1373B885C5}">
   <dimension ref="A1:N82"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="G85" sqref="G85"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="I41" sqref="I41:I43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16665,11 +16665,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="60" t="s">
         <v>107</v>
       </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="51"/>
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C3" s="3" t="s">
@@ -16702,10 +16702,10 @@
       <c r="D5" s="4">
         <v>1.4</v>
       </c>
-      <c r="G5" s="58" t="s">
+      <c r="G5" s="62" t="s">
         <v>108</v>
       </c>
-      <c r="H5" s="58"/>
+      <c r="H5" s="62"/>
     </row>
     <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C6" s="3" t="s">
@@ -16717,16 +16717,16 @@
       <c r="F6" s="35" t="s">
         <v>87</v>
       </c>
-      <c r="G6" s="58"/>
-      <c r="H6" s="58"/>
+      <c r="G6" s="62"/>
+      <c r="H6" s="62"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="G7" s="58"/>
-      <c r="H7" s="58"/>
+      <c r="G7" s="62"/>
+      <c r="H7" s="62"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="G8" s="58"/>
-      <c r="H8" s="58"/>
+      <c r="G8" s="62"/>
+      <c r="H8" s="62"/>
     </row>
     <row r="9" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
@@ -16773,10 +16773,10 @@
       <c r="H11" s="34"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="54" t="s">
+      <c r="A12" s="56" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="54"/>
+      <c r="B12" s="56"/>
       <c r="C12" s="8"/>
       <c r="D12" s="11"/>
       <c r="E12" s="11"/>
@@ -16785,8 +16785,8 @@
       <c r="H12" s="21"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="54"/>
-      <c r="B13" s="54"/>
+      <c r="A13" s="56"/>
+      <c r="B13" s="56"/>
       <c r="C13" s="8"/>
       <c r="D13" s="11"/>
       <c r="E13" s="11"/>
@@ -16795,8 +16795,8 @@
       <c r="H13" s="21"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="54"/>
-      <c r="B14" s="54"/>
+      <c r="A14" s="56"/>
+      <c r="B14" s="56"/>
       <c r="C14" s="8"/>
       <c r="D14" s="11"/>
       <c r="E14" s="11"/>
@@ -16805,10 +16805,10 @@
       <c r="H14" s="21"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="50" t="s">
+      <c r="A15" s="57" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="50"/>
+      <c r="B15" s="57"/>
       <c r="C15" s="9"/>
       <c r="D15" s="11"/>
       <c r="E15" s="11"/>
@@ -16818,10 +16818,10 @@
       <c r="I15" s="35"/>
     </row>
     <row r="16" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="53" t="s">
+      <c r="A16" s="55" t="s">
         <v>62</v>
       </c>
-      <c r="B16" s="53"/>
+      <c r="B16" s="55"/>
       <c r="C16" s="24"/>
       <c r="D16" s="27"/>
       <c r="E16" s="27"/>
@@ -16831,10 +16831,10 @@
       <c r="I16" s="35"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="57" t="s">
+      <c r="A17" s="58" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="57"/>
+      <c r="B17" s="58"/>
       <c r="C17" s="8"/>
       <c r="D17" s="13"/>
       <c r="E17" s="13"/>
@@ -16843,8 +16843,8 @@
       <c r="H17" s="21"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="57"/>
-      <c r="B18" s="57"/>
+      <c r="A18" s="58"/>
+      <c r="B18" s="58"/>
       <c r="C18" s="8"/>
       <c r="D18" s="13"/>
       <c r="E18" s="13"/>
@@ -16853,8 +16853,8 @@
       <c r="H18" s="21"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="57"/>
-      <c r="B19" s="57"/>
+      <c r="A19" s="58"/>
+      <c r="B19" s="58"/>
       <c r="C19" s="8"/>
       <c r="D19" s="13"/>
       <c r="E19" s="13"/>
@@ -16863,10 +16863,10 @@
       <c r="H19" s="21"/>
     </row>
     <row r="20" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="53" t="s">
+      <c r="A20" s="55" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="53"/>
+      <c r="B20" s="55"/>
       <c r="C20" s="24"/>
       <c r="D20" s="27"/>
       <c r="E20" s="37"/>
@@ -16875,10 +16875,10 @@
       <c r="H20" s="29"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="56" t="s">
+      <c r="A21" s="54" t="s">
         <v>64</v>
       </c>
-      <c r="B21" s="56"/>
+      <c r="B21" s="54"/>
       <c r="C21" s="8"/>
       <c r="D21" s="23"/>
       <c r="E21" s="23"/>
@@ -16907,22 +16907,22 @@
       </c>
     </row>
     <row r="25" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A25" s="52" t="s">
+      <c r="A25" s="59" t="s">
         <v>20</v>
       </c>
-      <c r="B25" s="52"/>
-      <c r="C25" s="52"/>
-      <c r="D25" s="52"/>
-      <c r="E25" s="52"/>
-      <c r="F25" s="52"/>
-      <c r="G25" s="52"/>
-      <c r="H25" s="52"/>
+      <c r="B25" s="59"/>
+      <c r="C25" s="59"/>
+      <c r="D25" s="59"/>
+      <c r="E25" s="59"/>
+      <c r="F25" s="59"/>
+      <c r="G25" s="59"/>
+      <c r="H25" s="59"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" s="54" t="s">
+      <c r="A26" s="56" t="s">
         <v>13</v>
       </c>
-      <c r="B26" s="54"/>
+      <c r="B26" s="56"/>
       <c r="C26" s="8"/>
       <c r="D26" s="11" t="s">
         <v>111</v>
@@ -16938,8 +16938,8 @@
       <c r="K26" s="35"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" s="54"/>
-      <c r="B27" s="54"/>
+      <c r="A27" s="56"/>
+      <c r="B27" s="56"/>
       <c r="C27" s="8"/>
       <c r="D27" s="11" t="s">
         <v>111</v>
@@ -16955,8 +16955,8 @@
       <c r="K27" s="35"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" s="54"/>
-      <c r="B28" s="54"/>
+      <c r="A28" s="56"/>
+      <c r="B28" s="56"/>
       <c r="C28" s="8"/>
       <c r="D28" s="11" t="s">
         <v>111</v>
@@ -16972,10 +16972,10 @@
       <c r="K28" s="35"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" s="50" t="s">
+      <c r="A29" s="57" t="s">
         <v>14</v>
       </c>
-      <c r="B29" s="50"/>
+      <c r="B29" s="57"/>
       <c r="C29" s="9"/>
       <c r="D29" s="11" t="s">
         <v>111</v>
@@ -16991,10 +16991,10 @@
       <c r="K29" s="35"/>
     </row>
     <row r="30" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="53" t="s">
+      <c r="A30" s="55" t="s">
         <v>62</v>
       </c>
-      <c r="B30" s="53"/>
+      <c r="B30" s="55"/>
       <c r="C30" s="24"/>
       <c r="D30" s="27" t="s">
         <v>112</v>
@@ -17008,10 +17008,10 @@
       <c r="K30" s="35"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A31" s="57" t="s">
+      <c r="A31" s="58" t="s">
         <v>18</v>
       </c>
-      <c r="B31" s="57"/>
+      <c r="B31" s="58"/>
       <c r="C31" s="8"/>
       <c r="D31" s="13" t="s">
         <v>113</v>
@@ -17025,8 +17025,8 @@
       <c r="K31" s="35"/>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A32" s="57"/>
-      <c r="B32" s="57"/>
+      <c r="A32" s="58"/>
+      <c r="B32" s="58"/>
       <c r="C32" s="8"/>
       <c r="D32" s="13" t="s">
         <v>113</v>
@@ -17042,8 +17042,8 @@
       <c r="K32" s="35"/>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A33" s="57"/>
-      <c r="B33" s="57"/>
+      <c r="A33" s="58"/>
+      <c r="B33" s="58"/>
       <c r="C33" s="8"/>
       <c r="D33" s="13" t="s">
         <v>113</v>
@@ -17055,10 +17055,10 @@
       <c r="I33" s="35"/>
     </row>
     <row r="34" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="53" t="s">
+      <c r="A34" s="55" t="s">
         <v>19</v>
       </c>
-      <c r="B34" s="53"/>
+      <c r="B34" s="55"/>
       <c r="C34" s="26"/>
       <c r="D34" s="27">
         <v>14.94</v>
@@ -17070,10 +17070,10 @@
       <c r="I34" s="35"/>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A35" s="56" t="s">
+      <c r="A35" s="54" t="s">
         <v>64</v>
       </c>
-      <c r="B35" s="56"/>
+      <c r="B35" s="54"/>
       <c r="C35" s="8"/>
       <c r="D35" s="23"/>
       <c r="E35" s="23"/>
@@ -17102,22 +17102,22 @@
       </c>
     </row>
     <row r="39" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A39" s="52" t="s">
+      <c r="A39" s="59" t="s">
         <v>20</v>
       </c>
-      <c r="B39" s="52"/>
-      <c r="C39" s="52"/>
-      <c r="D39" s="52"/>
-      <c r="E39" s="52"/>
-      <c r="F39" s="52"/>
-      <c r="G39" s="52"/>
-      <c r="H39" s="52"/>
+      <c r="B39" s="59"/>
+      <c r="C39" s="59"/>
+      <c r="D39" s="59"/>
+      <c r="E39" s="59"/>
+      <c r="F39" s="59"/>
+      <c r="G39" s="59"/>
+      <c r="H39" s="59"/>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A40" s="54" t="s">
+      <c r="A40" s="56" t="s">
         <v>13</v>
       </c>
-      <c r="B40" s="54"/>
+      <c r="B40" s="56"/>
       <c r="C40" s="8"/>
       <c r="D40" s="11" t="s">
         <v>111</v>
@@ -17133,8 +17133,8 @@
       <c r="K40" s="35"/>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A41" s="54"/>
-      <c r="B41" s="54"/>
+      <c r="A41" s="56"/>
+      <c r="B41" s="56"/>
       <c r="C41" s="8"/>
       <c r="D41" s="11" t="s">
         <v>111</v>
@@ -17150,8 +17150,8 @@
       <c r="K41" s="35"/>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A42" s="54"/>
-      <c r="B42" s="54"/>
+      <c r="A42" s="56"/>
+      <c r="B42" s="56"/>
       <c r="C42" s="8"/>
       <c r="D42" s="11" t="s">
         <v>111</v>
@@ -17167,10 +17167,10 @@
       <c r="K42" s="35"/>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A43" s="50" t="s">
+      <c r="A43" s="57" t="s">
         <v>14</v>
       </c>
-      <c r="B43" s="50"/>
+      <c r="B43" s="57"/>
       <c r="C43" s="9"/>
       <c r="D43" s="11" t="s">
         <v>111</v>
@@ -17186,10 +17186,10 @@
       <c r="K43" s="35"/>
     </row>
     <row r="44" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A44" s="53" t="s">
+      <c r="A44" s="55" t="s">
         <v>62</v>
       </c>
-      <c r="B44" s="53"/>
+      <c r="B44" s="55"/>
       <c r="C44" s="24"/>
       <c r="D44" s="27" t="s">
         <v>112</v>
@@ -17203,10 +17203,10 @@
       <c r="K44" s="35"/>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A45" s="57" t="s">
+      <c r="A45" s="58" t="s">
         <v>18</v>
       </c>
-      <c r="B45" s="57"/>
+      <c r="B45" s="58"/>
       <c r="C45" s="8"/>
       <c r="D45" s="13" t="s">
         <v>113</v>
@@ -17220,8 +17220,8 @@
       <c r="K45" s="35"/>
     </row>
     <row r="46" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="57"/>
-      <c r="B46" s="57"/>
+      <c r="A46" s="58"/>
+      <c r="B46" s="58"/>
       <c r="C46" s="8"/>
       <c r="D46" s="13" t="s">
         <v>113</v>
@@ -17237,8 +17237,8 @@
       <c r="K46" s="35"/>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A47" s="57"/>
-      <c r="B47" s="57"/>
+      <c r="A47" s="58"/>
+      <c r="B47" s="58"/>
       <c r="C47" s="8"/>
       <c r="D47" s="13" t="s">
         <v>113</v>
@@ -17250,10 +17250,10 @@
       <c r="I47" s="35"/>
     </row>
     <row r="48" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A48" s="53" t="s">
+      <c r="A48" s="55" t="s">
         <v>19</v>
       </c>
-      <c r="B48" s="53"/>
+      <c r="B48" s="55"/>
       <c r="C48" s="26"/>
       <c r="D48" s="27">
         <v>14.94</v>
@@ -17265,10 +17265,10 @@
       <c r="I48" s="35"/>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A49" s="56" t="s">
+      <c r="A49" s="54" t="s">
         <v>64</v>
       </c>
-      <c r="B49" s="56"/>
+      <c r="B49" s="54"/>
       <c r="C49" s="8"/>
       <c r="D49" s="23"/>
       <c r="E49" s="23"/>
@@ -17277,20 +17277,20 @@
       <c r="H49" s="23"/>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A51" s="75"/>
-      <c r="B51" s="75"/>
-      <c r="C51" s="75"/>
-      <c r="D51" s="75"/>
-      <c r="E51" s="75"/>
-      <c r="F51" s="75"/>
-      <c r="G51" s="75"/>
-      <c r="H51" s="75"/>
-      <c r="I51" s="75"/>
-      <c r="J51" s="75"/>
-      <c r="K51" s="75"/>
-      <c r="L51" s="75"/>
-      <c r="M51" s="75"/>
-      <c r="N51" s="75"/>
+      <c r="A51" s="52"/>
+      <c r="B51" s="52"/>
+      <c r="C51" s="52"/>
+      <c r="D51" s="52"/>
+      <c r="E51" s="52"/>
+      <c r="F51" s="52"/>
+      <c r="G51" s="52"/>
+      <c r="H51" s="52"/>
+      <c r="I51" s="52"/>
+      <c r="J51" s="52"/>
+      <c r="K51" s="52"/>
+      <c r="L51" s="52"/>
+      <c r="M51" s="52"/>
+      <c r="N51" s="52"/>
     </row>
     <row r="53" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A53" s="7" t="s">
@@ -17341,10 +17341,10 @@
       </c>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A56" s="54" t="s">
+      <c r="A56" s="56" t="s">
         <v>13</v>
       </c>
-      <c r="B56" s="54"/>
+      <c r="B56" s="56"/>
       <c r="C56" s="8"/>
       <c r="D56" s="11"/>
       <c r="E56" s="11"/>
@@ -17357,8 +17357,8 @@
       <c r="J56" s="35"/>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A57" s="54"/>
-      <c r="B57" s="54"/>
+      <c r="A57" s="56"/>
+      <c r="B57" s="56"/>
       <c r="C57" s="8"/>
       <c r="D57" s="11"/>
       <c r="E57" s="11"/>
@@ -17371,8 +17371,8 @@
       <c r="J57" s="35"/>
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A58" s="54"/>
-      <c r="B58" s="54"/>
+      <c r="A58" s="56"/>
+      <c r="B58" s="56"/>
       <c r="C58" s="8"/>
       <c r="D58" s="11"/>
       <c r="E58" s="11"/>
@@ -17381,10 +17381,10 @@
       <c r="H58" s="21"/>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A59" s="50" t="s">
+      <c r="A59" s="57" t="s">
         <v>14</v>
       </c>
-      <c r="B59" s="50"/>
+      <c r="B59" s="57"/>
       <c r="C59" s="9"/>
       <c r="D59" s="11"/>
       <c r="E59" s="11"/>
@@ -17394,10 +17394,10 @@
       <c r="I59" s="35"/>
     </row>
     <row r="60" spans="1:14" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="53" t="s">
+      <c r="A60" s="55" t="s">
         <v>62</v>
       </c>
-      <c r="B60" s="53"/>
+      <c r="B60" s="55"/>
       <c r="C60" s="24"/>
       <c r="D60" s="27"/>
       <c r="E60" s="27"/>
@@ -17407,10 +17407,10 @@
       <c r="I60" s="35"/>
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A61" s="57" t="s">
+      <c r="A61" s="58" t="s">
         <v>18</v>
       </c>
-      <c r="B61" s="57"/>
+      <c r="B61" s="58"/>
       <c r="C61" s="8"/>
       <c r="D61" s="13"/>
       <c r="E61" s="13"/>
@@ -17419,8 +17419,8 @@
       <c r="H61" s="21"/>
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A62" s="57"/>
-      <c r="B62" s="57"/>
+      <c r="A62" s="58"/>
+      <c r="B62" s="58"/>
       <c r="C62" s="8"/>
       <c r="D62" s="13"/>
       <c r="E62" s="13"/>
@@ -17429,8 +17429,8 @@
       <c r="H62" s="21"/>
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A63" s="57"/>
-      <c r="B63" s="57"/>
+      <c r="A63" s="58"/>
+      <c r="B63" s="58"/>
       <c r="C63" s="8"/>
       <c r="D63" s="13"/>
       <c r="E63" s="13"/>
@@ -17439,10 +17439,10 @@
       <c r="H63" s="21"/>
     </row>
     <row r="64" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A64" s="53" t="s">
+      <c r="A64" s="55" t="s">
         <v>19</v>
       </c>
-      <c r="B64" s="53"/>
+      <c r="B64" s="55"/>
       <c r="C64" s="24"/>
       <c r="D64" s="27"/>
       <c r="E64" s="37"/>
@@ -17451,10 +17451,10 @@
       <c r="H64" s="29"/>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A65" s="56" t="s">
+      <c r="A65" s="54" t="s">
         <v>64</v>
       </c>
-      <c r="B65" s="56"/>
+      <c r="B65" s="54"/>
       <c r="C65" s="8"/>
       <c r="D65" s="23"/>
       <c r="E65" s="23"/>
@@ -17483,22 +17483,22 @@
       </c>
     </row>
     <row r="69" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A69" s="52" t="s">
+      <c r="A69" s="59" t="s">
         <v>20</v>
       </c>
-      <c r="B69" s="52"/>
-      <c r="C69" s="52"/>
-      <c r="D69" s="52"/>
-      <c r="E69" s="52"/>
-      <c r="F69" s="52"/>
-      <c r="G69" s="52"/>
-      <c r="H69" s="52"/>
+      <c r="B69" s="59"/>
+      <c r="C69" s="59"/>
+      <c r="D69" s="59"/>
+      <c r="E69" s="59"/>
+      <c r="F69" s="59"/>
+      <c r="G69" s="59"/>
+      <c r="H69" s="59"/>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A70" s="54" t="s">
+      <c r="A70" s="56" t="s">
         <v>13</v>
       </c>
-      <c r="B70" s="54"/>
+      <c r="B70" s="56"/>
       <c r="C70" s="8"/>
       <c r="D70" s="11"/>
       <c r="E70" s="11"/>
@@ -17514,8 +17514,8 @@
       <c r="K70" s="35"/>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A71" s="54"/>
-      <c r="B71" s="54"/>
+      <c r="A71" s="56"/>
+      <c r="B71" s="56"/>
       <c r="C71" s="8"/>
       <c r="D71" s="11"/>
       <c r="E71" s="11"/>
@@ -17531,8 +17531,8 @@
       <c r="K71" s="35"/>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A72" s="54"/>
-      <c r="B72" s="54"/>
+      <c r="A72" s="56"/>
+      <c r="B72" s="56"/>
       <c r="C72" s="8"/>
       <c r="D72" s="11"/>
       <c r="E72" s="11"/>
@@ -17548,10 +17548,10 @@
       <c r="K72" s="35"/>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A73" s="50" t="s">
+      <c r="A73" s="57" t="s">
         <v>14</v>
       </c>
-      <c r="B73" s="50"/>
+      <c r="B73" s="57"/>
       <c r="C73" s="9"/>
       <c r="D73" s="11"/>
       <c r="E73" s="16"/>
@@ -17565,10 +17565,10 @@
       <c r="K73" s="35"/>
     </row>
     <row r="74" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A74" s="53" t="s">
+      <c r="A74" s="55" t="s">
         <v>62</v>
       </c>
-      <c r="B74" s="53"/>
+      <c r="B74" s="55"/>
       <c r="C74" s="24"/>
       <c r="D74" s="27"/>
       <c r="E74" s="27"/>
@@ -17582,10 +17582,10 @@
       <c r="K74" s="35"/>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A75" s="57" t="s">
+      <c r="A75" s="58" t="s">
         <v>18</v>
       </c>
-      <c r="B75" s="57"/>
+      <c r="B75" s="58"/>
       <c r="C75" s="8"/>
       <c r="D75" s="13"/>
       <c r="E75" s="13"/>
@@ -17599,8 +17599,8 @@
       <c r="K75" s="35"/>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A76" s="57"/>
-      <c r="B76" s="57"/>
+      <c r="A76" s="58"/>
+      <c r="B76" s="58"/>
       <c r="C76" s="8"/>
       <c r="D76" s="13"/>
       <c r="E76" s="13"/>
@@ -17616,8 +17616,8 @@
       <c r="K76" s="35"/>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A77" s="57"/>
-      <c r="B77" s="57"/>
+      <c r="A77" s="58"/>
+      <c r="B77" s="58"/>
       <c r="C77" s="8"/>
       <c r="D77" s="13"/>
       <c r="E77" s="13"/>
@@ -17629,10 +17629,10 @@
       <c r="I77" s="35"/>
     </row>
     <row r="78" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A78" s="53" t="s">
+      <c r="A78" s="55" t="s">
         <v>19</v>
       </c>
-      <c r="B78" s="53"/>
+      <c r="B78" s="55"/>
       <c r="C78" s="26"/>
       <c r="D78" s="27"/>
       <c r="E78" s="27"/>
@@ -17644,10 +17644,10 @@
       <c r="I78" s="35"/>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A79" s="56" t="s">
+      <c r="A79" s="54" t="s">
         <v>64</v>
       </c>
-      <c r="B79" s="56"/>
+      <c r="B79" s="54"/>
       <c r="C79" s="8"/>
       <c r="D79" s="23"/>
       <c r="E79" s="23"/>
@@ -17658,12 +17658,38 @@
       <c r="H79" s="23"/>
     </row>
     <row r="82" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F82" s="76" t="s">
+      <c r="F82" s="53" t="s">
         <v>249</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="35">
+    <mergeCell ref="A31:B33"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A25:H25"/>
+    <mergeCell ref="A26:B28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="A17:B19"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="G5:H8"/>
+    <mergeCell ref="A12:B14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A39:H39"/>
+    <mergeCell ref="A40:B42"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="A45:B47"/>
+    <mergeCell ref="A56:B58"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="A61:B63"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="A49:B49"/>
     <mergeCell ref="A74:B74"/>
     <mergeCell ref="A75:B77"/>
     <mergeCell ref="A78:B78"/>
@@ -17673,32 +17699,6 @@
     <mergeCell ref="A69:H69"/>
     <mergeCell ref="A70:B72"/>
     <mergeCell ref="A73:B73"/>
-    <mergeCell ref="A56:B58"/>
-    <mergeCell ref="A59:B59"/>
-    <mergeCell ref="A60:B60"/>
-    <mergeCell ref="A61:B63"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="A39:H39"/>
-    <mergeCell ref="A40:B42"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="A45:B47"/>
-    <mergeCell ref="A17:B19"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="G5:H8"/>
-    <mergeCell ref="A12:B14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A31:B33"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A25:H25"/>
-    <mergeCell ref="A26:B28"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="A30:B30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
